--- a/experiments/suricata/data/bigFlows.pcap,1-4,VM,sysstat.xlsx
+++ b/experiments/suricata/data/bigFlows.pcap,1-4,VM,sysstat.xlsx
@@ -4763,7 +4763,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5371,10 +5371,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5382,7 +5383,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660423" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5410,442 +5411,453 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
-      <sheetName val="1460696628"/>
-      <sheetName val="1460697084"/>
-      <sheetName val="1460697539"/>
-      <sheetName val="1460697978"/>
-      <sheetName val="1460698434"/>
-      <sheetName val="1460737338"/>
-      <sheetName val="1460737793"/>
-      <sheetName val="1460738248"/>
-      <sheetName val="1460738687"/>
-      <sheetName val="1460739143"/>
-      <sheetName val="1460758050"/>
-      <sheetName val="1460758505"/>
-      <sheetName val="1460759169"/>
-      <sheetName val="1460759625"/>
-      <sheetName val="1460777040"/>
-      <sheetName val="1460777479"/>
-      <sheetName val="1460777917"/>
-      <sheetName val="1460778374"/>
-      <sheetName val="1460778813"/>
-      <sheetName val="1460781208"/>
-      <sheetName val="1460817708"/>
-      <sheetName val="1460818163"/>
-      <sheetName val="1460818620"/>
-      <sheetName val="1460819059"/>
-      <sheetName val="1460819515"/>
-      <sheetName val="1460898609"/>
-      <sheetName val="1460899049"/>
-      <sheetName val="1460899506"/>
-      <sheetName val="1460899946"/>
-      <sheetName val="1460900402"/>
+      <sheetName val="1460678849"/>
+      <sheetName val="1460679306"/>
+      <sheetName val="1460679742"/>
+      <sheetName val="1460680195"/>
+      <sheetName val="1460680648"/>
+      <sheetName val="1460719602"/>
+      <sheetName val="1460720038"/>
+      <sheetName val="1460720492"/>
+      <sheetName val="1460720945"/>
+      <sheetName val="1460721398"/>
+      <sheetName val="1460739968"/>
+      <sheetName val="1460740422"/>
+      <sheetName val="1460740875"/>
+      <sheetName val="1460741329"/>
+      <sheetName val="1460741765"/>
+      <sheetName val="1460759634"/>
+      <sheetName val="1460760088"/>
+      <sheetName val="1460760541"/>
+      <sheetName val="1460760978"/>
+      <sheetName val="1460761431"/>
+      <sheetName val="1460799937"/>
+      <sheetName val="1460800390"/>
+      <sheetName val="1460800827"/>
+      <sheetName val="1460801280"/>
+      <sheetName val="1460801717"/>
+      <sheetName val="1460880899"/>
+      <sheetName val="1460881352"/>
+      <sheetName val="1460881806"/>
+      <sheetName val="1460882242"/>
+      <sheetName val="1460882697"/>
+      <sheetName val="1461054732"/>
+      <sheetName val="1461055168"/>
+      <sheetName val="1461055622"/>
+      <sheetName val="1461056075"/>
+      <sheetName val="1461056528"/>
+      <sheetName val="1461056982"/>
+      <sheetName val="1461057435"/>
+      <sheetName val="1461057871"/>
+      <sheetName val="1461058325"/>
+      <sheetName val="1461058778"/>
+      <sheetName val="1461059232"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>3.5</v>
+            <v>12.6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="I3">
-            <v>7.8</v>
+            <v>14.7</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>16.2</v>
+            <v>18.100000000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>21.1</v>
+            <v>19.399999999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>24.2</v>
+            <v>19.5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>24.9</v>
+            <v>19.8</v>
           </cell>
         </row>
         <row r="8">
           <cell r="I8">
-            <v>25.15</v>
+            <v>19.8</v>
           </cell>
         </row>
         <row r="9">
           <cell r="I9">
-            <v>25.5</v>
+            <v>20.100000000000001</v>
           </cell>
         </row>
         <row r="10">
           <cell r="I10">
-            <v>25.6</v>
+            <v>20.100000000000001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="I11">
-            <v>25.7</v>
+            <v>20.100000000000001</v>
           </cell>
         </row>
         <row r="12">
           <cell r="I12">
-            <v>25.75</v>
+            <v>20.5</v>
           </cell>
         </row>
         <row r="13">
           <cell r="I13">
-            <v>25.8</v>
+            <v>20.6</v>
           </cell>
         </row>
         <row r="14">
           <cell r="I14">
-            <v>25.9</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="15">
           <cell r="I15">
-            <v>25.9</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="16">
           <cell r="I16">
-            <v>25.9</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="17">
           <cell r="I17">
-            <v>25.9</v>
+            <v>21.3</v>
           </cell>
         </row>
         <row r="18">
           <cell r="I18">
-            <v>25.9</v>
+            <v>21.3</v>
           </cell>
         </row>
         <row r="19">
           <cell r="I19">
-            <v>25.9</v>
+            <v>21.5</v>
           </cell>
         </row>
         <row r="20">
           <cell r="I20">
-            <v>25.9</v>
+            <v>21.5</v>
           </cell>
         </row>
         <row r="21">
           <cell r="I21">
-            <v>25.95</v>
+            <v>21.5</v>
           </cell>
         </row>
         <row r="22">
           <cell r="I22">
-            <v>26</v>
+            <v>21.7</v>
           </cell>
         </row>
         <row r="23">
           <cell r="I23">
-            <v>26.05</v>
+            <v>21.7</v>
           </cell>
         </row>
         <row r="24">
           <cell r="I24">
-            <v>26.1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="25">
           <cell r="I25">
-            <v>26.1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="26">
           <cell r="I26">
-            <v>26.1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="27">
           <cell r="I27">
-            <v>26.1</v>
+            <v>22.2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="I28">
-            <v>26.1</v>
+            <v>22.2</v>
           </cell>
         </row>
         <row r="29">
           <cell r="I29">
-            <v>26.1</v>
+            <v>22.3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="I30">
-            <v>26.1</v>
+            <v>22.3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="I31">
-            <v>26.1</v>
+            <v>22.4</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>26.2</v>
+            <v>22.4</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>26.2</v>
+            <v>22.5</v>
           </cell>
         </row>
         <row r="34">
           <cell r="I34">
-            <v>26.3</v>
+            <v>22.6</v>
           </cell>
         </row>
         <row r="35">
           <cell r="I35">
-            <v>26.3</v>
+            <v>22.6</v>
           </cell>
         </row>
         <row r="36">
           <cell r="I36">
-            <v>26.3</v>
+            <v>22.9</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>26.65</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="38">
           <cell r="I38">
-            <v>28.1</v>
+            <v>23.1</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>29.8</v>
+            <v>23.4</v>
           </cell>
         </row>
         <row r="40">
           <cell r="I40">
-            <v>30.35</v>
+            <v>23.4</v>
           </cell>
         </row>
         <row r="41">
           <cell r="I41">
-            <v>30.85</v>
+            <v>23.8</v>
           </cell>
         </row>
         <row r="42">
           <cell r="I42">
-            <v>31.25</v>
+            <v>23.9</v>
           </cell>
         </row>
         <row r="43">
           <cell r="I43">
-            <v>31.700000000000003</v>
+            <v>24.1</v>
           </cell>
         </row>
         <row r="44">
           <cell r="I44">
-            <v>32.200000000000003</v>
+            <v>24.4</v>
           </cell>
         </row>
         <row r="45">
           <cell r="I45">
-            <v>32.799999999999997</v>
+            <v>24.4</v>
           </cell>
         </row>
         <row r="46">
           <cell r="I46">
-            <v>33.299999999999997</v>
+            <v>24.8</v>
           </cell>
         </row>
         <row r="47">
           <cell r="I47">
-            <v>33.6</v>
+            <v>25.1</v>
           </cell>
         </row>
         <row r="48">
           <cell r="I48">
-            <v>33.650000000000006</v>
+            <v>25.2</v>
           </cell>
         </row>
         <row r="49">
           <cell r="I49">
-            <v>33.799999999999997</v>
+            <v>25.4</v>
           </cell>
         </row>
         <row r="50">
           <cell r="I50">
-            <v>33.75</v>
+            <v>25.5</v>
           </cell>
         </row>
         <row r="51">
           <cell r="I51">
-            <v>33.799999999999997</v>
+            <v>25.6</v>
           </cell>
         </row>
         <row r="52">
           <cell r="I52">
-            <v>33.9</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="53">
           <cell r="I53">
-            <v>33.950000000000003</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="54">
           <cell r="I54">
-            <v>33.950000000000003</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="55">
           <cell r="I55">
-            <v>34.150000000000006</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="56">
           <cell r="I56">
-            <v>34.65</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="57">
           <cell r="I57">
-            <v>34.799999999999997</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="58">
           <cell r="I58">
-            <v>34.849999999999994</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="59">
           <cell r="I59">
-            <v>34.9</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="60">
           <cell r="I60">
-            <v>34.9</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="61">
           <cell r="I61">
-            <v>35</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="62">
           <cell r="I62">
-            <v>35</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="63">
           <cell r="I63">
-            <v>35</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="64">
           <cell r="I64">
-            <v>35.150000000000006</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="65">
           <cell r="I65">
-            <v>35.150000000000006</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="66">
           <cell r="I66">
-            <v>35.150000000000006</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="67">
           <cell r="I67">
-            <v>35.200000000000003</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="68">
           <cell r="I68">
-            <v>35.25</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="69">
           <cell r="I69">
-            <v>35.299999999999997</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="70">
           <cell r="I70">
-            <v>35.4</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="71">
           <cell r="I71">
-            <v>35.4</v>
+            <v>26.4</v>
           </cell>
         </row>
         <row r="72">
           <cell r="I72">
-            <v>35.4</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="73">
           <cell r="I73">
-            <v>35.4</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="74">
           <cell r="I74">
-            <v>35.5</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="75">
           <cell r="I75">
-            <v>35.6</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="76">
           <cell r="I76">
-            <v>35.6</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77">
-            <v>35.650000000000006</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78">
-            <v>35.650000000000006</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="79">
           <cell r="I79">
-            <v>35.650000000000006</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="80">
           <cell r="I80">
-            <v>35.6</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="81">
           <cell r="I81">
-            <v>35.5</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="82">
           <cell r="I82">
-            <v>35.4</v>
+            <v>26.3</v>
           </cell>
         </row>
       </sheetData>
@@ -5879,6 +5891,17 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5889,58 +5912,58 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
-      <sheetName val="1460994712"/>
-      <sheetName val="1460995150"/>
-      <sheetName val="1460995605"/>
-      <sheetName val="1460996043"/>
-      <sheetName val="1460996498"/>
-      <sheetName val="1460996936"/>
-      <sheetName val="1460997375"/>
-      <sheetName val="1460997830"/>
-      <sheetName val="1460998286"/>
-      <sheetName val="1460998741"/>
-      <sheetName val="1460999180"/>
-      <sheetName val="1460999618"/>
-      <sheetName val="1461000074"/>
-      <sheetName val="1461000529"/>
-      <sheetName val="1461000984"/>
-      <sheetName val="1461001439"/>
-      <sheetName val="1461001895"/>
-      <sheetName val="1461002350"/>
-      <sheetName val="1461002790"/>
-      <sheetName val="1461003228"/>
-      <sheetName val="1461003684"/>
-      <sheetName val="1461004140"/>
-      <sheetName val="1461004578"/>
-      <sheetName val="1461005033"/>
-      <sheetName val="1461005488"/>
-      <sheetName val="1461005926"/>
-      <sheetName val="1461006886"/>
-      <sheetName val="1461007396"/>
-      <sheetName val="1461007899"/>
-      <sheetName val="1461092060"/>
-      <sheetName val="1461092499"/>
-      <sheetName val="1461092939"/>
-      <sheetName val="1461093394"/>
-      <sheetName val="1461093870"/>
-      <sheetName val="1461094308"/>
-      <sheetName val="1461094747"/>
-      <sheetName val="1461095185"/>
-      <sheetName val="1461095624"/>
-      <sheetName val="1461096080"/>
-      <sheetName val="1461096537"/>
-      <sheetName val="1461096992"/>
+      <sheetName val="1460678849"/>
+      <sheetName val="1460679306"/>
+      <sheetName val="1460679742"/>
+      <sheetName val="1460680195"/>
+      <sheetName val="1460680648"/>
+      <sheetName val="1460719602"/>
+      <sheetName val="1460720038"/>
+      <sheetName val="1460720492"/>
+      <sheetName val="1460720945"/>
+      <sheetName val="1460721398"/>
+      <sheetName val="1460739968"/>
+      <sheetName val="1460740422"/>
+      <sheetName val="1460740875"/>
+      <sheetName val="1460741329"/>
+      <sheetName val="1460741765"/>
+      <sheetName val="1460759634"/>
+      <sheetName val="1460760088"/>
+      <sheetName val="1460760541"/>
+      <sheetName val="1460760978"/>
+      <sheetName val="1460761431"/>
+      <sheetName val="1460799937"/>
+      <sheetName val="1460800390"/>
+      <sheetName val="1460800827"/>
+      <sheetName val="1460801280"/>
+      <sheetName val="1460801717"/>
+      <sheetName val="1460880899"/>
+      <sheetName val="1460881352"/>
+      <sheetName val="1460881806"/>
+      <sheetName val="1460882242"/>
+      <sheetName val="1460882697"/>
+      <sheetName val="1461054732"/>
+      <sheetName val="1461055168"/>
+      <sheetName val="1461055622"/>
+      <sheetName val="1461056075"/>
+      <sheetName val="1461056528"/>
+      <sheetName val="1461056982"/>
+      <sheetName val="1461057435"/>
+      <sheetName val="1461057871"/>
+      <sheetName val="1461058325"/>
+      <sheetName val="1461058778"/>
+      <sheetName val="1461059232"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>3.5</v>
+            <v>3.6</v>
           </cell>
         </row>
         <row r="3">
           <cell r="I3">
-            <v>7.9</v>
+            <v>8.1999999999999993</v>
           </cell>
         </row>
         <row r="4">
@@ -5950,392 +5973,392 @@
         </row>
         <row r="5">
           <cell r="I5">
-            <v>18.399999999999999</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>22.6</v>
+            <v>16.3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>24.3</v>
+            <v>16.399999999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="I8">
-            <v>25.2</v>
+            <v>16.399999999999999</v>
           </cell>
         </row>
         <row r="9">
           <cell r="I9">
-            <v>25.6</v>
+            <v>16.600000000000001</v>
           </cell>
         </row>
         <row r="10">
           <cell r="I10">
-            <v>25.6</v>
+            <v>16.7</v>
           </cell>
         </row>
         <row r="11">
           <cell r="I11">
-            <v>25.7</v>
+            <v>16.899999999999999</v>
           </cell>
         </row>
         <row r="12">
           <cell r="I12">
-            <v>25.8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="13">
           <cell r="I13">
-            <v>25.8</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="14">
           <cell r="I14">
-            <v>25.9</v>
+            <v>17.100000000000001</v>
           </cell>
         </row>
         <row r="15">
           <cell r="I15">
-            <v>25.9</v>
+            <v>17.100000000000001</v>
           </cell>
         </row>
         <row r="16">
           <cell r="I16">
-            <v>25.9</v>
+            <v>17.100000000000001</v>
           </cell>
         </row>
         <row r="17">
           <cell r="I17">
-            <v>25.9</v>
+            <v>17.100000000000001</v>
           </cell>
         </row>
         <row r="18">
           <cell r="I18">
-            <v>26</v>
+            <v>17.2</v>
           </cell>
         </row>
         <row r="19">
           <cell r="I19">
-            <v>26</v>
+            <v>17.3</v>
           </cell>
         </row>
         <row r="20">
           <cell r="I20">
-            <v>26</v>
+            <v>17.3</v>
           </cell>
         </row>
         <row r="21">
           <cell r="I21">
-            <v>26</v>
+            <v>17.5</v>
           </cell>
         </row>
         <row r="22">
           <cell r="I22">
-            <v>26.1</v>
+            <v>17.5</v>
           </cell>
         </row>
         <row r="23">
           <cell r="I23">
-            <v>26.1</v>
+            <v>17.5</v>
           </cell>
         </row>
         <row r="24">
           <cell r="I24">
-            <v>26.2</v>
+            <v>17.600000000000001</v>
           </cell>
         </row>
         <row r="25">
           <cell r="I25">
-            <v>26.2</v>
+            <v>17.600000000000001</v>
           </cell>
         </row>
         <row r="26">
           <cell r="I26">
-            <v>26.2</v>
+            <v>17.8</v>
           </cell>
         </row>
         <row r="27">
           <cell r="I27">
-            <v>26.3</v>
+            <v>17.8</v>
           </cell>
         </row>
         <row r="28">
           <cell r="I28">
-            <v>26.3</v>
+            <v>17.8</v>
           </cell>
         </row>
         <row r="29">
           <cell r="I29">
-            <v>26.3</v>
+            <v>17.8</v>
           </cell>
         </row>
         <row r="30">
           <cell r="I30">
-            <v>26.3</v>
+            <v>17.8</v>
           </cell>
         </row>
         <row r="31">
           <cell r="I31">
-            <v>26.3</v>
+            <v>17.899999999999999</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>26.4</v>
+            <v>17.899999999999999</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>26.4</v>
+            <v>17.899999999999999</v>
           </cell>
         </row>
         <row r="34">
           <cell r="I34">
-            <v>26.4</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="35">
           <cell r="I35">
-            <v>26.4</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="36">
           <cell r="I36">
-            <v>26.4</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>26.8</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="38">
           <cell r="I38">
-            <v>28.5</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>29.6</v>
+            <v>18.100000000000001</v>
           </cell>
         </row>
         <row r="40">
           <cell r="I40">
-            <v>30.4</v>
+            <v>18.100000000000001</v>
           </cell>
         </row>
         <row r="41">
           <cell r="I41">
-            <v>31</v>
+            <v>18.2</v>
           </cell>
         </row>
         <row r="42">
           <cell r="I42">
-            <v>31.7</v>
+            <v>18.2</v>
           </cell>
         </row>
         <row r="43">
           <cell r="I43">
-            <v>32.1</v>
+            <v>18.2</v>
           </cell>
         </row>
         <row r="44">
           <cell r="I44">
-            <v>32.6</v>
+            <v>18.3</v>
           </cell>
         </row>
         <row r="45">
           <cell r="I45">
-            <v>33.299999999999997</v>
+            <v>18.3</v>
           </cell>
         </row>
         <row r="46">
           <cell r="I46">
-            <v>33.6</v>
+            <v>18.399999999999999</v>
           </cell>
         </row>
         <row r="47">
           <cell r="I47">
-            <v>33.799999999999997</v>
+            <v>18.399999999999999</v>
           </cell>
         </row>
         <row r="48">
           <cell r="I48">
-            <v>33.9</v>
+            <v>18.5</v>
           </cell>
         </row>
         <row r="49">
           <cell r="I49">
-            <v>33.9</v>
+            <v>18.600000000000001</v>
           </cell>
         </row>
         <row r="50">
           <cell r="I50">
-            <v>34.1</v>
+            <v>18.7</v>
           </cell>
         </row>
         <row r="51">
           <cell r="I51">
-            <v>34.4</v>
+            <v>18.7</v>
           </cell>
         </row>
         <row r="52">
           <cell r="I52">
-            <v>34.5</v>
+            <v>18.8</v>
           </cell>
         </row>
         <row r="53">
           <cell r="I53">
-            <v>34.9</v>
+            <v>18.8</v>
           </cell>
         </row>
         <row r="54">
           <cell r="I54">
-            <v>35.1</v>
+            <v>18.8</v>
           </cell>
         </row>
         <row r="55">
           <cell r="I55">
-            <v>35.299999999999997</v>
+            <v>18.8</v>
           </cell>
         </row>
         <row r="56">
           <cell r="I56">
-            <v>35.299999999999997</v>
+            <v>18.8</v>
           </cell>
         </row>
         <row r="57">
           <cell r="I57">
-            <v>35.4</v>
+            <v>18.8</v>
           </cell>
         </row>
         <row r="58">
           <cell r="I58">
-            <v>35.4</v>
+            <v>18.8</v>
           </cell>
         </row>
         <row r="59">
           <cell r="I59">
-            <v>35.4</v>
+            <v>18.899999999999999</v>
           </cell>
         </row>
         <row r="60">
           <cell r="I60">
-            <v>35.5</v>
+            <v>18.899999999999999</v>
           </cell>
         </row>
         <row r="61">
           <cell r="I61">
-            <v>35.5</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="62">
           <cell r="I62">
-            <v>35.6</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="63">
           <cell r="I63">
-            <v>35.6</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="64">
           <cell r="I64">
-            <v>35.6</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="65">
           <cell r="I65">
-            <v>35.6</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="66">
           <cell r="I66">
-            <v>35.700000000000003</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="67">
           <cell r="I67">
-            <v>35.700000000000003</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="68">
           <cell r="I68">
-            <v>35.700000000000003</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="69">
           <cell r="I69">
-            <v>35.700000000000003</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="70">
           <cell r="I70">
-            <v>35.799999999999997</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="71">
           <cell r="I71">
-            <v>35.799999999999997</v>
+            <v>19.100000000000001</v>
           </cell>
         </row>
         <row r="72">
           <cell r="I72">
-            <v>35.799999999999997</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="73">
           <cell r="I73">
-            <v>35.799999999999997</v>
+            <v>19.100000000000001</v>
           </cell>
         </row>
         <row r="74">
           <cell r="I74">
-            <v>35.799999999999997</v>
+            <v>19.100000000000001</v>
           </cell>
         </row>
         <row r="75">
           <cell r="I75">
-            <v>35.9</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="76">
           <cell r="I76">
-            <v>35.9</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77">
-            <v>35.9</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78">
-            <v>35.9</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="79">
           <cell r="I79">
-            <v>35.9</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="80">
           <cell r="I80">
-            <v>35.9</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="81">
           <cell r="I81">
-            <v>35.799999999999997</v>
+            <v>19</v>
           </cell>
         </row>
         <row r="82">
           <cell r="I82">
-            <v>35.799999999999997</v>
+            <v>19.100000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -6435,407 +6458,407 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>3.5</v>
+            <v>12.55</v>
           </cell>
         </row>
         <row r="3">
           <cell r="I3">
-            <v>8.1</v>
+            <v>14.7</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>15.9</v>
+            <v>17.3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>16.8</v>
+            <v>19.399999999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>18.5</v>
+            <v>19.899999999999999</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>18.899999999999999</v>
+            <v>20.9</v>
           </cell>
         </row>
         <row r="8">
           <cell r="I8">
-            <v>21.1</v>
+            <v>21.7</v>
           </cell>
         </row>
         <row r="9">
           <cell r="I9">
-            <v>23.7</v>
+            <v>22.9</v>
           </cell>
         </row>
         <row r="10">
           <cell r="I10">
-            <v>25.1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="11">
           <cell r="I11">
-            <v>25.6</v>
+            <v>24.55</v>
           </cell>
         </row>
         <row r="12">
           <cell r="I12">
-            <v>25.7</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="13">
           <cell r="I13">
-            <v>25.8</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="14">
           <cell r="I14">
-            <v>25.9</v>
+            <v>25.4</v>
           </cell>
         </row>
         <row r="15">
           <cell r="I15">
-            <v>25.9</v>
+            <v>25.4</v>
           </cell>
         </row>
         <row r="16">
           <cell r="I16">
-            <v>25.9</v>
+            <v>25.4</v>
           </cell>
         </row>
         <row r="17">
           <cell r="I17">
-            <v>25.9</v>
+            <v>25.8</v>
           </cell>
         </row>
         <row r="18">
           <cell r="I18">
-            <v>25.9</v>
+            <v>25.8</v>
           </cell>
         </row>
         <row r="19">
           <cell r="I19">
-            <v>26</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="20">
           <cell r="I20">
-            <v>26</v>
+            <v>25.95</v>
           </cell>
         </row>
         <row r="21">
           <cell r="I21">
-            <v>26.1</v>
+            <v>25.95</v>
           </cell>
         </row>
         <row r="22">
           <cell r="I22">
-            <v>26.1</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="23">
           <cell r="I23">
-            <v>26.1</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="24">
           <cell r="I24">
-            <v>26.2</v>
+            <v>26.5</v>
           </cell>
         </row>
         <row r="25">
           <cell r="I25">
-            <v>26.2</v>
+            <v>26.5</v>
           </cell>
         </row>
         <row r="26">
           <cell r="I26">
-            <v>26.2</v>
+            <v>26.5</v>
           </cell>
         </row>
         <row r="27">
           <cell r="I27">
-            <v>26.2</v>
+            <v>26.7</v>
           </cell>
         </row>
         <row r="28">
           <cell r="I28">
-            <v>26.2</v>
+            <v>26.7</v>
           </cell>
         </row>
         <row r="29">
           <cell r="I29">
-            <v>26.3</v>
+            <v>26.75</v>
           </cell>
         </row>
         <row r="30">
           <cell r="I30">
-            <v>26.3</v>
+            <v>26.8</v>
           </cell>
         </row>
         <row r="31">
           <cell r="I31">
-            <v>26.3</v>
+            <v>26.85</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>26.3</v>
+            <v>26.85</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>26.3</v>
+            <v>26.95</v>
           </cell>
         </row>
         <row r="34">
           <cell r="I34">
-            <v>26.4</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="35">
           <cell r="I35">
-            <v>26.35</v>
+            <v>27.1</v>
           </cell>
         </row>
         <row r="36">
           <cell r="I36">
-            <v>26.4</v>
+            <v>27.15</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>26.55</v>
+            <v>27.2</v>
           </cell>
         </row>
         <row r="38">
           <cell r="I38">
-            <v>27.9</v>
+            <v>27.45</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>30.1</v>
+            <v>28.4</v>
           </cell>
         </row>
         <row r="40">
           <cell r="I40">
-            <v>31.4</v>
+            <v>29.3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="I41">
-            <v>32.1</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="42">
           <cell r="I42">
-            <v>32.200000000000003</v>
+            <v>30.45</v>
           </cell>
         </row>
         <row r="43">
           <cell r="I43">
-            <v>32.299999999999997</v>
+            <v>30.7</v>
           </cell>
         </row>
         <row r="44">
           <cell r="I44">
-            <v>32.349999999999994</v>
+            <v>31.2</v>
           </cell>
         </row>
         <row r="45">
           <cell r="I45">
-            <v>32.349999999999994</v>
+            <v>31.5</v>
           </cell>
         </row>
         <row r="46">
           <cell r="I46">
-            <v>32.450000000000003</v>
+            <v>31.6</v>
           </cell>
         </row>
         <row r="47">
           <cell r="I47">
-            <v>32.5</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="48">
           <cell r="I48">
-            <v>32.450000000000003</v>
+            <v>32.200000000000003</v>
           </cell>
         </row>
         <row r="49">
           <cell r="I49">
-            <v>32.5</v>
+            <v>32.6</v>
           </cell>
         </row>
         <row r="50">
           <cell r="I50">
-            <v>32.450000000000003</v>
+            <v>32.799999999999997</v>
           </cell>
         </row>
         <row r="51">
           <cell r="I51">
-            <v>32.5</v>
+            <v>32.799999999999997</v>
           </cell>
         </row>
         <row r="52">
           <cell r="I52">
-            <v>32.5</v>
+            <v>33.200000000000003</v>
           </cell>
         </row>
         <row r="53">
           <cell r="I53">
-            <v>32.5</v>
+            <v>33.200000000000003</v>
           </cell>
         </row>
         <row r="54">
           <cell r="I54">
-            <v>32.549999999999997</v>
+            <v>33.450000000000003</v>
           </cell>
         </row>
         <row r="55">
           <cell r="I55">
-            <v>32.5</v>
+            <v>33.650000000000006</v>
           </cell>
         </row>
         <row r="56">
           <cell r="I56">
-            <v>32.5</v>
+            <v>33.650000000000006</v>
           </cell>
         </row>
         <row r="57">
           <cell r="I57">
-            <v>32.549999999999997</v>
+            <v>34.049999999999997</v>
           </cell>
         </row>
         <row r="58">
           <cell r="I58">
-            <v>32.549999999999997</v>
+            <v>34.049999999999997</v>
           </cell>
         </row>
         <row r="59">
           <cell r="I59">
-            <v>32.549999999999997</v>
+            <v>34.1</v>
           </cell>
         </row>
         <row r="60">
           <cell r="I60">
-            <v>32.5</v>
+            <v>34.4</v>
           </cell>
         </row>
         <row r="61">
           <cell r="I61">
-            <v>32.549999999999997</v>
+            <v>34.4</v>
           </cell>
         </row>
         <row r="62">
           <cell r="I62">
-            <v>32.549999999999997</v>
+            <v>34.799999999999997</v>
           </cell>
         </row>
         <row r="63">
           <cell r="I63">
-            <v>32.450000000000003</v>
+            <v>34.799999999999997</v>
           </cell>
         </row>
         <row r="64">
           <cell r="I64">
-            <v>32.450000000000003</v>
+            <v>34.799999999999997</v>
           </cell>
         </row>
         <row r="65">
           <cell r="I65">
-            <v>32.4</v>
+            <v>35.200000000000003</v>
           </cell>
         </row>
         <row r="66">
           <cell r="I66">
-            <v>32.4</v>
+            <v>35.200000000000003</v>
           </cell>
         </row>
         <row r="67">
           <cell r="I67">
-            <v>32.4</v>
+            <v>35.549999999999997</v>
           </cell>
         </row>
         <row r="68">
           <cell r="I68">
-            <v>32.349999999999994</v>
+            <v>35.549999999999997</v>
           </cell>
         </row>
         <row r="69">
           <cell r="I69">
-            <v>32.4</v>
+            <v>35.549999999999997</v>
           </cell>
         </row>
         <row r="70">
           <cell r="I70">
-            <v>32.349999999999994</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="71">
           <cell r="I71">
-            <v>32.4</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="72">
           <cell r="I72">
-            <v>32.450000000000003</v>
+            <v>36.1</v>
           </cell>
         </row>
         <row r="73">
           <cell r="I73">
-            <v>32.450000000000003</v>
+            <v>36.1</v>
           </cell>
         </row>
         <row r="74">
           <cell r="I74">
-            <v>32.9</v>
+            <v>36.1</v>
           </cell>
         </row>
         <row r="75">
           <cell r="I75">
-            <v>33</v>
+            <v>36.349999999999994</v>
           </cell>
         </row>
         <row r="76">
           <cell r="I76">
-            <v>33</v>
+            <v>36.349999999999994</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77">
-            <v>33</v>
+            <v>36.5</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78">
-            <v>33</v>
+            <v>36.5</v>
           </cell>
         </row>
         <row r="79">
           <cell r="I79">
-            <v>33.049999999999997</v>
+            <v>36.5</v>
           </cell>
         </row>
         <row r="80">
           <cell r="I80">
-            <v>33.049999999999997</v>
+            <v>36.75</v>
           </cell>
         </row>
         <row r="81">
           <cell r="I81">
-            <v>32.849999999999994</v>
+            <v>36.75</v>
           </cell>
         </row>
         <row r="82">
           <cell r="I82">
-            <v>32.849999999999994</v>
+            <v>37</v>
           </cell>
         </row>
       </sheetData>
@@ -6889,58 +6912,57 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
-      <sheetName val="1460678849"/>
-      <sheetName val="1460679306"/>
-      <sheetName val="1460679742"/>
-      <sheetName val="1460680195"/>
-      <sheetName val="1460680648"/>
-      <sheetName val="1460719602"/>
-      <sheetName val="1460720038"/>
-      <sheetName val="1460720492"/>
-      <sheetName val="1460720945"/>
-      <sheetName val="1460721398"/>
-      <sheetName val="1460739968"/>
-      <sheetName val="1460740422"/>
-      <sheetName val="1460740875"/>
-      <sheetName val="1460741329"/>
-      <sheetName val="1460741765"/>
-      <sheetName val="1460759634"/>
-      <sheetName val="1460760088"/>
-      <sheetName val="1460760541"/>
-      <sheetName val="1460760978"/>
-      <sheetName val="1460761431"/>
-      <sheetName val="1460799937"/>
-      <sheetName val="1460800390"/>
-      <sheetName val="1460800827"/>
-      <sheetName val="1460801280"/>
-      <sheetName val="1460801717"/>
-      <sheetName val="1460880899"/>
-      <sheetName val="1460881352"/>
-      <sheetName val="1460881806"/>
-      <sheetName val="1460882242"/>
-      <sheetName val="1460882697"/>
-      <sheetName val="1461054732"/>
-      <sheetName val="1461055168"/>
-      <sheetName val="1461055622"/>
-      <sheetName val="1461056075"/>
-      <sheetName val="1461056528"/>
-      <sheetName val="1461056982"/>
-      <sheetName val="1461057435"/>
-      <sheetName val="1461057871"/>
-      <sheetName val="1461058325"/>
-      <sheetName val="1461058778"/>
-      <sheetName val="1461059232"/>
+      <sheetName val="1460687682"/>
+      <sheetName val="1460688139"/>
+      <sheetName val="1460688581"/>
+      <sheetName val="1460689021"/>
+      <sheetName val="1460689478"/>
+      <sheetName val="1460728480"/>
+      <sheetName val="1460728937"/>
+      <sheetName val="1460729377"/>
+      <sheetName val="1460729818"/>
+      <sheetName val="1460730258"/>
+      <sheetName val="1460749155"/>
+      <sheetName val="1460749583"/>
+      <sheetName val="1460750011"/>
+      <sheetName val="1460750468"/>
+      <sheetName val="1460750926"/>
+      <sheetName val="1460768049"/>
+      <sheetName val="1460768506"/>
+      <sheetName val="1460768963"/>
+      <sheetName val="1460769421"/>
+      <sheetName val="1460769879"/>
+      <sheetName val="1460808740"/>
+      <sheetName val="1460809198"/>
+      <sheetName val="1460809656"/>
+      <sheetName val="1460810115"/>
+      <sheetName val="1460810556"/>
+      <sheetName val="1460889750"/>
+      <sheetName val="1460890208"/>
+      <sheetName val="1460890666"/>
+      <sheetName val="1460891106"/>
+      <sheetName val="1460891562"/>
+      <sheetName val="1461073793"/>
+      <sheetName val="1461074260"/>
+      <sheetName val="1461074718"/>
+      <sheetName val="1461075170"/>
+      <sheetName val="1461075627"/>
+      <sheetName val="1461076085"/>
+      <sheetName val="1461076542"/>
+      <sheetName val="1461077000"/>
+      <sheetName val="1461077459"/>
+      <sheetName val="1461077910"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>3.6</v>
+            <v>3.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="I3">
-            <v>8.1999999999999993</v>
+            <v>8.1</v>
           </cell>
         </row>
         <row r="4">
@@ -6950,392 +6972,892 @@
         </row>
         <row r="5">
           <cell r="I5">
-            <v>16</v>
+            <v>16.8</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>16.3</v>
+            <v>18.5</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>16.399999999999999</v>
+            <v>18.899999999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="I8">
-            <v>16.399999999999999</v>
+            <v>21.1</v>
           </cell>
         </row>
         <row r="9">
           <cell r="I9">
-            <v>16.600000000000001</v>
+            <v>23.7</v>
           </cell>
         </row>
         <row r="10">
           <cell r="I10">
-            <v>16.7</v>
+            <v>25.1</v>
           </cell>
         </row>
         <row r="11">
           <cell r="I11">
-            <v>16.899999999999999</v>
+            <v>25.6</v>
           </cell>
         </row>
         <row r="12">
           <cell r="I12">
-            <v>17</v>
+            <v>25.7</v>
           </cell>
         </row>
         <row r="13">
           <cell r="I13">
-            <v>17</v>
+            <v>25.8</v>
           </cell>
         </row>
         <row r="14">
           <cell r="I14">
-            <v>17.100000000000001</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="15">
           <cell r="I15">
-            <v>17.100000000000001</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="16">
           <cell r="I16">
-            <v>17.100000000000001</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="17">
           <cell r="I17">
-            <v>17.100000000000001</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="18">
           <cell r="I18">
-            <v>17.2</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="19">
           <cell r="I19">
-            <v>17.3</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="20">
           <cell r="I20">
-            <v>17.3</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="21">
           <cell r="I21">
-            <v>17.5</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="22">
           <cell r="I22">
-            <v>17.5</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="23">
           <cell r="I23">
-            <v>17.5</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="24">
           <cell r="I24">
-            <v>17.600000000000001</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="25">
           <cell r="I25">
-            <v>17.600000000000001</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="26">
           <cell r="I26">
-            <v>17.8</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="I27">
-            <v>17.8</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="I28">
-            <v>17.8</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="29">
           <cell r="I29">
-            <v>17.8</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="I30">
-            <v>17.8</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="I31">
-            <v>17.899999999999999</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>17.899999999999999</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>17.899999999999999</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="34">
           <cell r="I34">
-            <v>18</v>
+            <v>26.4</v>
           </cell>
         </row>
         <row r="35">
           <cell r="I35">
-            <v>18</v>
+            <v>26.35</v>
           </cell>
         </row>
         <row r="36">
           <cell r="I36">
-            <v>18</v>
+            <v>26.4</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>18</v>
+            <v>26.55</v>
           </cell>
         </row>
         <row r="38">
           <cell r="I38">
-            <v>18</v>
+            <v>27.9</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>18.100000000000001</v>
+            <v>30.1</v>
           </cell>
         </row>
         <row r="40">
           <cell r="I40">
-            <v>18.100000000000001</v>
+            <v>31.4</v>
           </cell>
         </row>
         <row r="41">
           <cell r="I41">
-            <v>18.2</v>
+            <v>32.1</v>
           </cell>
         </row>
         <row r="42">
           <cell r="I42">
-            <v>18.2</v>
+            <v>32.200000000000003</v>
           </cell>
         </row>
         <row r="43">
           <cell r="I43">
-            <v>18.2</v>
+            <v>32.299999999999997</v>
           </cell>
         </row>
         <row r="44">
           <cell r="I44">
-            <v>18.3</v>
+            <v>32.349999999999994</v>
           </cell>
         </row>
         <row r="45">
           <cell r="I45">
-            <v>18.3</v>
+            <v>32.349999999999994</v>
           </cell>
         </row>
         <row r="46">
           <cell r="I46">
-            <v>18.399999999999999</v>
+            <v>32.450000000000003</v>
           </cell>
         </row>
         <row r="47">
           <cell r="I47">
-            <v>18.399999999999999</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="48">
           <cell r="I48">
-            <v>18.5</v>
+            <v>32.450000000000003</v>
           </cell>
         </row>
         <row r="49">
           <cell r="I49">
-            <v>18.600000000000001</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="50">
           <cell r="I50">
-            <v>18.7</v>
+            <v>32.450000000000003</v>
           </cell>
         </row>
         <row r="51">
           <cell r="I51">
-            <v>18.7</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="52">
           <cell r="I52">
-            <v>18.8</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="53">
           <cell r="I53">
-            <v>18.8</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="54">
           <cell r="I54">
-            <v>18.8</v>
+            <v>32.549999999999997</v>
           </cell>
         </row>
         <row r="55">
           <cell r="I55">
-            <v>18.8</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="56">
           <cell r="I56">
-            <v>18.8</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="57">
           <cell r="I57">
-            <v>18.8</v>
+            <v>32.549999999999997</v>
           </cell>
         </row>
         <row r="58">
           <cell r="I58">
-            <v>18.8</v>
+            <v>32.549999999999997</v>
           </cell>
         </row>
         <row r="59">
           <cell r="I59">
-            <v>18.899999999999999</v>
+            <v>32.549999999999997</v>
           </cell>
         </row>
         <row r="60">
           <cell r="I60">
-            <v>18.899999999999999</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="61">
           <cell r="I61">
-            <v>19</v>
+            <v>32.549999999999997</v>
           </cell>
         </row>
         <row r="62">
           <cell r="I62">
-            <v>19</v>
+            <v>32.549999999999997</v>
           </cell>
         </row>
         <row r="63">
           <cell r="I63">
-            <v>19</v>
+            <v>32.450000000000003</v>
           </cell>
         </row>
         <row r="64">
           <cell r="I64">
-            <v>19</v>
+            <v>32.450000000000003</v>
           </cell>
         </row>
         <row r="65">
           <cell r="I65">
-            <v>19</v>
+            <v>32.4</v>
           </cell>
         </row>
         <row r="66">
           <cell r="I66">
-            <v>19</v>
+            <v>32.4</v>
           </cell>
         </row>
         <row r="67">
           <cell r="I67">
-            <v>19</v>
+            <v>32.4</v>
           </cell>
         </row>
         <row r="68">
           <cell r="I68">
-            <v>19</v>
+            <v>32.349999999999994</v>
           </cell>
         </row>
         <row r="69">
           <cell r="I69">
-            <v>19</v>
+            <v>32.4</v>
           </cell>
         </row>
         <row r="70">
           <cell r="I70">
-            <v>19</v>
+            <v>32.349999999999994</v>
           </cell>
         </row>
         <row r="71">
           <cell r="I71">
-            <v>19.100000000000001</v>
+            <v>32.4</v>
           </cell>
         </row>
         <row r="72">
           <cell r="I72">
-            <v>19</v>
+            <v>32.450000000000003</v>
           </cell>
         </row>
         <row r="73">
           <cell r="I73">
-            <v>19.100000000000001</v>
+            <v>32.450000000000003</v>
           </cell>
         </row>
         <row r="74">
           <cell r="I74">
-            <v>19.100000000000001</v>
+            <v>32.9</v>
           </cell>
         </row>
         <row r="75">
           <cell r="I75">
-            <v>19</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="76">
           <cell r="I76">
-            <v>19</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77">
-            <v>19</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78">
-            <v>19</v>
+            <v>33</v>
           </cell>
         </row>
         <row r="79">
           <cell r="I79">
-            <v>19</v>
+            <v>33.049999999999997</v>
           </cell>
         </row>
         <row r="80">
           <cell r="I80">
-            <v>19</v>
+            <v>33.049999999999997</v>
           </cell>
         </row>
         <row r="81">
           <cell r="I81">
-            <v>19</v>
+            <v>32.849999999999994</v>
           </cell>
         </row>
         <row r="82">
           <cell r="I82">
-            <v>19.100000000000001</v>
+            <v>32.849999999999994</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="1460994712"/>
+      <sheetName val="1460995150"/>
+      <sheetName val="1460995605"/>
+      <sheetName val="1460996043"/>
+      <sheetName val="1460996498"/>
+      <sheetName val="1460996936"/>
+      <sheetName val="1460997375"/>
+      <sheetName val="1460997830"/>
+      <sheetName val="1460998286"/>
+      <sheetName val="1460998741"/>
+      <sheetName val="1460999180"/>
+      <sheetName val="1460999618"/>
+      <sheetName val="1461000074"/>
+      <sheetName val="1461000529"/>
+      <sheetName val="1461000984"/>
+      <sheetName val="1461001439"/>
+      <sheetName val="1461001895"/>
+      <sheetName val="1461002350"/>
+      <sheetName val="1461002790"/>
+      <sheetName val="1461003228"/>
+      <sheetName val="1461003684"/>
+      <sheetName val="1461004140"/>
+      <sheetName val="1461004578"/>
+      <sheetName val="1461005033"/>
+      <sheetName val="1461005488"/>
+      <sheetName val="1461005926"/>
+      <sheetName val="1461006886"/>
+      <sheetName val="1461007396"/>
+      <sheetName val="1461007899"/>
+      <sheetName val="1461092060"/>
+      <sheetName val="1461092499"/>
+      <sheetName val="1461092939"/>
+      <sheetName val="1461093394"/>
+      <sheetName val="1461093870"/>
+      <sheetName val="1461094308"/>
+      <sheetName val="1461094747"/>
+      <sheetName val="1461095185"/>
+      <sheetName val="1461095624"/>
+      <sheetName val="1461096080"/>
+      <sheetName val="1461096537"/>
+      <sheetName val="1461096992"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>12.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="I3">
+            <v>14.7</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>16.600000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>19.5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>21.3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>23.3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8">
+            <v>24.1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>24.6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10">
+            <v>24.6</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>24.7</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14">
+            <v>25.4</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="I15">
+            <v>25.4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16">
+            <v>25.5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="I17">
+            <v>25.8</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18">
+            <v>25.8</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20">
+            <v>26.1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="I22">
+            <v>26.3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23">
+            <v>26.3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="I24">
+            <v>26.5</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25">
+            <v>26.6</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26">
+            <v>26.6</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27">
+            <v>26.7</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28">
+            <v>26.8</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="I29">
+            <v>26.8</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="I30">
+            <v>26.9</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31">
+            <v>26.9</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="I32">
+            <v>26.9</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="I33">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="I34">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35">
+            <v>27.1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36">
+            <v>27.3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="I37">
+            <v>27.3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="I38">
+            <v>27.6</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="I39">
+            <v>27.9</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="I40">
+            <v>28.2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="I41">
+            <v>28.8</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="I42">
+            <v>29.3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="I43">
+            <v>29.7</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="I44">
+            <v>30.2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45">
+            <v>30.5</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46">
+            <v>30.9</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="I47">
+            <v>31.4</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="I48">
+            <v>31.7</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="I49">
+            <v>31.8</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="I50">
+            <v>32.1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="I51">
+            <v>32.200000000000003</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="I52">
+            <v>32.700000000000003</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="I53">
+            <v>32.700000000000003</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="I54">
+            <v>32.700000000000003</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="I55">
+            <v>33.1</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="I56">
+            <v>33.1</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="I57">
+            <v>33.4</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="I58">
+            <v>33.4</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="I59">
+            <v>33.4</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="I60">
+            <v>33.799999999999997</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="I61">
+            <v>33.799999999999997</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="I62">
+            <v>34.200000000000003</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="I63">
+            <v>34.200000000000003</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="I64">
+            <v>34.200000000000003</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="I65">
+            <v>34.5</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="I66">
+            <v>34.5</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="I67">
+            <v>34.799999999999997</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="I68">
+            <v>34.799999999999997</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="I69">
+            <v>34.799999999999997</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="I70">
+            <v>35.200000000000003</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="I71">
+            <v>35.200000000000003</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="I72">
+            <v>35.5</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="I73">
+            <v>35.5</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="I74">
+            <v>35.5</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="I75">
+            <v>35.9</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="I76">
+            <v>35.9</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="I77">
+            <v>36.1</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="I78">
+            <v>36.1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="I79">
+            <v>36.1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="I80">
+            <v>36.4</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="I81">
+            <v>36.4</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="I82">
+            <v>36.700000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -7385,127 +7907,138 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
-      <sheetName val="1460696628"/>
-      <sheetName val="1460697084"/>
-      <sheetName val="1460697539"/>
-      <sheetName val="1460697978"/>
-      <sheetName val="1460698434"/>
-      <sheetName val="1460737338"/>
-      <sheetName val="1460737793"/>
-      <sheetName val="1460738248"/>
-      <sheetName val="1460738687"/>
-      <sheetName val="1460739143"/>
-      <sheetName val="1460758050"/>
-      <sheetName val="1460758505"/>
-      <sheetName val="1460759169"/>
-      <sheetName val="1460759625"/>
-      <sheetName val="1460777040"/>
-      <sheetName val="1460777479"/>
-      <sheetName val="1460777917"/>
-      <sheetName val="1460778374"/>
-      <sheetName val="1460778813"/>
-      <sheetName val="1460781208"/>
-      <sheetName val="1460817708"/>
-      <sheetName val="1460818163"/>
-      <sheetName val="1460818620"/>
-      <sheetName val="1460819059"/>
-      <sheetName val="1460819515"/>
-      <sheetName val="1460898609"/>
-      <sheetName val="1460899049"/>
-      <sheetName val="1460899506"/>
-      <sheetName val="1460899946"/>
-      <sheetName val="1460900402"/>
+      <sheetName val="1460994712"/>
+      <sheetName val="1460995150"/>
+      <sheetName val="1460995605"/>
+      <sheetName val="1460996043"/>
+      <sheetName val="1460996498"/>
+      <sheetName val="1460996936"/>
+      <sheetName val="1460997375"/>
+      <sheetName val="1460997830"/>
+      <sheetName val="1460998286"/>
+      <sheetName val="1460998741"/>
+      <sheetName val="1460999180"/>
+      <sheetName val="1460999618"/>
+      <sheetName val="1461000074"/>
+      <sheetName val="1461000529"/>
+      <sheetName val="1461000984"/>
+      <sheetName val="1461001439"/>
+      <sheetName val="1461001895"/>
+      <sheetName val="1461002350"/>
+      <sheetName val="1461002790"/>
+      <sheetName val="1461003228"/>
+      <sheetName val="1461003684"/>
+      <sheetName val="1461004140"/>
+      <sheetName val="1461004578"/>
+      <sheetName val="1461005033"/>
+      <sheetName val="1461005488"/>
+      <sheetName val="1461005926"/>
+      <sheetName val="1461006886"/>
+      <sheetName val="1461007396"/>
+      <sheetName val="1461007899"/>
+      <sheetName val="1461092060"/>
+      <sheetName val="1461092499"/>
+      <sheetName val="1461092939"/>
+      <sheetName val="1461093394"/>
+      <sheetName val="1461093870"/>
+      <sheetName val="1461094308"/>
+      <sheetName val="1461094747"/>
+      <sheetName val="1461095185"/>
+      <sheetName val="1461095624"/>
+      <sheetName val="1461096080"/>
+      <sheetName val="1461096537"/>
+      <sheetName val="1461096992"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>12.6</v>
+            <v>3.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="I3">
-            <v>14.7</v>
+            <v>7.9</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>16.55</v>
+            <v>15.9</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>20.100000000000001</v>
+            <v>18.399999999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>22.9</v>
+            <v>22.6</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>24</v>
+            <v>24.3</v>
           </cell>
         </row>
         <row r="8">
           <cell r="I8">
-            <v>24.1</v>
+            <v>25.2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="I9">
-            <v>24.6</v>
+            <v>25.6</v>
           </cell>
         </row>
         <row r="10">
           <cell r="I10">
-            <v>24.65</v>
+            <v>25.6</v>
           </cell>
         </row>
         <row r="11">
           <cell r="I11">
-            <v>24.65</v>
+            <v>25.7</v>
           </cell>
         </row>
         <row r="12">
           <cell r="I12">
-            <v>25</v>
+            <v>25.8</v>
           </cell>
         </row>
         <row r="13">
           <cell r="I13">
-            <v>25</v>
+            <v>25.8</v>
           </cell>
         </row>
         <row r="14">
           <cell r="I14">
-            <v>25.4</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="15">
           <cell r="I15">
-            <v>25.4</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="16">
           <cell r="I16">
-            <v>25.5</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="17">
           <cell r="I17">
-            <v>25.8</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="18">
           <cell r="I18">
-            <v>25.8</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="19">
@@ -7525,797 +8058,307 @@
         </row>
         <row r="22">
           <cell r="I22">
-            <v>26.3</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="23">
           <cell r="I23">
-            <v>26.3</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="24">
           <cell r="I24">
-            <v>26.5</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="25">
           <cell r="I25">
-            <v>26.5</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="26">
           <cell r="I26">
-            <v>26.5</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="I27">
-            <v>26.7</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="28">
           <cell r="I28">
-            <v>26.7</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="29">
           <cell r="I29">
-            <v>26.8</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="I30">
-            <v>26.8</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="I31">
-            <v>26.8</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>26.9</v>
+            <v>26.4</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>26.9</v>
+            <v>26.4</v>
           </cell>
         </row>
         <row r="34">
           <cell r="I34">
-            <v>27</v>
+            <v>26.4</v>
           </cell>
         </row>
         <row r="35">
           <cell r="I35">
-            <v>27.1</v>
+            <v>26.4</v>
           </cell>
         </row>
         <row r="36">
           <cell r="I36">
-            <v>27.2</v>
+            <v>26.4</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>27.35</v>
+            <v>26.8</v>
           </cell>
         </row>
         <row r="38">
           <cell r="I38">
-            <v>27.5</v>
+            <v>28.5</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>28</v>
+            <v>29.6</v>
           </cell>
         </row>
         <row r="40">
           <cell r="I40">
-            <v>28.15</v>
+            <v>30.4</v>
           </cell>
         </row>
         <row r="41">
           <cell r="I41">
-            <v>28.65</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="42">
           <cell r="I42">
-            <v>29.2</v>
+            <v>31.7</v>
           </cell>
         </row>
         <row r="43">
           <cell r="I43">
-            <v>29.5</v>
+            <v>32.1</v>
           </cell>
         </row>
         <row r="44">
           <cell r="I44">
-            <v>30.2</v>
+            <v>32.6</v>
           </cell>
         </row>
         <row r="45">
           <cell r="I45">
-            <v>30.35</v>
+            <v>33.299999999999997</v>
           </cell>
         </row>
         <row r="46">
           <cell r="I46">
-            <v>30.75</v>
+            <v>33.6</v>
           </cell>
         </row>
         <row r="47">
           <cell r="I47">
-            <v>31.25</v>
+            <v>33.799999999999997</v>
           </cell>
         </row>
         <row r="48">
           <cell r="I48">
-            <v>31.5</v>
+            <v>33.9</v>
           </cell>
         </row>
         <row r="49">
           <cell r="I49">
-            <v>31.7</v>
+            <v>33.9</v>
           </cell>
         </row>
         <row r="50">
           <cell r="I50">
-            <v>32</v>
+            <v>34.1</v>
           </cell>
         </row>
         <row r="51">
           <cell r="I51">
-            <v>32.049999999999997</v>
+            <v>34.4</v>
           </cell>
         </row>
         <row r="52">
           <cell r="I52">
-            <v>32.5</v>
+            <v>34.5</v>
           </cell>
         </row>
         <row r="53">
           <cell r="I53">
-            <v>32.549999999999997</v>
+            <v>34.9</v>
           </cell>
         </row>
         <row r="54">
           <cell r="I54">
-            <v>32.700000000000003</v>
+            <v>35.1</v>
           </cell>
         </row>
         <row r="55">
           <cell r="I55">
-            <v>32.950000000000003</v>
+            <v>35.299999999999997</v>
           </cell>
         </row>
         <row r="56">
           <cell r="I56">
-            <v>32.950000000000003</v>
+            <v>35.299999999999997</v>
           </cell>
         </row>
         <row r="57">
           <cell r="I57">
-            <v>33.299999999999997</v>
+            <v>35.4</v>
           </cell>
         </row>
         <row r="58">
           <cell r="I58">
-            <v>33.299999999999997</v>
+            <v>35.4</v>
           </cell>
         </row>
         <row r="59">
           <cell r="I59">
-            <v>33.4</v>
+            <v>35.4</v>
           </cell>
         </row>
         <row r="60">
           <cell r="I60">
-            <v>33.6</v>
+            <v>35.5</v>
           </cell>
         </row>
         <row r="61">
           <cell r="I61">
-            <v>33.6</v>
+            <v>35.5</v>
           </cell>
         </row>
         <row r="62">
           <cell r="I62">
-            <v>33.9</v>
+            <v>35.6</v>
           </cell>
         </row>
         <row r="63">
           <cell r="I63">
-            <v>33.9</v>
+            <v>35.6</v>
           </cell>
         </row>
         <row r="64">
           <cell r="I64">
-            <v>34</v>
+            <v>35.6</v>
           </cell>
         </row>
         <row r="65">
           <cell r="I65">
-            <v>34.200000000000003</v>
+            <v>35.6</v>
           </cell>
         </row>
         <row r="66">
           <cell r="I66">
-            <v>34.200000000000003</v>
+            <v>35.700000000000003</v>
           </cell>
         </row>
         <row r="67">
           <cell r="I67">
-            <v>34.5</v>
+            <v>35.700000000000003</v>
           </cell>
         </row>
         <row r="68">
           <cell r="I68">
-            <v>34.5</v>
+            <v>35.700000000000003</v>
           </cell>
         </row>
         <row r="69">
           <cell r="I69">
-            <v>34.5</v>
+            <v>35.700000000000003</v>
           </cell>
         </row>
         <row r="70">
           <cell r="I70">
-            <v>34.799999999999997</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="71">
           <cell r="I71">
-            <v>34.799999999999997</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="72">
           <cell r="I72">
-            <v>35.1</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="73">
           <cell r="I73">
-            <v>35.1</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="74">
           <cell r="I74">
-            <v>35.1</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="75">
           <cell r="I75">
-            <v>35.450000000000003</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="76">
           <cell r="I76">
-            <v>35.450000000000003</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77">
-            <v>35.799999999999997</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78">
-            <v>35.799999999999997</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="79">
           <cell r="I79">
-            <v>35.799999999999997</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="80">
           <cell r="I80">
-            <v>36</v>
+            <v>35.9</v>
           </cell>
         </row>
         <row r="81">
           <cell r="I81">
-            <v>36</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="82">
           <cell r="I82">
-            <v>36.049999999999997</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="1460678849"/>
-      <sheetName val="1460679306"/>
-      <sheetName val="1460679742"/>
-      <sheetName val="1460680195"/>
-      <sheetName val="1460680648"/>
-      <sheetName val="1460719602"/>
-      <sheetName val="1460720038"/>
-      <sheetName val="1460720492"/>
-      <sheetName val="1460720945"/>
-      <sheetName val="1460721398"/>
-      <sheetName val="1460739968"/>
-      <sheetName val="1460740422"/>
-      <sheetName val="1460740875"/>
-      <sheetName val="1460741329"/>
-      <sheetName val="1460741765"/>
-      <sheetName val="1460759634"/>
-      <sheetName val="1460760088"/>
-      <sheetName val="1460760541"/>
-      <sheetName val="1460760978"/>
-      <sheetName val="1460761431"/>
-      <sheetName val="1460799937"/>
-      <sheetName val="1460800390"/>
-      <sheetName val="1460800827"/>
-      <sheetName val="1460801280"/>
-      <sheetName val="1460801717"/>
-      <sheetName val="1460880899"/>
-      <sheetName val="1460881352"/>
-      <sheetName val="1460881806"/>
-      <sheetName val="1460882242"/>
-      <sheetName val="1460882697"/>
-      <sheetName val="1461054732"/>
-      <sheetName val="1461055168"/>
-      <sheetName val="1461055622"/>
-      <sheetName val="1461056075"/>
-      <sheetName val="1461056528"/>
-      <sheetName val="1461056982"/>
-      <sheetName val="1461057435"/>
-      <sheetName val="1461057871"/>
-      <sheetName val="1461058325"/>
-      <sheetName val="1461058778"/>
-      <sheetName val="1461059232"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>12.6</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="I3">
-            <v>14.7</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>18.100000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>19.399999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>19.5</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>19.8</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="I8">
-            <v>19.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>20.100000000000001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>20.100000000000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>20.100000000000001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>20.5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>20.6</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="I15">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="I16">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="I17">
-            <v>21.3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="I18">
-            <v>21.3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="I20">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="I21">
-            <v>21.5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22">
-            <v>21.7</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="I23">
-            <v>21.7</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="I24">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="I25">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="I26">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="I27">
-            <v>22.2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="I28">
-            <v>22.2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="I29">
-            <v>22.3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="I30">
-            <v>22.3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="I31">
-            <v>22.4</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="I32">
-            <v>22.4</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="I33">
-            <v>22.5</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="I34">
-            <v>22.6</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="I35">
-            <v>22.6</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="I36">
-            <v>22.9</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="I37">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="I38">
-            <v>23.1</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="I39">
-            <v>23.4</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="I40">
-            <v>23.4</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="I41">
-            <v>23.8</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="I42">
-            <v>23.9</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="I43">
-            <v>24.1</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="I44">
-            <v>24.4</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="I45">
-            <v>24.4</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="I46">
-            <v>24.8</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="I47">
-            <v>25.1</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="I48">
-            <v>25.2</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="I49">
-            <v>25.4</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="I50">
-            <v>25.5</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="I51">
-            <v>25.6</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="I52">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="I53">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="I54">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="I55">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="I56">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="I57">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="I58">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="I59">
-            <v>26.2</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="I60">
-            <v>26.2</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="I61">
-            <v>26.2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="I62">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="I63">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="I64">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="I65">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="I66">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="I67">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="I68">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="I69">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="I70">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="I71">
-            <v>26.4</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="I72">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="I73">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="I74">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="I75">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="I76">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="I77">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="I78">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="I79">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="I80">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="I81">
-            <v>26.3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="I82">
-            <v>26.3</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -8370,52 +8413,42 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
-      <sheetName val="1460687682"/>
-      <sheetName val="1460688139"/>
-      <sheetName val="1460688581"/>
-      <sheetName val="1460689021"/>
-      <sheetName val="1460689478"/>
-      <sheetName val="1460728480"/>
-      <sheetName val="1460728937"/>
-      <sheetName val="1460729377"/>
-      <sheetName val="1460729818"/>
-      <sheetName val="1460730258"/>
-      <sheetName val="1460749155"/>
-      <sheetName val="1460749583"/>
-      <sheetName val="1460750011"/>
-      <sheetName val="1460750468"/>
-      <sheetName val="1460750926"/>
-      <sheetName val="1460768049"/>
-      <sheetName val="1460768506"/>
-      <sheetName val="1460768963"/>
-      <sheetName val="1460769421"/>
-      <sheetName val="1460769879"/>
-      <sheetName val="1460808740"/>
-      <sheetName val="1460809198"/>
-      <sheetName val="1460809656"/>
-      <sheetName val="1460810115"/>
-      <sheetName val="1460810556"/>
-      <sheetName val="1460889750"/>
-      <sheetName val="1460890208"/>
-      <sheetName val="1460890666"/>
-      <sheetName val="1460891106"/>
-      <sheetName val="1460891562"/>
-      <sheetName val="1461073793"/>
-      <sheetName val="1461074260"/>
-      <sheetName val="1461074718"/>
-      <sheetName val="1461075170"/>
-      <sheetName val="1461075627"/>
-      <sheetName val="1461076085"/>
-      <sheetName val="1461076542"/>
-      <sheetName val="1461077000"/>
-      <sheetName val="1461077459"/>
-      <sheetName val="1461077910"/>
+      <sheetName val="1460696628"/>
+      <sheetName val="1460697084"/>
+      <sheetName val="1460697539"/>
+      <sheetName val="1460697978"/>
+      <sheetName val="1460698434"/>
+      <sheetName val="1460737338"/>
+      <sheetName val="1460737793"/>
+      <sheetName val="1460738248"/>
+      <sheetName val="1460738687"/>
+      <sheetName val="1460739143"/>
+      <sheetName val="1460758050"/>
+      <sheetName val="1460758505"/>
+      <sheetName val="1460759169"/>
+      <sheetName val="1460759625"/>
+      <sheetName val="1460777040"/>
+      <sheetName val="1460777479"/>
+      <sheetName val="1460777917"/>
+      <sheetName val="1460778374"/>
+      <sheetName val="1460778813"/>
+      <sheetName val="1460781208"/>
+      <sheetName val="1460817708"/>
+      <sheetName val="1460818163"/>
+      <sheetName val="1460818620"/>
+      <sheetName val="1460819059"/>
+      <sheetName val="1460819515"/>
+      <sheetName val="1460898609"/>
+      <sheetName val="1460899049"/>
+      <sheetName val="1460899506"/>
+      <sheetName val="1460899946"/>
+      <sheetName val="1460900402"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>12.55</v>
+            <v>12.6</v>
           </cell>
         </row>
         <row r="3">
@@ -8425,42 +8458,42 @@
         </row>
         <row r="4">
           <cell r="I4">
-            <v>17.3</v>
+            <v>16.55</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>19.399999999999999</v>
+            <v>20.100000000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>19.899999999999999</v>
+            <v>22.9</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>20.9</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="8">
           <cell r="I8">
-            <v>21.7</v>
+            <v>24.1</v>
           </cell>
         </row>
         <row r="9">
           <cell r="I9">
-            <v>22.9</v>
+            <v>24.6</v>
           </cell>
         </row>
         <row r="10">
           <cell r="I10">
-            <v>24</v>
+            <v>24.65</v>
           </cell>
         </row>
         <row r="11">
           <cell r="I11">
-            <v>24.55</v>
+            <v>24.65</v>
           </cell>
         </row>
         <row r="12">
@@ -8485,7 +8518,7 @@
         </row>
         <row r="16">
           <cell r="I16">
-            <v>25.4</v>
+            <v>25.5</v>
           </cell>
         </row>
         <row r="17">
@@ -8500,17 +8533,17 @@
         </row>
         <row r="19">
           <cell r="I19">
-            <v>25.9</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="20">
           <cell r="I20">
-            <v>25.95</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="21">
           <cell r="I21">
-            <v>25.95</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="22">
@@ -8520,7 +8553,7 @@
         </row>
         <row r="23">
           <cell r="I23">
-            <v>26.2</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="24">
@@ -8550,7 +8583,7 @@
         </row>
         <row r="29">
           <cell r="I29">
-            <v>26.75</v>
+            <v>26.8</v>
           </cell>
         </row>
         <row r="30">
@@ -8560,17 +8593,17 @@
         </row>
         <row r="31">
           <cell r="I31">
-            <v>26.85</v>
+            <v>26.8</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>26.85</v>
+            <v>26.9</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>26.95</v>
+            <v>26.9</v>
           </cell>
         </row>
         <row r="34">
@@ -8585,237 +8618,237 @@
         </row>
         <row r="36">
           <cell r="I36">
-            <v>27.15</v>
+            <v>27.2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>27.2</v>
+            <v>27.35</v>
           </cell>
         </row>
         <row r="38">
           <cell r="I38">
-            <v>27.45</v>
+            <v>27.5</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>28.4</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="40">
           <cell r="I40">
-            <v>29.3</v>
+            <v>28.15</v>
           </cell>
         </row>
         <row r="41">
           <cell r="I41">
-            <v>30</v>
+            <v>28.65</v>
           </cell>
         </row>
         <row r="42">
           <cell r="I42">
-            <v>30.45</v>
+            <v>29.2</v>
           </cell>
         </row>
         <row r="43">
           <cell r="I43">
-            <v>30.7</v>
+            <v>29.5</v>
           </cell>
         </row>
         <row r="44">
           <cell r="I44">
-            <v>31.2</v>
+            <v>30.2</v>
           </cell>
         </row>
         <row r="45">
           <cell r="I45">
-            <v>31.5</v>
+            <v>30.35</v>
           </cell>
         </row>
         <row r="46">
           <cell r="I46">
-            <v>31.6</v>
+            <v>30.75</v>
           </cell>
         </row>
         <row r="47">
           <cell r="I47">
-            <v>32</v>
+            <v>31.25</v>
           </cell>
         </row>
         <row r="48">
           <cell r="I48">
-            <v>32.200000000000003</v>
+            <v>31.5</v>
           </cell>
         </row>
         <row r="49">
           <cell r="I49">
-            <v>32.6</v>
+            <v>31.7</v>
           </cell>
         </row>
         <row r="50">
           <cell r="I50">
-            <v>32.799999999999997</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="51">
           <cell r="I51">
-            <v>32.799999999999997</v>
+            <v>32.049999999999997</v>
           </cell>
         </row>
         <row r="52">
           <cell r="I52">
-            <v>33.200000000000003</v>
+            <v>32.5</v>
           </cell>
         </row>
         <row r="53">
           <cell r="I53">
-            <v>33.200000000000003</v>
+            <v>32.549999999999997</v>
           </cell>
         </row>
         <row r="54">
           <cell r="I54">
-            <v>33.450000000000003</v>
+            <v>32.700000000000003</v>
           </cell>
         </row>
         <row r="55">
           <cell r="I55">
-            <v>33.650000000000006</v>
+            <v>32.950000000000003</v>
           </cell>
         </row>
         <row r="56">
           <cell r="I56">
-            <v>33.650000000000006</v>
+            <v>32.950000000000003</v>
           </cell>
         </row>
         <row r="57">
           <cell r="I57">
-            <v>34.049999999999997</v>
+            <v>33.299999999999997</v>
           </cell>
         </row>
         <row r="58">
           <cell r="I58">
-            <v>34.049999999999997</v>
+            <v>33.299999999999997</v>
           </cell>
         </row>
         <row r="59">
           <cell r="I59">
-            <v>34.1</v>
+            <v>33.4</v>
           </cell>
         </row>
         <row r="60">
           <cell r="I60">
-            <v>34.4</v>
+            <v>33.6</v>
           </cell>
         </row>
         <row r="61">
           <cell r="I61">
-            <v>34.4</v>
+            <v>33.6</v>
           </cell>
         </row>
         <row r="62">
           <cell r="I62">
-            <v>34.799999999999997</v>
+            <v>33.9</v>
           </cell>
         </row>
         <row r="63">
           <cell r="I63">
-            <v>34.799999999999997</v>
+            <v>33.9</v>
           </cell>
         </row>
         <row r="64">
           <cell r="I64">
-            <v>34.799999999999997</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="65">
           <cell r="I65">
-            <v>35.200000000000003</v>
+            <v>34.200000000000003</v>
           </cell>
         </row>
         <row r="66">
           <cell r="I66">
-            <v>35.200000000000003</v>
+            <v>34.200000000000003</v>
           </cell>
         </row>
         <row r="67">
           <cell r="I67">
-            <v>35.549999999999997</v>
+            <v>34.5</v>
           </cell>
         </row>
         <row r="68">
           <cell r="I68">
-            <v>35.549999999999997</v>
+            <v>34.5</v>
           </cell>
         </row>
         <row r="69">
           <cell r="I69">
-            <v>35.549999999999997</v>
+            <v>34.5</v>
           </cell>
         </row>
         <row r="70">
           <cell r="I70">
-            <v>35.9</v>
+            <v>34.799999999999997</v>
           </cell>
         </row>
         <row r="71">
           <cell r="I71">
-            <v>35.9</v>
+            <v>34.799999999999997</v>
           </cell>
         </row>
         <row r="72">
           <cell r="I72">
-            <v>36.1</v>
+            <v>35.1</v>
           </cell>
         </row>
         <row r="73">
           <cell r="I73">
-            <v>36.1</v>
+            <v>35.1</v>
           </cell>
         </row>
         <row r="74">
           <cell r="I74">
-            <v>36.1</v>
+            <v>35.1</v>
           </cell>
         </row>
         <row r="75">
           <cell r="I75">
-            <v>36.349999999999994</v>
+            <v>35.450000000000003</v>
           </cell>
         </row>
         <row r="76">
           <cell r="I76">
-            <v>36.349999999999994</v>
+            <v>35.450000000000003</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77">
-            <v>36.5</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78">
-            <v>36.5</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="79">
           <cell r="I79">
-            <v>36.5</v>
+            <v>35.799999999999997</v>
           </cell>
         </row>
         <row r="80">
           <cell r="I80">
-            <v>36.75</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="81">
           <cell r="I81">
-            <v>36.75</v>
+            <v>36</v>
           </cell>
         </row>
         <row r="82">
           <cell r="I82">
-            <v>37</v>
+            <v>36.049999999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -8849,16 +8882,6 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8869,408 +8892,397 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
-      <sheetName val="1460994712"/>
-      <sheetName val="1460995150"/>
-      <sheetName val="1460995605"/>
-      <sheetName val="1460996043"/>
-      <sheetName val="1460996498"/>
-      <sheetName val="1460996936"/>
-      <sheetName val="1460997375"/>
-      <sheetName val="1460997830"/>
-      <sheetName val="1460998286"/>
-      <sheetName val="1460998741"/>
-      <sheetName val="1460999180"/>
-      <sheetName val="1460999618"/>
-      <sheetName val="1461000074"/>
-      <sheetName val="1461000529"/>
-      <sheetName val="1461000984"/>
-      <sheetName val="1461001439"/>
-      <sheetName val="1461001895"/>
-      <sheetName val="1461002350"/>
-      <sheetName val="1461002790"/>
-      <sheetName val="1461003228"/>
-      <sheetName val="1461003684"/>
-      <sheetName val="1461004140"/>
-      <sheetName val="1461004578"/>
-      <sheetName val="1461005033"/>
-      <sheetName val="1461005488"/>
-      <sheetName val="1461005926"/>
-      <sheetName val="1461006886"/>
-      <sheetName val="1461007396"/>
-      <sheetName val="1461007899"/>
-      <sheetName val="1461092060"/>
-      <sheetName val="1461092499"/>
-      <sheetName val="1461092939"/>
-      <sheetName val="1461093394"/>
-      <sheetName val="1461093870"/>
-      <sheetName val="1461094308"/>
-      <sheetName val="1461094747"/>
-      <sheetName val="1461095185"/>
-      <sheetName val="1461095624"/>
-      <sheetName val="1461096080"/>
-      <sheetName val="1461096537"/>
-      <sheetName val="1461096992"/>
+      <sheetName val="1460696628"/>
+      <sheetName val="1460697084"/>
+      <sheetName val="1460697539"/>
+      <sheetName val="1460697978"/>
+      <sheetName val="1460698434"/>
+      <sheetName val="1460737338"/>
+      <sheetName val="1460737793"/>
+      <sheetName val="1460738248"/>
+      <sheetName val="1460738687"/>
+      <sheetName val="1460739143"/>
+      <sheetName val="1460758050"/>
+      <sheetName val="1460758505"/>
+      <sheetName val="1460759169"/>
+      <sheetName val="1460759625"/>
+      <sheetName val="1460777040"/>
+      <sheetName val="1460777479"/>
+      <sheetName val="1460777917"/>
+      <sheetName val="1460778374"/>
+      <sheetName val="1460778813"/>
+      <sheetName val="1460781208"/>
+      <sheetName val="1460817708"/>
+      <sheetName val="1460818163"/>
+      <sheetName val="1460818620"/>
+      <sheetName val="1460819059"/>
+      <sheetName val="1460819515"/>
+      <sheetName val="1460898609"/>
+      <sheetName val="1460899049"/>
+      <sheetName val="1460899506"/>
+      <sheetName val="1460899946"/>
+      <sheetName val="1460900402"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
           <cell r="I2">
-            <v>12.5</v>
+            <v>3.5</v>
           </cell>
         </row>
         <row r="3">
           <cell r="I3">
-            <v>14.7</v>
+            <v>7.8</v>
           </cell>
         </row>
         <row r="4">
           <cell r="I4">
-            <v>16.600000000000001</v>
+            <v>16.2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="I5">
-            <v>19.5</v>
+            <v>21.1</v>
           </cell>
         </row>
         <row r="6">
           <cell r="I6">
-            <v>21.3</v>
+            <v>24.2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="I7">
-            <v>23.3</v>
+            <v>24.9</v>
           </cell>
         </row>
         <row r="8">
           <cell r="I8">
-            <v>24.1</v>
+            <v>25.15</v>
           </cell>
         </row>
         <row r="9">
           <cell r="I9">
-            <v>24.6</v>
+            <v>25.5</v>
           </cell>
         </row>
         <row r="10">
           <cell r="I10">
-            <v>24.6</v>
+            <v>25.6</v>
           </cell>
         </row>
         <row r="11">
           <cell r="I11">
-            <v>24.7</v>
+            <v>25.7</v>
           </cell>
         </row>
         <row r="12">
           <cell r="I12">
-            <v>25</v>
+            <v>25.75</v>
           </cell>
         </row>
         <row r="13">
           <cell r="I13">
-            <v>25</v>
+            <v>25.8</v>
           </cell>
         </row>
         <row r="14">
           <cell r="I14">
-            <v>25.4</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="15">
           <cell r="I15">
-            <v>25.4</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="16">
           <cell r="I16">
-            <v>25.5</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="17">
           <cell r="I17">
-            <v>25.8</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="18">
           <cell r="I18">
-            <v>25.8</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="19">
           <cell r="I19">
-            <v>26</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="20">
           <cell r="I20">
-            <v>26.1</v>
+            <v>25.9</v>
           </cell>
         </row>
         <row r="21">
           <cell r="I21">
-            <v>26</v>
+            <v>25.95</v>
           </cell>
         </row>
         <row r="22">
           <cell r="I22">
-            <v>26.3</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="23">
           <cell r="I23">
-            <v>26.3</v>
+            <v>26.05</v>
           </cell>
         </row>
         <row r="24">
           <cell r="I24">
-            <v>26.5</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="25">
           <cell r="I25">
-            <v>26.6</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="26">
           <cell r="I26">
-            <v>26.6</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="27">
           <cell r="I27">
-            <v>26.7</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="28">
           <cell r="I28">
-            <v>26.8</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="29">
           <cell r="I29">
-            <v>26.8</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="30">
           <cell r="I30">
-            <v>26.9</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="31">
           <cell r="I31">
-            <v>26.9</v>
+            <v>26.1</v>
           </cell>
         </row>
         <row r="32">
           <cell r="I32">
-            <v>26.9</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="33">
           <cell r="I33">
-            <v>27</v>
+            <v>26.2</v>
           </cell>
         </row>
         <row r="34">
           <cell r="I34">
-            <v>27</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="35">
           <cell r="I35">
-            <v>27.1</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="36">
           <cell r="I36">
-            <v>27.3</v>
+            <v>26.3</v>
           </cell>
         </row>
         <row r="37">
           <cell r="I37">
-            <v>27.3</v>
+            <v>26.65</v>
           </cell>
         </row>
         <row r="38">
           <cell r="I38">
-            <v>27.6</v>
+            <v>28.1</v>
           </cell>
         </row>
         <row r="39">
           <cell r="I39">
-            <v>27.9</v>
+            <v>29.8</v>
           </cell>
         </row>
         <row r="40">
           <cell r="I40">
-            <v>28.2</v>
+            <v>30.35</v>
           </cell>
         </row>
         <row r="41">
           <cell r="I41">
-            <v>28.8</v>
+            <v>30.85</v>
           </cell>
         </row>
         <row r="42">
           <cell r="I42">
-            <v>29.3</v>
+            <v>31.25</v>
           </cell>
         </row>
         <row r="43">
           <cell r="I43">
-            <v>29.7</v>
+            <v>31.700000000000003</v>
           </cell>
         </row>
         <row r="44">
           <cell r="I44">
-            <v>30.2</v>
+            <v>32.200000000000003</v>
           </cell>
         </row>
         <row r="45">
           <cell r="I45">
-            <v>30.5</v>
+            <v>32.799999999999997</v>
           </cell>
         </row>
         <row r="46">
           <cell r="I46">
-            <v>30.9</v>
+            <v>33.299999999999997</v>
           </cell>
         </row>
         <row r="47">
           <cell r="I47">
-            <v>31.4</v>
+            <v>33.6</v>
           </cell>
         </row>
         <row r="48">
           <cell r="I48">
-            <v>31.7</v>
+            <v>33.650000000000006</v>
           </cell>
         </row>
         <row r="49">
           <cell r="I49">
-            <v>31.8</v>
+            <v>33.799999999999997</v>
           </cell>
         </row>
         <row r="50">
           <cell r="I50">
-            <v>32.1</v>
+            <v>33.75</v>
           </cell>
         </row>
         <row r="51">
           <cell r="I51">
-            <v>32.200000000000003</v>
+            <v>33.799999999999997</v>
           </cell>
         </row>
         <row r="52">
           <cell r="I52">
-            <v>32.700000000000003</v>
+            <v>33.9</v>
           </cell>
         </row>
         <row r="53">
           <cell r="I53">
-            <v>32.700000000000003</v>
+            <v>33.950000000000003</v>
           </cell>
         </row>
         <row r="54">
           <cell r="I54">
-            <v>32.700000000000003</v>
+            <v>33.950000000000003</v>
           </cell>
         </row>
         <row r="55">
           <cell r="I55">
-            <v>33.1</v>
+            <v>34.150000000000006</v>
           </cell>
         </row>
         <row r="56">
           <cell r="I56">
-            <v>33.1</v>
+            <v>34.65</v>
           </cell>
         </row>
         <row r="57">
           <cell r="I57">
-            <v>33.4</v>
+            <v>34.799999999999997</v>
           </cell>
         </row>
         <row r="58">
           <cell r="I58">
-            <v>33.4</v>
+            <v>34.849999999999994</v>
           </cell>
         </row>
         <row r="59">
           <cell r="I59">
-            <v>33.4</v>
+            <v>34.9</v>
           </cell>
         </row>
         <row r="60">
           <cell r="I60">
-            <v>33.799999999999997</v>
+            <v>34.9</v>
           </cell>
         </row>
         <row r="61">
           <cell r="I61">
-            <v>33.799999999999997</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="62">
           <cell r="I62">
-            <v>34.200000000000003</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="63">
           <cell r="I63">
-            <v>34.200000000000003</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="64">
           <cell r="I64">
-            <v>34.200000000000003</v>
+            <v>35.150000000000006</v>
           </cell>
         </row>
         <row r="65">
           <cell r="I65">
-            <v>34.5</v>
+            <v>35.150000000000006</v>
           </cell>
         </row>
         <row r="66">
           <cell r="I66">
-            <v>34.5</v>
+            <v>35.150000000000006</v>
           </cell>
         </row>
         <row r="67">
           <cell r="I67">
-            <v>34.799999999999997</v>
+            <v>35.200000000000003</v>
           </cell>
         </row>
         <row r="68">
           <cell r="I68">
-            <v>34.799999999999997</v>
+            <v>35.25</v>
           </cell>
         </row>
         <row r="69">
           <cell r="I69">
-            <v>34.799999999999997</v>
+            <v>35.299999999999997</v>
           </cell>
         </row>
         <row r="70">
           <cell r="I70">
-            <v>35.200000000000003</v>
+            <v>35.4</v>
           </cell>
         </row>
         <row r="71">
           <cell r="I71">
-            <v>35.200000000000003</v>
+            <v>35.4</v>
           </cell>
         </row>
         <row r="72">
           <cell r="I72">
-            <v>35.5</v>
+            <v>35.4</v>
           </cell>
         </row>
         <row r="73">
           <cell r="I73">
-            <v>35.5</v>
+            <v>35.4</v>
           </cell>
         </row>
         <row r="74">
@@ -9280,42 +9292,42 @@
         </row>
         <row r="75">
           <cell r="I75">
-            <v>35.9</v>
+            <v>35.6</v>
           </cell>
         </row>
         <row r="76">
           <cell r="I76">
-            <v>35.9</v>
+            <v>35.6</v>
           </cell>
         </row>
         <row r="77">
           <cell r="I77">
-            <v>36.1</v>
+            <v>35.650000000000006</v>
           </cell>
         </row>
         <row r="78">
           <cell r="I78">
-            <v>36.1</v>
+            <v>35.650000000000006</v>
           </cell>
         </row>
         <row r="79">
           <cell r="I79">
-            <v>36.1</v>
+            <v>35.650000000000006</v>
           </cell>
         </row>
         <row r="80">
           <cell r="I80">
-            <v>36.4</v>
+            <v>35.6</v>
           </cell>
         </row>
         <row r="81">
           <cell r="I81">
-            <v>36.4</v>
+            <v>35.5</v>
           </cell>
         </row>
         <row r="82">
           <cell r="I82">
-            <v>36.700000000000003</v>
+            <v>35.4</v>
           </cell>
         </row>
       </sheetData>
@@ -9349,17 +9361,6 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9670,35 +9671,35 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>[6]Summary!I2*4096/100</f>
+        <f>[1]Summary!I2*4096/100</f>
         <v>516.096</v>
       </c>
       <c r="C2">
+        <f>[2]Summary!I2*2048/100</f>
+        <v>73.728000000000009</v>
+      </c>
+      <c r="D2">
+        <f>[3]Summary!I2*4096/100</f>
+        <v>514.048</v>
+      </c>
+      <c r="E2">
         <f>[4]Summary!I2*2048/100</f>
-        <v>73.728000000000009</v>
-      </c>
-      <c r="D2">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="F2">
+        <f>[5]Summary!I2*4096/100</f>
+        <v>512</v>
+      </c>
+      <c r="G2">
+        <f>[6]Summary!I2*2048/100</f>
+        <v>71.680000000000007</v>
+      </c>
+      <c r="H2">
         <f>[7]Summary!I2*4096/100</f>
-        <v>514.048</v>
-      </c>
-      <c r="E2">
-        <f>[3]Summary!I2*2048/100</f>
-        <v>71.680000000000007</v>
-      </c>
-      <c r="F2">
-        <f>[8]Summary!I2*4096/100</f>
-        <v>512</v>
-      </c>
-      <c r="G2">
-        <f>[2]Summary!I2*2048/100</f>
-        <v>71.680000000000007</v>
-      </c>
-      <c r="H2">
-        <f>[5]Summary!I2*4096/100</f>
         <v>516.096</v>
       </c>
       <c r="I2">
-        <f>[1]Summary!I2*2048/100</f>
+        <f>[8]Summary!I2*2048/100</f>
         <v>71.680000000000007</v>
       </c>
     </row>
@@ -9707,35 +9708,35 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f>[6]Summary!I3*4096/100</f>
+        <f>[1]Summary!I3*4096/100</f>
         <v>602.11199999999997</v>
       </c>
       <c r="C3">
+        <f>[2]Summary!I3*2048/100</f>
+        <v>167.93599999999998</v>
+      </c>
+      <c r="D3">
+        <f>[3]Summary!I3*4096/100</f>
+        <v>602.11199999999997</v>
+      </c>
+      <c r="E3">
         <f>[4]Summary!I3*2048/100</f>
-        <v>167.93599999999998</v>
-      </c>
-      <c r="D3">
+        <v>165.88800000000001</v>
+      </c>
+      <c r="F3">
+        <f>[5]Summary!I3*4096/100</f>
+        <v>602.11199999999997</v>
+      </c>
+      <c r="G3">
+        <f>[6]Summary!I3*2048/100</f>
+        <v>161.792</v>
+      </c>
+      <c r="H3">
         <f>[7]Summary!I3*4096/100</f>
         <v>602.11199999999997</v>
       </c>
-      <c r="E3">
-        <f>[3]Summary!I3*2048/100</f>
-        <v>165.88800000000001</v>
-      </c>
-      <c r="F3">
-        <f>[8]Summary!I3*4096/100</f>
-        <v>602.11199999999997</v>
-      </c>
-      <c r="G3">
-        <f>[2]Summary!I3*2048/100</f>
-        <v>161.792</v>
-      </c>
-      <c r="H3">
-        <f>[5]Summary!I3*4096/100</f>
-        <v>602.11199999999997</v>
-      </c>
       <c r="I3">
-        <f>[1]Summary!I3*2048/100</f>
+        <f>[8]Summary!I3*2048/100</f>
         <v>159.744</v>
       </c>
     </row>
@@ -9744,35 +9745,35 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <f>[6]Summary!I4*4096/100</f>
+        <f>[1]Summary!I4*4096/100</f>
         <v>741.37600000000009</v>
       </c>
       <c r="C4">
+        <f>[2]Summary!I4*2048/100</f>
+        <v>325.63200000000001</v>
+      </c>
+      <c r="D4">
+        <f>[3]Summary!I4*4096/100</f>
+        <v>708.60800000000006</v>
+      </c>
+      <c r="E4">
         <f>[4]Summary!I4*2048/100</f>
         <v>325.63200000000001</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <f>[5]Summary!I4*4096/100</f>
+        <v>679.93600000000004</v>
+      </c>
+      <c r="G4">
+        <f>[6]Summary!I4*2048/100</f>
+        <v>325.63200000000001</v>
+      </c>
+      <c r="H4">
         <f>[7]Summary!I4*4096/100</f>
-        <v>708.60800000000006</v>
-      </c>
-      <c r="E4">
-        <f>[3]Summary!I4*2048/100</f>
-        <v>325.63200000000001</v>
-      </c>
-      <c r="F4">
-        <f>[8]Summary!I4*4096/100</f>
-        <v>679.93600000000004</v>
-      </c>
-      <c r="G4">
-        <f>[2]Summary!I4*2048/100</f>
-        <v>325.63200000000001</v>
-      </c>
-      <c r="H4">
-        <f>[5]Summary!I4*4096/100</f>
         <v>677.88800000000003</v>
       </c>
       <c r="I4">
-        <f>[1]Summary!I4*2048/100</f>
+        <f>[8]Summary!I4*2048/100</f>
         <v>331.77600000000001</v>
       </c>
     </row>
@@ -9781,35 +9782,35 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <f>[6]Summary!I5*4096/100</f>
+        <f>[1]Summary!I5*4096/100</f>
         <v>794.62399999999991</v>
       </c>
       <c r="C5">
+        <f>[2]Summary!I5*2048/100</f>
+        <v>327.68</v>
+      </c>
+      <c r="D5">
+        <f>[3]Summary!I5*4096/100</f>
+        <v>794.62399999999991</v>
+      </c>
+      <c r="E5">
         <f>[4]Summary!I5*2048/100</f>
-        <v>327.68</v>
-      </c>
-      <c r="D5">
+        <v>344.06400000000002</v>
+      </c>
+      <c r="F5">
+        <f>[5]Summary!I5*4096/100</f>
+        <v>798.72</v>
+      </c>
+      <c r="G5">
+        <f>[6]Summary!I5*2048/100</f>
+        <v>376.83199999999999</v>
+      </c>
+      <c r="H5">
         <f>[7]Summary!I5*4096/100</f>
-        <v>794.62399999999991</v>
-      </c>
-      <c r="E5">
-        <f>[3]Summary!I5*2048/100</f>
-        <v>344.06400000000002</v>
-      </c>
-      <c r="F5">
-        <f>[8]Summary!I5*4096/100</f>
-        <v>798.72</v>
-      </c>
-      <c r="G5">
-        <f>[2]Summary!I5*2048/100</f>
-        <v>376.83199999999999</v>
-      </c>
-      <c r="H5">
-        <f>[5]Summary!I5*4096/100</f>
         <v>823.29600000000005</v>
       </c>
       <c r="I5">
-        <f>[1]Summary!I5*2048/100</f>
+        <f>[8]Summary!I5*2048/100</f>
         <v>432.12800000000004</v>
       </c>
     </row>
@@ -9818,35 +9819,35 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <f>[6]Summary!I6*4096/100</f>
+        <f>[1]Summary!I6*4096/100</f>
         <v>798.72</v>
       </c>
       <c r="C6">
+        <f>[2]Summary!I6*2048/100</f>
+        <v>333.82400000000001</v>
+      </c>
+      <c r="D6">
+        <f>[3]Summary!I6*4096/100</f>
+        <v>815.10399999999993</v>
+      </c>
+      <c r="E6">
         <f>[4]Summary!I6*2048/100</f>
-        <v>333.82400000000001</v>
-      </c>
-      <c r="D6">
+        <v>378.88</v>
+      </c>
+      <c r="F6">
+        <f>[5]Summary!I6*4096/100</f>
+        <v>872.44799999999998</v>
+      </c>
+      <c r="G6">
+        <f>[6]Summary!I6*2048/100</f>
+        <v>462.84800000000001</v>
+      </c>
+      <c r="H6">
         <f>[7]Summary!I6*4096/100</f>
-        <v>815.10399999999993</v>
-      </c>
-      <c r="E6">
-        <f>[3]Summary!I6*2048/100</f>
-        <v>378.88</v>
-      </c>
-      <c r="F6">
-        <f>[8]Summary!I6*4096/100</f>
-        <v>872.44799999999998</v>
-      </c>
-      <c r="G6">
-        <f>[2]Summary!I6*2048/100</f>
-        <v>462.84800000000001</v>
-      </c>
-      <c r="H6">
-        <f>[5]Summary!I6*4096/100</f>
         <v>937.98399999999992</v>
       </c>
       <c r="I6">
-        <f>[1]Summary!I6*2048/100</f>
+        <f>[8]Summary!I6*2048/100</f>
         <v>495.61599999999999</v>
       </c>
     </row>
@@ -9855,35 +9856,35 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <f>[6]Summary!I7*4096/100</f>
+        <f>[1]Summary!I7*4096/100</f>
         <v>811.00800000000004</v>
       </c>
       <c r="C7">
+        <f>[2]Summary!I7*2048/100</f>
+        <v>335.87199999999996</v>
+      </c>
+      <c r="D7">
+        <f>[3]Summary!I7*4096/100</f>
+        <v>856.06399999999996</v>
+      </c>
+      <c r="E7">
         <f>[4]Summary!I7*2048/100</f>
-        <v>335.87199999999996</v>
-      </c>
-      <c r="D7">
+        <v>387.07199999999995</v>
+      </c>
+      <c r="F7">
+        <f>[5]Summary!I7*4096/100</f>
+        <v>954.36800000000005</v>
+      </c>
+      <c r="G7">
+        <f>[6]Summary!I7*2048/100</f>
+        <v>497.66399999999999</v>
+      </c>
+      <c r="H7">
         <f>[7]Summary!I7*4096/100</f>
-        <v>856.06399999999996</v>
-      </c>
-      <c r="E7">
-        <f>[3]Summary!I7*2048/100</f>
-        <v>387.07199999999995</v>
-      </c>
-      <c r="F7">
-        <f>[8]Summary!I7*4096/100</f>
-        <v>954.36800000000005</v>
-      </c>
-      <c r="G7">
-        <f>[2]Summary!I7*2048/100</f>
-        <v>497.66399999999999</v>
-      </c>
-      <c r="H7">
-        <f>[5]Summary!I7*4096/100</f>
         <v>983.04</v>
       </c>
       <c r="I7">
-        <f>[1]Summary!I7*2048/100</f>
+        <f>[8]Summary!I7*2048/100</f>
         <v>509.952</v>
       </c>
     </row>
@@ -9892,35 +9893,35 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <f>[6]Summary!I8*4096/100</f>
+        <f>[1]Summary!I8*4096/100</f>
         <v>811.00800000000004</v>
       </c>
       <c r="C8">
+        <f>[2]Summary!I8*2048/100</f>
+        <v>335.87199999999996</v>
+      </c>
+      <c r="D8">
+        <f>[3]Summary!I8*4096/100</f>
+        <v>888.83199999999999</v>
+      </c>
+      <c r="E8">
         <f>[4]Summary!I8*2048/100</f>
-        <v>335.87199999999996</v>
-      </c>
-      <c r="D8">
-        <f>[7]Summary!I8*4096/100</f>
-        <v>888.83199999999999</v>
-      </c>
-      <c r="E8">
-        <f>[3]Summary!I8*2048/100</f>
         <v>432.12800000000004</v>
       </c>
       <c r="F8">
-        <f>[8]Summary!I8*4096/100</f>
-        <v>987.13600000000008</v>
-      </c>
-      <c r="G8">
-        <f>[2]Summary!I8*2048/100</f>
-        <v>516.096</v>
-      </c>
-      <c r="H8">
         <f>[5]Summary!I8*4096/100</f>
         <v>987.13600000000008</v>
       </c>
+      <c r="G8">
+        <f>[6]Summary!I8*2048/100</f>
+        <v>516.096</v>
+      </c>
+      <c r="H8">
+        <f>[7]Summary!I8*4096/100</f>
+        <v>987.13600000000008</v>
+      </c>
       <c r="I8">
-        <f>[1]Summary!I8*2048/100</f>
+        <f>[8]Summary!I8*2048/100</f>
         <v>515.072</v>
       </c>
     </row>
@@ -9929,35 +9930,35 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <f>[6]Summary!I9*4096/100</f>
+        <f>[1]Summary!I9*4096/100</f>
         <v>823.29600000000005</v>
       </c>
       <c r="C9">
+        <f>[2]Summary!I9*2048/100</f>
+        <v>339.96800000000002</v>
+      </c>
+      <c r="D9">
+        <f>[3]Summary!I9*4096/100</f>
+        <v>937.98399999999992</v>
+      </c>
+      <c r="E9">
         <f>[4]Summary!I9*2048/100</f>
-        <v>339.96800000000002</v>
-      </c>
-      <c r="D9">
-        <f>[7]Summary!I9*4096/100</f>
-        <v>937.98399999999992</v>
-      </c>
-      <c r="E9">
-        <f>[3]Summary!I9*2048/100</f>
         <v>485.37599999999998</v>
       </c>
       <c r="F9">
-        <f>[8]Summary!I9*4096/100</f>
-        <v>1007.6160000000001</v>
-      </c>
-      <c r="G9">
-        <f>[2]Summary!I9*2048/100</f>
-        <v>524.28800000000001</v>
-      </c>
-      <c r="H9">
         <f>[5]Summary!I9*4096/100</f>
         <v>1007.6160000000001</v>
       </c>
+      <c r="G9">
+        <f>[6]Summary!I9*2048/100</f>
+        <v>524.28800000000001</v>
+      </c>
+      <c r="H9">
+        <f>[7]Summary!I9*4096/100</f>
+        <v>1007.6160000000001</v>
+      </c>
       <c r="I9">
-        <f>[1]Summary!I9*2048/100</f>
+        <f>[8]Summary!I9*2048/100</f>
         <v>522.24</v>
       </c>
     </row>
@@ -9966,35 +9967,35 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <f>[6]Summary!I10*4096/100</f>
+        <f>[1]Summary!I10*4096/100</f>
         <v>823.29600000000005</v>
       </c>
       <c r="C10">
+        <f>[2]Summary!I10*2048/100</f>
+        <v>342.01599999999996</v>
+      </c>
+      <c r="D10">
+        <f>[3]Summary!I10*4096/100</f>
+        <v>983.04</v>
+      </c>
+      <c r="E10">
         <f>[4]Summary!I10*2048/100</f>
-        <v>342.01599999999996</v>
-      </c>
-      <c r="D10">
+        <v>514.048</v>
+      </c>
+      <c r="F10">
+        <f>[5]Summary!I10*4096/100</f>
+        <v>1007.6160000000001</v>
+      </c>
+      <c r="G10">
+        <f>[6]Summary!I10*2048/100</f>
+        <v>524.28800000000001</v>
+      </c>
+      <c r="H10">
         <f>[7]Summary!I10*4096/100</f>
-        <v>983.04</v>
-      </c>
-      <c r="E10">
-        <f>[3]Summary!I10*2048/100</f>
-        <v>514.048</v>
-      </c>
-      <c r="F10">
-        <f>[8]Summary!I10*4096/100</f>
-        <v>1007.6160000000001</v>
-      </c>
-      <c r="G10">
-        <f>[2]Summary!I10*2048/100</f>
-        <v>524.28800000000001</v>
-      </c>
-      <c r="H10">
-        <f>[5]Summary!I10*4096/100</f>
         <v>1009.664</v>
       </c>
       <c r="I10">
-        <f>[1]Summary!I10*2048/100</f>
+        <f>[8]Summary!I10*2048/100</f>
         <v>524.28800000000001</v>
       </c>
     </row>
@@ -10003,35 +10004,35 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <f>[6]Summary!I11*4096/100</f>
+        <f>[1]Summary!I11*4096/100</f>
         <v>823.29600000000005</v>
       </c>
       <c r="C11">
+        <f>[2]Summary!I11*2048/100</f>
+        <v>346.11199999999997</v>
+      </c>
+      <c r="D11">
+        <f>[3]Summary!I11*4096/100</f>
+        <v>1005.568</v>
+      </c>
+      <c r="E11">
         <f>[4]Summary!I11*2048/100</f>
-        <v>346.11199999999997</v>
-      </c>
-      <c r="D11">
+        <v>524.28800000000001</v>
+      </c>
+      <c r="F11">
+        <f>[5]Summary!I11*4096/100</f>
+        <v>1011.712</v>
+      </c>
+      <c r="G11">
+        <f>[6]Summary!I11*2048/100</f>
+        <v>526.33600000000001</v>
+      </c>
+      <c r="H11">
         <f>[7]Summary!I11*4096/100</f>
-        <v>1005.568</v>
-      </c>
-      <c r="E11">
-        <f>[3]Summary!I11*2048/100</f>
-        <v>524.28800000000001</v>
-      </c>
-      <c r="F11">
-        <f>[8]Summary!I11*4096/100</f>
-        <v>1011.712</v>
-      </c>
-      <c r="G11">
-        <f>[2]Summary!I11*2048/100</f>
-        <v>526.33600000000001</v>
-      </c>
-      <c r="H11">
-        <f>[5]Summary!I11*4096/100</f>
         <v>1009.664</v>
       </c>
       <c r="I11">
-        <f>[1]Summary!I11*2048/100</f>
+        <f>[8]Summary!I11*2048/100</f>
         <v>526.33600000000001</v>
       </c>
     </row>
@@ -10040,35 +10041,35 @@
         <v>40</v>
       </c>
       <c r="B12">
-        <f>[6]Summary!I12*4096/100</f>
+        <f>[1]Summary!I12*4096/100</f>
         <v>839.68</v>
       </c>
       <c r="C12">
+        <f>[2]Summary!I12*2048/100</f>
+        <v>348.16</v>
+      </c>
+      <c r="D12">
+        <f>[3]Summary!I12*4096/100</f>
+        <v>1024</v>
+      </c>
+      <c r="E12">
         <f>[4]Summary!I12*2048/100</f>
-        <v>348.16</v>
-      </c>
-      <c r="D12">
+        <v>526.33600000000001</v>
+      </c>
+      <c r="F12">
+        <f>[5]Summary!I12*4096/100</f>
+        <v>1024</v>
+      </c>
+      <c r="G12">
+        <f>[6]Summary!I12*2048/100</f>
+        <v>528.38400000000001</v>
+      </c>
+      <c r="H12">
         <f>[7]Summary!I12*4096/100</f>
         <v>1024</v>
       </c>
-      <c r="E12">
-        <f>[3]Summary!I12*2048/100</f>
-        <v>526.33600000000001</v>
-      </c>
-      <c r="F12">
-        <f>[8]Summary!I12*4096/100</f>
-        <v>1024</v>
-      </c>
-      <c r="G12">
-        <f>[2]Summary!I12*2048/100</f>
-        <v>528.38400000000001</v>
-      </c>
-      <c r="H12">
-        <f>[5]Summary!I12*4096/100</f>
-        <v>1024</v>
-      </c>
       <c r="I12">
-        <f>[1]Summary!I12*2048/100</f>
+        <f>[8]Summary!I12*2048/100</f>
         <v>527.36</v>
       </c>
     </row>
@@ -10077,35 +10078,35 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <f>[6]Summary!I13*4096/100</f>
+        <f>[1]Summary!I13*4096/100</f>
         <v>843.77600000000007</v>
       </c>
       <c r="C13">
+        <f>[2]Summary!I13*2048/100</f>
+        <v>348.16</v>
+      </c>
+      <c r="D13">
+        <f>[3]Summary!I13*4096/100</f>
+        <v>1024</v>
+      </c>
+      <c r="E13">
         <f>[4]Summary!I13*2048/100</f>
-        <v>348.16</v>
-      </c>
-      <c r="D13">
+        <v>528.38400000000001</v>
+      </c>
+      <c r="F13">
+        <f>[5]Summary!I13*4096/100</f>
+        <v>1024</v>
+      </c>
+      <c r="G13">
+        <f>[6]Summary!I13*2048/100</f>
+        <v>528.38400000000001</v>
+      </c>
+      <c r="H13">
         <f>[7]Summary!I13*4096/100</f>
         <v>1024</v>
       </c>
-      <c r="E13">
-        <f>[3]Summary!I13*2048/100</f>
-        <v>528.38400000000001</v>
-      </c>
-      <c r="F13">
-        <f>[8]Summary!I13*4096/100</f>
-        <v>1024</v>
-      </c>
-      <c r="G13">
-        <f>[2]Summary!I13*2048/100</f>
-        <v>528.38400000000001</v>
-      </c>
-      <c r="H13">
-        <f>[5]Summary!I13*4096/100</f>
-        <v>1024</v>
-      </c>
       <c r="I13">
-        <f>[1]Summary!I13*2048/100</f>
+        <f>[8]Summary!I13*2048/100</f>
         <v>528.38400000000001</v>
       </c>
     </row>
@@ -10114,35 +10115,35 @@
         <v>48</v>
       </c>
       <c r="B14">
-        <f>[6]Summary!I14*4096/100</f>
+        <f>[1]Summary!I14*4096/100</f>
         <v>860.16</v>
       </c>
       <c r="C14">
+        <f>[2]Summary!I14*2048/100</f>
+        <v>350.20800000000003</v>
+      </c>
+      <c r="D14">
+        <f>[3]Summary!I14*4096/100</f>
+        <v>1040.384</v>
+      </c>
+      <c r="E14">
         <f>[4]Summary!I14*2048/100</f>
-        <v>350.20800000000003</v>
-      </c>
-      <c r="D14">
+        <v>530.43200000000002</v>
+      </c>
+      <c r="F14">
+        <f>[5]Summary!I14*4096/100</f>
+        <v>1040.384</v>
+      </c>
+      <c r="G14">
+        <f>[6]Summary!I14*2048/100</f>
+        <v>530.43200000000002</v>
+      </c>
+      <c r="H14">
         <f>[7]Summary!I14*4096/100</f>
         <v>1040.384</v>
       </c>
-      <c r="E14">
-        <f>[3]Summary!I14*2048/100</f>
-        <v>530.43200000000002</v>
-      </c>
-      <c r="F14">
-        <f>[8]Summary!I14*4096/100</f>
-        <v>1040.384</v>
-      </c>
-      <c r="G14">
-        <f>[2]Summary!I14*2048/100</f>
-        <v>530.43200000000002</v>
-      </c>
-      <c r="H14">
-        <f>[5]Summary!I14*4096/100</f>
-        <v>1040.384</v>
-      </c>
       <c r="I14">
-        <f>[1]Summary!I14*2048/100</f>
+        <f>[8]Summary!I14*2048/100</f>
         <v>530.43200000000002</v>
       </c>
     </row>
@@ -10151,35 +10152,35 @@
         <v>52</v>
       </c>
       <c r="B15">
-        <f>[6]Summary!I15*4096/100</f>
+        <f>[1]Summary!I15*4096/100</f>
         <v>860.16</v>
       </c>
       <c r="C15">
+        <f>[2]Summary!I15*2048/100</f>
+        <v>350.20800000000003</v>
+      </c>
+      <c r="D15">
+        <f>[3]Summary!I15*4096/100</f>
+        <v>1040.384</v>
+      </c>
+      <c r="E15">
         <f>[4]Summary!I15*2048/100</f>
-        <v>350.20800000000003</v>
-      </c>
-      <c r="D15">
+        <v>530.43200000000002</v>
+      </c>
+      <c r="F15">
+        <f>[5]Summary!I15*4096/100</f>
+        <v>1040.384</v>
+      </c>
+      <c r="G15">
+        <f>[6]Summary!I15*2048/100</f>
+        <v>530.43200000000002</v>
+      </c>
+      <c r="H15">
         <f>[7]Summary!I15*4096/100</f>
         <v>1040.384</v>
       </c>
-      <c r="E15">
-        <f>[3]Summary!I15*2048/100</f>
-        <v>530.43200000000002</v>
-      </c>
-      <c r="F15">
-        <f>[8]Summary!I15*4096/100</f>
-        <v>1040.384</v>
-      </c>
-      <c r="G15">
-        <f>[2]Summary!I15*2048/100</f>
-        <v>530.43200000000002</v>
-      </c>
-      <c r="H15">
-        <f>[5]Summary!I15*4096/100</f>
-        <v>1040.384</v>
-      </c>
       <c r="I15">
-        <f>[1]Summary!I15*2048/100</f>
+        <f>[8]Summary!I15*2048/100</f>
         <v>530.43200000000002</v>
       </c>
     </row>
@@ -10188,35 +10189,35 @@
         <v>56</v>
       </c>
       <c r="B16">
-        <f>[6]Summary!I16*4096/100</f>
+        <f>[1]Summary!I16*4096/100</f>
         <v>860.16</v>
       </c>
       <c r="C16">
+        <f>[2]Summary!I16*2048/100</f>
+        <v>350.20800000000003</v>
+      </c>
+      <c r="D16">
+        <f>[3]Summary!I16*4096/100</f>
+        <v>1040.384</v>
+      </c>
+      <c r="E16">
         <f>[4]Summary!I16*2048/100</f>
-        <v>350.20800000000003</v>
-      </c>
-      <c r="D16">
-        <f>[7]Summary!I16*4096/100</f>
-        <v>1040.384</v>
-      </c>
-      <c r="E16">
-        <f>[3]Summary!I16*2048/100</f>
         <v>530.43200000000002</v>
       </c>
       <c r="F16">
-        <f>[8]Summary!I16*4096/100</f>
-        <v>1044.48</v>
-      </c>
-      <c r="G16">
-        <f>[2]Summary!I16*2048/100</f>
-        <v>530.43200000000002</v>
-      </c>
-      <c r="H16">
         <f>[5]Summary!I16*4096/100</f>
         <v>1044.48</v>
       </c>
+      <c r="G16">
+        <f>[6]Summary!I16*2048/100</f>
+        <v>530.43200000000002</v>
+      </c>
+      <c r="H16">
+        <f>[7]Summary!I16*4096/100</f>
+        <v>1044.48</v>
+      </c>
       <c r="I16">
-        <f>[1]Summary!I16*2048/100</f>
+        <f>[8]Summary!I16*2048/100</f>
         <v>530.43200000000002</v>
       </c>
     </row>
@@ -10225,35 +10226,35 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <f>[6]Summary!I17*4096/100</f>
+        <f>[1]Summary!I17*4096/100</f>
         <v>872.44799999999998</v>
       </c>
       <c r="C17">
+        <f>[2]Summary!I17*2048/100</f>
+        <v>350.20800000000003</v>
+      </c>
+      <c r="D17">
+        <f>[3]Summary!I17*4096/100</f>
+        <v>1056.768</v>
+      </c>
+      <c r="E17">
         <f>[4]Summary!I17*2048/100</f>
-        <v>350.20800000000003</v>
-      </c>
-      <c r="D17">
+        <v>530.43200000000002</v>
+      </c>
+      <c r="F17">
+        <f>[5]Summary!I17*4096/100</f>
+        <v>1056.768</v>
+      </c>
+      <c r="G17">
+        <f>[6]Summary!I17*2048/100</f>
+        <v>530.43200000000002</v>
+      </c>
+      <c r="H17">
         <f>[7]Summary!I17*4096/100</f>
         <v>1056.768</v>
       </c>
-      <c r="E17">
-        <f>[3]Summary!I17*2048/100</f>
-        <v>530.43200000000002</v>
-      </c>
-      <c r="F17">
-        <f>[8]Summary!I17*4096/100</f>
-        <v>1056.768</v>
-      </c>
-      <c r="G17">
-        <f>[2]Summary!I17*2048/100</f>
-        <v>530.43200000000002</v>
-      </c>
-      <c r="H17">
-        <f>[5]Summary!I17*4096/100</f>
-        <v>1056.768</v>
-      </c>
       <c r="I17">
-        <f>[1]Summary!I17*2048/100</f>
+        <f>[8]Summary!I17*2048/100</f>
         <v>530.43200000000002</v>
       </c>
     </row>
@@ -10262,35 +10263,35 @@
         <v>64</v>
       </c>
       <c r="B18">
-        <f>[6]Summary!I18*4096/100</f>
+        <f>[1]Summary!I18*4096/100</f>
         <v>872.44799999999998</v>
       </c>
       <c r="C18">
+        <f>[2]Summary!I18*2048/100</f>
+        <v>352.25599999999997</v>
+      </c>
+      <c r="D18">
+        <f>[3]Summary!I18*4096/100</f>
+        <v>1056.768</v>
+      </c>
+      <c r="E18">
         <f>[4]Summary!I18*2048/100</f>
-        <v>352.25599999999997</v>
-      </c>
-      <c r="D18">
+        <v>530.43200000000002</v>
+      </c>
+      <c r="F18">
+        <f>[5]Summary!I18*4096/100</f>
+        <v>1056.768</v>
+      </c>
+      <c r="G18">
+        <f>[6]Summary!I18*2048/100</f>
+        <v>532.48</v>
+      </c>
+      <c r="H18">
         <f>[7]Summary!I18*4096/100</f>
         <v>1056.768</v>
       </c>
-      <c r="E18">
-        <f>[3]Summary!I18*2048/100</f>
-        <v>530.43200000000002</v>
-      </c>
-      <c r="F18">
-        <f>[8]Summary!I18*4096/100</f>
-        <v>1056.768</v>
-      </c>
-      <c r="G18">
-        <f>[2]Summary!I18*2048/100</f>
-        <v>532.48</v>
-      </c>
-      <c r="H18">
-        <f>[5]Summary!I18*4096/100</f>
-        <v>1056.768</v>
-      </c>
       <c r="I18">
-        <f>[1]Summary!I18*2048/100</f>
+        <f>[8]Summary!I18*2048/100</f>
         <v>530.43200000000002</v>
       </c>
     </row>
@@ -10299,35 +10300,35 @@
         <v>68</v>
       </c>
       <c r="B19">
-        <f>[6]Summary!I19*4096/100</f>
+        <f>[1]Summary!I19*4096/100</f>
         <v>880.64</v>
       </c>
       <c r="C19">
+        <f>[2]Summary!I19*2048/100</f>
+        <v>354.30400000000003</v>
+      </c>
+      <c r="D19">
+        <f>[3]Summary!I19*4096/100</f>
+        <v>1060.864</v>
+      </c>
+      <c r="E19">
         <f>[4]Summary!I19*2048/100</f>
-        <v>354.30400000000003</v>
-      </c>
-      <c r="D19">
-        <f>[7]Summary!I19*4096/100</f>
-        <v>1060.864</v>
-      </c>
-      <c r="E19">
-        <f>[3]Summary!I19*2048/100</f>
         <v>532.48</v>
       </c>
       <c r="F19">
-        <f>[8]Summary!I19*4096/100</f>
-        <v>1064.96</v>
-      </c>
-      <c r="G19">
-        <f>[2]Summary!I19*2048/100</f>
-        <v>532.48</v>
-      </c>
-      <c r="H19">
         <f>[5]Summary!I19*4096/100</f>
         <v>1064.96</v>
       </c>
+      <c r="G19">
+        <f>[6]Summary!I19*2048/100</f>
+        <v>532.48</v>
+      </c>
+      <c r="H19">
+        <f>[7]Summary!I19*4096/100</f>
+        <v>1064.96</v>
+      </c>
       <c r="I19">
-        <f>[1]Summary!I19*2048/100</f>
+        <f>[8]Summary!I19*2048/100</f>
         <v>530.43200000000002</v>
       </c>
     </row>
@@ -10336,35 +10337,35 @@
         <v>72</v>
       </c>
       <c r="B20">
-        <f>[6]Summary!I20*4096/100</f>
+        <f>[1]Summary!I20*4096/100</f>
         <v>880.64</v>
       </c>
       <c r="C20">
+        <f>[2]Summary!I20*2048/100</f>
+        <v>354.30400000000003</v>
+      </c>
+      <c r="D20">
+        <f>[3]Summary!I20*4096/100</f>
+        <v>1062.912</v>
+      </c>
+      <c r="E20">
         <f>[4]Summary!I20*2048/100</f>
-        <v>354.30400000000003</v>
-      </c>
-      <c r="D20">
+        <v>532.48</v>
+      </c>
+      <c r="F20">
+        <f>[5]Summary!I20*4096/100</f>
+        <v>1069.056</v>
+      </c>
+      <c r="G20">
+        <f>[6]Summary!I20*2048/100</f>
+        <v>532.48</v>
+      </c>
+      <c r="H20">
         <f>[7]Summary!I20*4096/100</f>
-        <v>1062.912</v>
-      </c>
-      <c r="E20">
-        <f>[3]Summary!I20*2048/100</f>
-        <v>532.48</v>
-      </c>
-      <c r="F20">
-        <f>[8]Summary!I20*4096/100</f>
-        <v>1069.056</v>
-      </c>
-      <c r="G20">
-        <f>[2]Summary!I20*2048/100</f>
-        <v>532.48</v>
-      </c>
-      <c r="H20">
-        <f>[5]Summary!I20*4096/100</f>
         <v>1064.96</v>
       </c>
       <c r="I20">
-        <f>[1]Summary!I20*2048/100</f>
+        <f>[8]Summary!I20*2048/100</f>
         <v>530.43200000000002</v>
       </c>
     </row>
@@ -10373,35 +10374,35 @@
         <v>76</v>
       </c>
       <c r="B21">
-        <f>[6]Summary!I21*4096/100</f>
+        <f>[1]Summary!I21*4096/100</f>
         <v>880.64</v>
       </c>
       <c r="C21">
+        <f>[2]Summary!I21*2048/100</f>
+        <v>358.4</v>
+      </c>
+      <c r="D21">
+        <f>[3]Summary!I21*4096/100</f>
+        <v>1062.912</v>
+      </c>
+      <c r="E21">
         <f>[4]Summary!I21*2048/100</f>
-        <v>358.4</v>
-      </c>
-      <c r="D21">
-        <f>[7]Summary!I21*4096/100</f>
-        <v>1062.912</v>
-      </c>
-      <c r="E21">
-        <f>[3]Summary!I21*2048/100</f>
         <v>534.52800000000002</v>
       </c>
       <c r="F21">
-        <f>[8]Summary!I21*4096/100</f>
-        <v>1064.96</v>
-      </c>
-      <c r="G21">
-        <f>[2]Summary!I21*2048/100</f>
-        <v>532.48</v>
-      </c>
-      <c r="H21">
         <f>[5]Summary!I21*4096/100</f>
         <v>1064.96</v>
       </c>
+      <c r="G21">
+        <f>[6]Summary!I21*2048/100</f>
+        <v>532.48</v>
+      </c>
+      <c r="H21">
+        <f>[7]Summary!I21*4096/100</f>
+        <v>1064.96</v>
+      </c>
       <c r="I21">
-        <f>[1]Summary!I21*2048/100</f>
+        <f>[8]Summary!I21*2048/100</f>
         <v>531.45600000000002</v>
       </c>
     </row>
@@ -10410,35 +10411,35 @@
         <v>80</v>
       </c>
       <c r="B22">
-        <f>[6]Summary!I22*4096/100</f>
+        <f>[1]Summary!I22*4096/100</f>
         <v>888.83199999999999</v>
       </c>
       <c r="C22">
+        <f>[2]Summary!I22*2048/100</f>
+        <v>358.4</v>
+      </c>
+      <c r="D22">
+        <f>[3]Summary!I22*4096/100</f>
+        <v>1077.248</v>
+      </c>
+      <c r="E22">
         <f>[4]Summary!I22*2048/100</f>
-        <v>358.4</v>
-      </c>
-      <c r="D22">
+        <v>534.52800000000002</v>
+      </c>
+      <c r="F22">
+        <f>[5]Summary!I22*4096/100</f>
+        <v>1077.248</v>
+      </c>
+      <c r="G22">
+        <f>[6]Summary!I22*2048/100</f>
+        <v>534.52800000000002</v>
+      </c>
+      <c r="H22">
         <f>[7]Summary!I22*4096/100</f>
         <v>1077.248</v>
       </c>
-      <c r="E22">
-        <f>[3]Summary!I22*2048/100</f>
-        <v>534.52800000000002</v>
-      </c>
-      <c r="F22">
-        <f>[8]Summary!I22*4096/100</f>
-        <v>1077.248</v>
-      </c>
-      <c r="G22">
-        <f>[2]Summary!I22*2048/100</f>
-        <v>534.52800000000002</v>
-      </c>
-      <c r="H22">
-        <f>[5]Summary!I22*4096/100</f>
-        <v>1077.248</v>
-      </c>
       <c r="I22">
-        <f>[1]Summary!I22*2048/100</f>
+        <f>[8]Summary!I22*2048/100</f>
         <v>532.48</v>
       </c>
     </row>
@@ -10447,35 +10448,35 @@
         <v>84</v>
       </c>
       <c r="B23">
-        <f>[6]Summary!I23*4096/100</f>
+        <f>[1]Summary!I23*4096/100</f>
         <v>888.83199999999999</v>
       </c>
       <c r="C23">
+        <f>[2]Summary!I23*2048/100</f>
+        <v>358.4</v>
+      </c>
+      <c r="D23">
+        <f>[3]Summary!I23*4096/100</f>
+        <v>1073.152</v>
+      </c>
+      <c r="E23">
         <f>[4]Summary!I23*2048/100</f>
-        <v>358.4</v>
-      </c>
-      <c r="D23">
-        <f>[7]Summary!I23*4096/100</f>
-        <v>1073.152</v>
-      </c>
-      <c r="E23">
-        <f>[3]Summary!I23*2048/100</f>
         <v>534.52800000000002</v>
       </c>
       <c r="F23">
-        <f>[8]Summary!I23*4096/100</f>
-        <v>1077.248</v>
-      </c>
-      <c r="G23">
-        <f>[2]Summary!I23*2048/100</f>
-        <v>534.52800000000002</v>
-      </c>
-      <c r="H23">
         <f>[5]Summary!I23*4096/100</f>
         <v>1077.248</v>
       </c>
+      <c r="G23">
+        <f>[6]Summary!I23*2048/100</f>
+        <v>534.52800000000002</v>
+      </c>
+      <c r="H23">
+        <f>[7]Summary!I23*4096/100</f>
+        <v>1077.248</v>
+      </c>
       <c r="I23">
-        <f>[1]Summary!I23*2048/100</f>
+        <f>[8]Summary!I23*2048/100</f>
         <v>533.50400000000002</v>
       </c>
     </row>
@@ -10484,35 +10485,35 @@
         <v>88</v>
       </c>
       <c r="B24">
-        <f>[6]Summary!I24*4096/100</f>
+        <f>[1]Summary!I24*4096/100</f>
         <v>901.12</v>
       </c>
       <c r="C24">
+        <f>[2]Summary!I24*2048/100</f>
+        <v>360.44800000000004</v>
+      </c>
+      <c r="D24">
+        <f>[3]Summary!I24*4096/100</f>
+        <v>1085.44</v>
+      </c>
+      <c r="E24">
         <f>[4]Summary!I24*2048/100</f>
-        <v>360.44800000000004</v>
-      </c>
-      <c r="D24">
+        <v>536.57600000000002</v>
+      </c>
+      <c r="F24">
+        <f>[5]Summary!I24*4096/100</f>
+        <v>1085.44</v>
+      </c>
+      <c r="G24">
+        <f>[6]Summary!I24*2048/100</f>
+        <v>536.57600000000002</v>
+      </c>
+      <c r="H24">
         <f>[7]Summary!I24*4096/100</f>
         <v>1085.44</v>
       </c>
-      <c r="E24">
-        <f>[3]Summary!I24*2048/100</f>
-        <v>536.57600000000002</v>
-      </c>
-      <c r="F24">
-        <f>[8]Summary!I24*4096/100</f>
-        <v>1085.44</v>
-      </c>
-      <c r="G24">
-        <f>[2]Summary!I24*2048/100</f>
-        <v>536.57600000000002</v>
-      </c>
-      <c r="H24">
-        <f>[5]Summary!I24*4096/100</f>
-        <v>1085.44</v>
-      </c>
       <c r="I24">
-        <f>[1]Summary!I24*2048/100</f>
+        <f>[8]Summary!I24*2048/100</f>
         <v>534.52800000000002</v>
       </c>
     </row>
@@ -10521,35 +10522,35 @@
         <v>92</v>
       </c>
       <c r="B25">
-        <f>[6]Summary!I25*4096/100</f>
+        <f>[1]Summary!I25*4096/100</f>
         <v>901.12</v>
       </c>
       <c r="C25">
+        <f>[2]Summary!I25*2048/100</f>
+        <v>360.44800000000004</v>
+      </c>
+      <c r="D25">
+        <f>[3]Summary!I25*4096/100</f>
+        <v>1085.44</v>
+      </c>
+      <c r="E25">
         <f>[4]Summary!I25*2048/100</f>
-        <v>360.44800000000004</v>
-      </c>
-      <c r="D25">
+        <v>536.57600000000002</v>
+      </c>
+      <c r="F25">
+        <f>[5]Summary!I25*4096/100</f>
+        <v>1089.5360000000001</v>
+      </c>
+      <c r="G25">
+        <f>[6]Summary!I25*2048/100</f>
+        <v>536.57600000000002</v>
+      </c>
+      <c r="H25">
         <f>[7]Summary!I25*4096/100</f>
         <v>1085.44</v>
       </c>
-      <c r="E25">
-        <f>[3]Summary!I25*2048/100</f>
-        <v>536.57600000000002</v>
-      </c>
-      <c r="F25">
-        <f>[8]Summary!I25*4096/100</f>
-        <v>1089.5360000000001</v>
-      </c>
-      <c r="G25">
-        <f>[2]Summary!I25*2048/100</f>
-        <v>536.57600000000002</v>
-      </c>
-      <c r="H25">
-        <f>[5]Summary!I25*4096/100</f>
-        <v>1085.44</v>
-      </c>
       <c r="I25">
-        <f>[1]Summary!I25*2048/100</f>
+        <f>[8]Summary!I25*2048/100</f>
         <v>534.52800000000002</v>
       </c>
     </row>
@@ -10558,35 +10559,35 @@
         <v>96</v>
       </c>
       <c r="B26">
-        <f>[6]Summary!I26*4096/100</f>
+        <f>[1]Summary!I26*4096/100</f>
         <v>901.12</v>
       </c>
       <c r="C26">
+        <f>[2]Summary!I26*2048/100</f>
+        <v>364.54400000000004</v>
+      </c>
+      <c r="D26">
+        <f>[3]Summary!I26*4096/100</f>
+        <v>1085.44</v>
+      </c>
+      <c r="E26">
         <f>[4]Summary!I26*2048/100</f>
-        <v>364.54400000000004</v>
-      </c>
-      <c r="D26">
+        <v>536.57600000000002</v>
+      </c>
+      <c r="F26">
+        <f>[5]Summary!I26*4096/100</f>
+        <v>1089.5360000000001</v>
+      </c>
+      <c r="G26">
+        <f>[6]Summary!I26*2048/100</f>
+        <v>536.57600000000002</v>
+      </c>
+      <c r="H26">
         <f>[7]Summary!I26*4096/100</f>
         <v>1085.44</v>
       </c>
-      <c r="E26">
-        <f>[3]Summary!I26*2048/100</f>
-        <v>536.57600000000002</v>
-      </c>
-      <c r="F26">
-        <f>[8]Summary!I26*4096/100</f>
-        <v>1089.5360000000001</v>
-      </c>
-      <c r="G26">
-        <f>[2]Summary!I26*2048/100</f>
-        <v>536.57600000000002</v>
-      </c>
-      <c r="H26">
-        <f>[5]Summary!I26*4096/100</f>
-        <v>1085.44</v>
-      </c>
       <c r="I26">
-        <f>[1]Summary!I26*2048/100</f>
+        <f>[8]Summary!I26*2048/100</f>
         <v>534.52800000000002</v>
       </c>
     </row>
@@ -10595,35 +10596,35 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <f>[6]Summary!I27*4096/100</f>
+        <f>[1]Summary!I27*4096/100</f>
         <v>909.31200000000001</v>
       </c>
       <c r="C27">
+        <f>[2]Summary!I27*2048/100</f>
+        <v>364.54400000000004</v>
+      </c>
+      <c r="D27">
+        <f>[3]Summary!I27*4096/100</f>
+        <v>1093.6320000000001</v>
+      </c>
+      <c r="E27">
         <f>[4]Summary!I27*2048/100</f>
-        <v>364.54400000000004</v>
-      </c>
-      <c r="D27">
+        <v>536.57600000000002</v>
+      </c>
+      <c r="F27">
+        <f>[5]Summary!I27*4096/100</f>
+        <v>1093.6320000000001</v>
+      </c>
+      <c r="G27">
+        <f>[6]Summary!I27*2048/100</f>
+        <v>538.62400000000002</v>
+      </c>
+      <c r="H27">
         <f>[7]Summary!I27*4096/100</f>
         <v>1093.6320000000001</v>
       </c>
-      <c r="E27">
-        <f>[3]Summary!I27*2048/100</f>
-        <v>536.57600000000002</v>
-      </c>
-      <c r="F27">
-        <f>[8]Summary!I27*4096/100</f>
-        <v>1093.6320000000001</v>
-      </c>
-      <c r="G27">
-        <f>[2]Summary!I27*2048/100</f>
-        <v>538.62400000000002</v>
-      </c>
-      <c r="H27">
-        <f>[5]Summary!I27*4096/100</f>
-        <v>1093.6320000000001</v>
-      </c>
       <c r="I27">
-        <f>[1]Summary!I27*2048/100</f>
+        <f>[8]Summary!I27*2048/100</f>
         <v>534.52800000000002</v>
       </c>
     </row>
@@ -10632,35 +10633,35 @@
         <v>104</v>
       </c>
       <c r="B28">
-        <f>[6]Summary!I28*4096/100</f>
+        <f>[1]Summary!I28*4096/100</f>
         <v>909.31200000000001</v>
       </c>
       <c r="C28">
+        <f>[2]Summary!I28*2048/100</f>
+        <v>364.54400000000004</v>
+      </c>
+      <c r="D28">
+        <f>[3]Summary!I28*4096/100</f>
+        <v>1093.6320000000001</v>
+      </c>
+      <c r="E28">
         <f>[4]Summary!I28*2048/100</f>
-        <v>364.54400000000004</v>
-      </c>
-      <c r="D28">
+        <v>536.57600000000002</v>
+      </c>
+      <c r="F28">
+        <f>[5]Summary!I28*4096/100</f>
+        <v>1097.7280000000001</v>
+      </c>
+      <c r="G28">
+        <f>[6]Summary!I28*2048/100</f>
+        <v>538.62400000000002</v>
+      </c>
+      <c r="H28">
         <f>[7]Summary!I28*4096/100</f>
         <v>1093.6320000000001</v>
       </c>
-      <c r="E28">
-        <f>[3]Summary!I28*2048/100</f>
-        <v>536.57600000000002</v>
-      </c>
-      <c r="F28">
-        <f>[8]Summary!I28*4096/100</f>
-        <v>1097.7280000000001</v>
-      </c>
-      <c r="G28">
-        <f>[2]Summary!I28*2048/100</f>
-        <v>538.62400000000002</v>
-      </c>
-      <c r="H28">
-        <f>[5]Summary!I28*4096/100</f>
-        <v>1093.6320000000001</v>
-      </c>
       <c r="I28">
-        <f>[1]Summary!I28*2048/100</f>
+        <f>[8]Summary!I28*2048/100</f>
         <v>534.52800000000002</v>
       </c>
     </row>
@@ -10669,35 +10670,35 @@
         <v>108</v>
       </c>
       <c r="B29">
-        <f>[6]Summary!I29*4096/100</f>
+        <f>[1]Summary!I29*4096/100</f>
         <v>913.40800000000002</v>
       </c>
       <c r="C29">
+        <f>[2]Summary!I29*2048/100</f>
+        <v>364.54400000000004</v>
+      </c>
+      <c r="D29">
+        <f>[3]Summary!I29*4096/100</f>
+        <v>1095.68</v>
+      </c>
+      <c r="E29">
         <f>[4]Summary!I29*2048/100</f>
-        <v>364.54400000000004</v>
-      </c>
-      <c r="D29">
-        <f>[7]Summary!I29*4096/100</f>
-        <v>1095.68</v>
-      </c>
-      <c r="E29">
-        <f>[3]Summary!I29*2048/100</f>
         <v>538.62400000000002</v>
       </c>
       <c r="F29">
-        <f>[8]Summary!I29*4096/100</f>
-        <v>1097.7280000000001</v>
-      </c>
-      <c r="G29">
-        <f>[2]Summary!I29*2048/100</f>
-        <v>538.62400000000002</v>
-      </c>
-      <c r="H29">
         <f>[5]Summary!I29*4096/100</f>
         <v>1097.7280000000001</v>
       </c>
+      <c r="G29">
+        <f>[6]Summary!I29*2048/100</f>
+        <v>538.62400000000002</v>
+      </c>
+      <c r="H29">
+        <f>[7]Summary!I29*4096/100</f>
+        <v>1097.7280000000001</v>
+      </c>
       <c r="I29">
-        <f>[1]Summary!I29*2048/100</f>
+        <f>[8]Summary!I29*2048/100</f>
         <v>534.52800000000002</v>
       </c>
     </row>
@@ -10706,35 +10707,35 @@
         <v>112</v>
       </c>
       <c r="B30">
-        <f>[6]Summary!I30*4096/100</f>
+        <f>[1]Summary!I30*4096/100</f>
         <v>913.40800000000002</v>
       </c>
       <c r="C30">
+        <f>[2]Summary!I30*2048/100</f>
+        <v>364.54400000000004</v>
+      </c>
+      <c r="D30">
+        <f>[3]Summary!I30*4096/100</f>
+        <v>1097.7280000000001</v>
+      </c>
+      <c r="E30">
         <f>[4]Summary!I30*2048/100</f>
-        <v>364.54400000000004</v>
-      </c>
-      <c r="D30">
+        <v>538.62400000000002</v>
+      </c>
+      <c r="F30">
+        <f>[5]Summary!I30*4096/100</f>
+        <v>1101.8239999999998</v>
+      </c>
+      <c r="G30">
+        <f>[6]Summary!I30*2048/100</f>
+        <v>538.62400000000002</v>
+      </c>
+      <c r="H30">
         <f>[7]Summary!I30*4096/100</f>
         <v>1097.7280000000001</v>
       </c>
-      <c r="E30">
-        <f>[3]Summary!I30*2048/100</f>
-        <v>538.62400000000002</v>
-      </c>
-      <c r="F30">
-        <f>[8]Summary!I30*4096/100</f>
-        <v>1101.8239999999998</v>
-      </c>
-      <c r="G30">
-        <f>[2]Summary!I30*2048/100</f>
-        <v>538.62400000000002</v>
-      </c>
-      <c r="H30">
-        <f>[5]Summary!I30*4096/100</f>
-        <v>1097.7280000000001</v>
-      </c>
       <c r="I30">
-        <f>[1]Summary!I30*2048/100</f>
+        <f>[8]Summary!I30*2048/100</f>
         <v>534.52800000000002</v>
       </c>
     </row>
@@ -10743,35 +10744,35 @@
         <v>116</v>
       </c>
       <c r="B31">
-        <f>[6]Summary!I31*4096/100</f>
+        <f>[1]Summary!I31*4096/100</f>
         <v>917.50399999999991</v>
       </c>
       <c r="C31">
+        <f>[2]Summary!I31*2048/100</f>
+        <v>366.59199999999998</v>
+      </c>
+      <c r="D31">
+        <f>[3]Summary!I31*4096/100</f>
+        <v>1099.7760000000001</v>
+      </c>
+      <c r="E31">
         <f>[4]Summary!I31*2048/100</f>
-        <v>366.59199999999998</v>
-      </c>
-      <c r="D31">
+        <v>538.62400000000002</v>
+      </c>
+      <c r="F31">
+        <f>[5]Summary!I31*4096/100</f>
+        <v>1101.8239999999998</v>
+      </c>
+      <c r="G31">
+        <f>[6]Summary!I31*2048/100</f>
+        <v>538.62400000000002</v>
+      </c>
+      <c r="H31">
         <f>[7]Summary!I31*4096/100</f>
-        <v>1099.7760000000001</v>
-      </c>
-      <c r="E31">
-        <f>[3]Summary!I31*2048/100</f>
-        <v>538.62400000000002</v>
-      </c>
-      <c r="F31">
-        <f>[8]Summary!I31*4096/100</f>
-        <v>1101.8239999999998</v>
-      </c>
-      <c r="G31">
-        <f>[2]Summary!I31*2048/100</f>
-        <v>538.62400000000002</v>
-      </c>
-      <c r="H31">
-        <f>[5]Summary!I31*4096/100</f>
         <v>1097.7280000000001</v>
       </c>
       <c r="I31">
-        <f>[1]Summary!I31*2048/100</f>
+        <f>[8]Summary!I31*2048/100</f>
         <v>534.52800000000002</v>
       </c>
     </row>
@@ -10780,35 +10781,35 @@
         <v>120</v>
       </c>
       <c r="B32">
-        <f>[6]Summary!I32*4096/100</f>
+        <f>[1]Summary!I32*4096/100</f>
         <v>917.50399999999991</v>
       </c>
       <c r="C32">
+        <f>[2]Summary!I32*2048/100</f>
+        <v>366.59199999999998</v>
+      </c>
+      <c r="D32">
+        <f>[3]Summary!I32*4096/100</f>
+        <v>1099.7760000000001</v>
+      </c>
+      <c r="E32">
         <f>[4]Summary!I32*2048/100</f>
-        <v>366.59199999999998</v>
-      </c>
-      <c r="D32">
-        <f>[7]Summary!I32*4096/100</f>
-        <v>1099.7760000000001</v>
-      </c>
-      <c r="E32">
-        <f>[3]Summary!I32*2048/100</f>
         <v>538.62400000000002</v>
       </c>
       <c r="F32">
-        <f>[8]Summary!I32*4096/100</f>
-        <v>1101.8239999999998</v>
-      </c>
-      <c r="G32">
-        <f>[2]Summary!I32*2048/100</f>
-        <v>540.67200000000003</v>
-      </c>
-      <c r="H32">
         <f>[5]Summary!I32*4096/100</f>
         <v>1101.8239999999998</v>
       </c>
+      <c r="G32">
+        <f>[6]Summary!I32*2048/100</f>
+        <v>540.67200000000003</v>
+      </c>
+      <c r="H32">
+        <f>[7]Summary!I32*4096/100</f>
+        <v>1101.8239999999998</v>
+      </c>
       <c r="I32">
-        <f>[1]Summary!I32*2048/100</f>
+        <f>[8]Summary!I32*2048/100</f>
         <v>536.57600000000002</v>
       </c>
     </row>
@@ -10817,35 +10818,35 @@
         <v>124</v>
       </c>
       <c r="B33">
-        <f>[6]Summary!I33*4096/100</f>
+        <f>[1]Summary!I33*4096/100</f>
         <v>921.6</v>
       </c>
       <c r="C33">
+        <f>[2]Summary!I33*2048/100</f>
+        <v>366.59199999999998</v>
+      </c>
+      <c r="D33">
+        <f>[3]Summary!I33*4096/100</f>
+        <v>1103.8720000000001</v>
+      </c>
+      <c r="E33">
         <f>[4]Summary!I33*2048/100</f>
-        <v>366.59199999999998</v>
-      </c>
-      <c r="D33">
+        <v>538.62400000000002</v>
+      </c>
+      <c r="F33">
+        <f>[5]Summary!I33*4096/100</f>
+        <v>1105.92</v>
+      </c>
+      <c r="G33">
+        <f>[6]Summary!I33*2048/100</f>
+        <v>540.67200000000003</v>
+      </c>
+      <c r="H33">
         <f>[7]Summary!I33*4096/100</f>
-        <v>1103.8720000000001</v>
-      </c>
-      <c r="E33">
-        <f>[3]Summary!I33*2048/100</f>
-        <v>538.62400000000002</v>
-      </c>
-      <c r="F33">
-        <f>[8]Summary!I33*4096/100</f>
-        <v>1105.92</v>
-      </c>
-      <c r="G33">
-        <f>[2]Summary!I33*2048/100</f>
-        <v>540.67200000000003</v>
-      </c>
-      <c r="H33">
-        <f>[5]Summary!I33*4096/100</f>
         <v>1101.8239999999998</v>
       </c>
       <c r="I33">
-        <f>[1]Summary!I33*2048/100</f>
+        <f>[8]Summary!I33*2048/100</f>
         <v>536.57600000000002</v>
       </c>
     </row>
@@ -10854,35 +10855,35 @@
         <v>128</v>
       </c>
       <c r="B34">
-        <f>[6]Summary!I34*4096/100</f>
+        <f>[1]Summary!I34*4096/100</f>
         <v>925.69600000000003</v>
       </c>
       <c r="C34">
+        <f>[2]Summary!I34*2048/100</f>
+        <v>368.64</v>
+      </c>
+      <c r="D34">
+        <f>[3]Summary!I34*4096/100</f>
+        <v>1105.92</v>
+      </c>
+      <c r="E34">
         <f>[4]Summary!I34*2048/100</f>
-        <v>368.64</v>
-      </c>
-      <c r="D34">
+        <v>540.67200000000003</v>
+      </c>
+      <c r="F34">
+        <f>[5]Summary!I34*4096/100</f>
+        <v>1105.92</v>
+      </c>
+      <c r="G34">
+        <f>[6]Summary!I34*2048/100</f>
+        <v>540.67200000000003</v>
+      </c>
+      <c r="H34">
         <f>[7]Summary!I34*4096/100</f>
         <v>1105.92</v>
       </c>
-      <c r="E34">
-        <f>[3]Summary!I34*2048/100</f>
-        <v>540.67200000000003</v>
-      </c>
-      <c r="F34">
-        <f>[8]Summary!I34*4096/100</f>
-        <v>1105.92</v>
-      </c>
-      <c r="G34">
-        <f>[2]Summary!I34*2048/100</f>
-        <v>540.67200000000003</v>
-      </c>
-      <c r="H34">
-        <f>[5]Summary!I34*4096/100</f>
-        <v>1105.92</v>
-      </c>
       <c r="I34">
-        <f>[1]Summary!I34*2048/100</f>
+        <f>[8]Summary!I34*2048/100</f>
         <v>538.62400000000002</v>
       </c>
     </row>
@@ -10891,35 +10892,35 @@
         <v>132</v>
       </c>
       <c r="B35">
-        <f>[6]Summary!I35*4096/100</f>
+        <f>[1]Summary!I35*4096/100</f>
         <v>925.69600000000003</v>
       </c>
       <c r="C35">
+        <f>[2]Summary!I35*2048/100</f>
+        <v>368.64</v>
+      </c>
+      <c r="D35">
+        <f>[3]Summary!I35*4096/100</f>
+        <v>1110.0160000000001</v>
+      </c>
+      <c r="E35">
         <f>[4]Summary!I35*2048/100</f>
-        <v>368.64</v>
-      </c>
-      <c r="D35">
+        <v>539.64800000000002</v>
+      </c>
+      <c r="F35">
+        <f>[5]Summary!I35*4096/100</f>
+        <v>1110.0160000000001</v>
+      </c>
+      <c r="G35">
+        <f>[6]Summary!I35*2048/100</f>
+        <v>540.67200000000003</v>
+      </c>
+      <c r="H35">
         <f>[7]Summary!I35*4096/100</f>
         <v>1110.0160000000001</v>
       </c>
-      <c r="E35">
-        <f>[3]Summary!I35*2048/100</f>
-        <v>539.64800000000002</v>
-      </c>
-      <c r="F35">
-        <f>[8]Summary!I35*4096/100</f>
-        <v>1110.0160000000001</v>
-      </c>
-      <c r="G35">
-        <f>[2]Summary!I35*2048/100</f>
-        <v>540.67200000000003</v>
-      </c>
-      <c r="H35">
-        <f>[5]Summary!I35*4096/100</f>
-        <v>1110.0160000000001</v>
-      </c>
       <c r="I35">
-        <f>[1]Summary!I35*2048/100</f>
+        <f>[8]Summary!I35*2048/100</f>
         <v>538.62400000000002</v>
       </c>
     </row>
@@ -10928,35 +10929,35 @@
         <v>136</v>
       </c>
       <c r="B36">
-        <f>[6]Summary!I36*4096/100</f>
+        <f>[1]Summary!I36*4096/100</f>
         <v>937.98399999999992</v>
       </c>
       <c r="C36">
+        <f>[2]Summary!I36*2048/100</f>
+        <v>368.64</v>
+      </c>
+      <c r="D36">
+        <f>[3]Summary!I36*4096/100</f>
+        <v>1112.0639999999999</v>
+      </c>
+      <c r="E36">
         <f>[4]Summary!I36*2048/100</f>
-        <v>368.64</v>
-      </c>
-      <c r="D36">
+        <v>540.67200000000003</v>
+      </c>
+      <c r="F36">
+        <f>[5]Summary!I36*4096/100</f>
+        <v>1118.2080000000001</v>
+      </c>
+      <c r="G36">
+        <f>[6]Summary!I36*2048/100</f>
+        <v>540.67200000000003</v>
+      </c>
+      <c r="H36">
         <f>[7]Summary!I36*4096/100</f>
-        <v>1112.0639999999999</v>
-      </c>
-      <c r="E36">
-        <f>[3]Summary!I36*2048/100</f>
-        <v>540.67200000000003</v>
-      </c>
-      <c r="F36">
-        <f>[8]Summary!I36*4096/100</f>
-        <v>1118.2080000000001</v>
-      </c>
-      <c r="G36">
-        <f>[2]Summary!I36*2048/100</f>
-        <v>540.67200000000003</v>
-      </c>
-      <c r="H36">
-        <f>[5]Summary!I36*4096/100</f>
         <v>1114.1120000000001</v>
       </c>
       <c r="I36">
-        <f>[1]Summary!I36*2048/100</f>
+        <f>[8]Summary!I36*2048/100</f>
         <v>538.62400000000002</v>
       </c>
     </row>
@@ -10965,35 +10966,35 @@
         <v>140</v>
       </c>
       <c r="B37">
-        <f>[6]Summary!I37*4096/100</f>
+        <f>[1]Summary!I37*4096/100</f>
         <v>942.08</v>
       </c>
       <c r="C37">
+        <f>[2]Summary!I37*2048/100</f>
+        <v>368.64</v>
+      </c>
+      <c r="D37">
+        <f>[3]Summary!I37*4096/100</f>
+        <v>1114.1120000000001</v>
+      </c>
+      <c r="E37">
         <f>[4]Summary!I37*2048/100</f>
-        <v>368.64</v>
-      </c>
-      <c r="D37">
+        <v>543.74400000000003</v>
+      </c>
+      <c r="F37">
+        <f>[5]Summary!I37*4096/100</f>
+        <v>1118.2080000000001</v>
+      </c>
+      <c r="G37">
+        <f>[6]Summary!I37*2048/100</f>
+        <v>548.86400000000003</v>
+      </c>
+      <c r="H37">
         <f>[7]Summary!I37*4096/100</f>
-        <v>1114.1120000000001</v>
-      </c>
-      <c r="E37">
-        <f>[3]Summary!I37*2048/100</f>
-        <v>543.74400000000003</v>
-      </c>
-      <c r="F37">
-        <f>[8]Summary!I37*4096/100</f>
-        <v>1118.2080000000001</v>
-      </c>
-      <c r="G37">
-        <f>[2]Summary!I37*2048/100</f>
-        <v>548.86400000000003</v>
-      </c>
-      <c r="H37">
-        <f>[5]Summary!I37*4096/100</f>
         <v>1120.2560000000001</v>
       </c>
       <c r="I37">
-        <f>[1]Summary!I37*2048/100</f>
+        <f>[8]Summary!I37*2048/100</f>
         <v>545.79199999999992</v>
       </c>
     </row>
@@ -11002,35 +11003,35 @@
         <v>144</v>
       </c>
       <c r="B38">
-        <f>[6]Summary!I38*4096/100</f>
+        <f>[1]Summary!I38*4096/100</f>
         <v>946.17600000000004</v>
       </c>
       <c r="C38">
+        <f>[2]Summary!I38*2048/100</f>
+        <v>368.64</v>
+      </c>
+      <c r="D38">
+        <f>[3]Summary!I38*4096/100</f>
+        <v>1124.3519999999999</v>
+      </c>
+      <c r="E38">
         <f>[4]Summary!I38*2048/100</f>
-        <v>368.64</v>
-      </c>
-      <c r="D38">
+        <v>571.39199999999994</v>
+      </c>
+      <c r="F38">
+        <f>[5]Summary!I38*4096/100</f>
+        <v>1130.4960000000001</v>
+      </c>
+      <c r="G38">
+        <f>[6]Summary!I38*2048/100</f>
+        <v>583.67999999999995</v>
+      </c>
+      <c r="H38">
         <f>[7]Summary!I38*4096/100</f>
-        <v>1124.3519999999999</v>
-      </c>
-      <c r="E38">
-        <f>[3]Summary!I38*2048/100</f>
-        <v>571.39199999999994</v>
-      </c>
-      <c r="F38">
-        <f>[8]Summary!I38*4096/100</f>
-        <v>1130.4960000000001</v>
-      </c>
-      <c r="G38">
-        <f>[2]Summary!I38*2048/100</f>
-        <v>583.67999999999995</v>
-      </c>
-      <c r="H38">
-        <f>[5]Summary!I38*4096/100</f>
         <v>1126.4000000000001</v>
       </c>
       <c r="I38">
-        <f>[1]Summary!I38*2048/100</f>
+        <f>[8]Summary!I38*2048/100</f>
         <v>575.48800000000006</v>
       </c>
     </row>
@@ -11039,35 +11040,35 @@
         <v>148</v>
       </c>
       <c r="B39">
-        <f>[6]Summary!I39*4096/100</f>
+        <f>[1]Summary!I39*4096/100</f>
         <v>958.46399999999994</v>
       </c>
       <c r="C39">
+        <f>[2]Summary!I39*2048/100</f>
+        <v>370.68800000000005</v>
+      </c>
+      <c r="D39">
+        <f>[3]Summary!I39*4096/100</f>
+        <v>1163.2639999999999</v>
+      </c>
+      <c r="E39">
         <f>[4]Summary!I39*2048/100</f>
-        <v>370.68800000000005</v>
-      </c>
-      <c r="D39">
+        <v>616.44799999999998</v>
+      </c>
+      <c r="F39">
+        <f>[5]Summary!I39*4096/100</f>
+        <v>1142.7839999999999</v>
+      </c>
+      <c r="G39">
+        <f>[6]Summary!I39*2048/100</f>
+        <v>606.20800000000008</v>
+      </c>
+      <c r="H39">
         <f>[7]Summary!I39*4096/100</f>
-        <v>1163.2639999999999</v>
-      </c>
-      <c r="E39">
-        <f>[3]Summary!I39*2048/100</f>
-        <v>616.44799999999998</v>
-      </c>
-      <c r="F39">
-        <f>[8]Summary!I39*4096/100</f>
-        <v>1142.7839999999999</v>
-      </c>
-      <c r="G39">
-        <f>[2]Summary!I39*2048/100</f>
-        <v>606.20800000000008</v>
-      </c>
-      <c r="H39">
-        <f>[5]Summary!I39*4096/100</f>
         <v>1146.8800000000001</v>
       </c>
       <c r="I39">
-        <f>[1]Summary!I39*2048/100</f>
+        <f>[8]Summary!I39*2048/100</f>
         <v>610.30399999999997</v>
       </c>
     </row>
@@ -11076,35 +11077,35 @@
         <v>152</v>
       </c>
       <c r="B40">
-        <f>[6]Summary!I40*4096/100</f>
+        <f>[1]Summary!I40*4096/100</f>
         <v>958.46399999999994</v>
       </c>
       <c r="C40">
+        <f>[2]Summary!I40*2048/100</f>
+        <v>370.68800000000005</v>
+      </c>
+      <c r="D40">
+        <f>[3]Summary!I40*4096/100</f>
+        <v>1200.1279999999999</v>
+      </c>
+      <c r="E40">
         <f>[4]Summary!I40*2048/100</f>
-        <v>370.68800000000005</v>
-      </c>
-      <c r="D40">
+        <v>643.072</v>
+      </c>
+      <c r="F40">
+        <f>[5]Summary!I40*4096/100</f>
+        <v>1155.0719999999999</v>
+      </c>
+      <c r="G40">
+        <f>[6]Summary!I40*2048/100</f>
+        <v>622.59199999999998</v>
+      </c>
+      <c r="H40">
         <f>[7]Summary!I40*4096/100</f>
-        <v>1200.1279999999999</v>
-      </c>
-      <c r="E40">
-        <f>[3]Summary!I40*2048/100</f>
-        <v>643.072</v>
-      </c>
-      <c r="F40">
-        <f>[8]Summary!I40*4096/100</f>
-        <v>1155.0719999999999</v>
-      </c>
-      <c r="G40">
-        <f>[2]Summary!I40*2048/100</f>
-        <v>622.59199999999998</v>
-      </c>
-      <c r="H40">
-        <f>[5]Summary!I40*4096/100</f>
         <v>1153.0239999999999</v>
       </c>
       <c r="I40">
-        <f>[1]Summary!I40*2048/100</f>
+        <f>[8]Summary!I40*2048/100</f>
         <v>621.56799999999998</v>
       </c>
     </row>
@@ -11113,35 +11114,35 @@
         <v>156</v>
       </c>
       <c r="B41">
-        <f>[6]Summary!I41*4096/100</f>
+        <f>[1]Summary!I41*4096/100</f>
         <v>974.84800000000007</v>
       </c>
       <c r="C41">
+        <f>[2]Summary!I41*2048/100</f>
+        <v>372.73599999999999</v>
+      </c>
+      <c r="D41">
+        <f>[3]Summary!I41*4096/100</f>
+        <v>1228.8</v>
+      </c>
+      <c r="E41">
         <f>[4]Summary!I41*2048/100</f>
-        <v>372.73599999999999</v>
-      </c>
-      <c r="D41">
+        <v>657.40800000000002</v>
+      </c>
+      <c r="F41">
+        <f>[5]Summary!I41*4096/100</f>
+        <v>1179.6480000000001</v>
+      </c>
+      <c r="G41">
+        <f>[6]Summary!I41*2048/100</f>
+        <v>634.88</v>
+      </c>
+      <c r="H41">
         <f>[7]Summary!I41*4096/100</f>
-        <v>1228.8</v>
-      </c>
-      <c r="E41">
-        <f>[3]Summary!I41*2048/100</f>
-        <v>657.40800000000002</v>
-      </c>
-      <c r="F41">
-        <f>[8]Summary!I41*4096/100</f>
-        <v>1179.6480000000001</v>
-      </c>
-      <c r="G41">
-        <f>[2]Summary!I41*2048/100</f>
-        <v>634.88</v>
-      </c>
-      <c r="H41">
-        <f>[5]Summary!I41*4096/100</f>
         <v>1173.5039999999999</v>
       </c>
       <c r="I41">
-        <f>[1]Summary!I41*2048/100</f>
+        <f>[8]Summary!I41*2048/100</f>
         <v>631.80799999999999</v>
       </c>
     </row>
@@ -11150,35 +11151,35 @@
         <v>160</v>
       </c>
       <c r="B42">
-        <f>[6]Summary!I42*4096/100</f>
+        <f>[1]Summary!I42*4096/100</f>
         <v>978.94399999999996</v>
       </c>
       <c r="C42">
+        <f>[2]Summary!I42*2048/100</f>
+        <v>372.73599999999999</v>
+      </c>
+      <c r="D42">
+        <f>[3]Summary!I42*4096/100</f>
+        <v>1247.232</v>
+      </c>
+      <c r="E42">
         <f>[4]Summary!I42*2048/100</f>
-        <v>372.73599999999999</v>
-      </c>
-      <c r="D42">
+        <v>659.45600000000002</v>
+      </c>
+      <c r="F42">
+        <f>[5]Summary!I42*4096/100</f>
+        <v>1200.1279999999999</v>
+      </c>
+      <c r="G42">
+        <f>[6]Summary!I42*2048/100</f>
+        <v>649.21600000000001</v>
+      </c>
+      <c r="H42">
         <f>[7]Summary!I42*4096/100</f>
-        <v>1247.232</v>
-      </c>
-      <c r="E42">
-        <f>[3]Summary!I42*2048/100</f>
-        <v>659.45600000000002</v>
-      </c>
-      <c r="F42">
-        <f>[8]Summary!I42*4096/100</f>
-        <v>1200.1279999999999</v>
-      </c>
-      <c r="G42">
-        <f>[2]Summary!I42*2048/100</f>
-        <v>649.21600000000001</v>
-      </c>
-      <c r="H42">
-        <f>[5]Summary!I42*4096/100</f>
         <v>1196.0319999999999</v>
       </c>
       <c r="I42">
-        <f>[1]Summary!I42*2048/100</f>
+        <f>[8]Summary!I42*2048/100</f>
         <v>640</v>
       </c>
     </row>
@@ -11187,35 +11188,35 @@
         <v>164</v>
       </c>
       <c r="B43">
-        <f>[6]Summary!I43*4096/100</f>
+        <f>[1]Summary!I43*4096/100</f>
         <v>987.13600000000008</v>
       </c>
       <c r="C43">
+        <f>[2]Summary!I43*2048/100</f>
+        <v>372.73599999999999</v>
+      </c>
+      <c r="D43">
+        <f>[3]Summary!I43*4096/100</f>
+        <v>1257.472</v>
+      </c>
+      <c r="E43">
         <f>[4]Summary!I43*2048/100</f>
-        <v>372.73599999999999</v>
-      </c>
-      <c r="D43">
+        <v>661.50399999999991</v>
+      </c>
+      <c r="F43">
+        <f>[5]Summary!I43*4096/100</f>
+        <v>1216.5119999999999</v>
+      </c>
+      <c r="G43">
+        <f>[6]Summary!I43*2048/100</f>
+        <v>657.40800000000002</v>
+      </c>
+      <c r="H43">
         <f>[7]Summary!I43*4096/100</f>
-        <v>1257.472</v>
-      </c>
-      <c r="E43">
-        <f>[3]Summary!I43*2048/100</f>
-        <v>661.50399999999991</v>
-      </c>
-      <c r="F43">
-        <f>[8]Summary!I43*4096/100</f>
-        <v>1216.5119999999999</v>
-      </c>
-      <c r="G43">
-        <f>[2]Summary!I43*2048/100</f>
-        <v>657.40800000000002</v>
-      </c>
-      <c r="H43">
-        <f>[5]Summary!I43*4096/100</f>
         <v>1208.32</v>
       </c>
       <c r="I43">
-        <f>[1]Summary!I43*2048/100</f>
+        <f>[8]Summary!I43*2048/100</f>
         <v>649.21600000000001</v>
       </c>
     </row>
@@ -11224,35 +11225,35 @@
         <v>168</v>
       </c>
       <c r="B44">
-        <f>[6]Summary!I44*4096/100</f>
+        <f>[1]Summary!I44*4096/100</f>
         <v>999.42399999999998</v>
       </c>
       <c r="C44">
+        <f>[2]Summary!I44*2048/100</f>
+        <v>374.78399999999999</v>
+      </c>
+      <c r="D44">
+        <f>[3]Summary!I44*4096/100</f>
+        <v>1277.952</v>
+      </c>
+      <c r="E44">
         <f>[4]Summary!I44*2048/100</f>
-        <v>374.78399999999999</v>
-      </c>
-      <c r="D44">
-        <f>[7]Summary!I44*4096/100</f>
-        <v>1277.952</v>
-      </c>
-      <c r="E44">
-        <f>[3]Summary!I44*2048/100</f>
         <v>662.52799999999991</v>
       </c>
       <c r="F44">
-        <f>[8]Summary!I44*4096/100</f>
-        <v>1236.992</v>
-      </c>
-      <c r="G44">
-        <f>[2]Summary!I44*2048/100</f>
-        <v>667.64800000000002</v>
-      </c>
-      <c r="H44">
         <f>[5]Summary!I44*4096/100</f>
         <v>1236.992</v>
       </c>
+      <c r="G44">
+        <f>[6]Summary!I44*2048/100</f>
+        <v>667.64800000000002</v>
+      </c>
+      <c r="H44">
+        <f>[7]Summary!I44*4096/100</f>
+        <v>1236.992</v>
+      </c>
       <c r="I44">
-        <f>[1]Summary!I44*2048/100</f>
+        <f>[8]Summary!I44*2048/100</f>
         <v>659.45600000000002</v>
       </c>
     </row>
@@ -11261,35 +11262,35 @@
         <v>172</v>
       </c>
       <c r="B45">
-        <f>[6]Summary!I45*4096/100</f>
+        <f>[1]Summary!I45*4096/100</f>
         <v>999.42399999999998</v>
       </c>
       <c r="C45">
+        <f>[2]Summary!I45*2048/100</f>
+        <v>374.78399999999999</v>
+      </c>
+      <c r="D45">
+        <f>[3]Summary!I45*4096/100</f>
+        <v>1290.24</v>
+      </c>
+      <c r="E45">
         <f>[4]Summary!I45*2048/100</f>
-        <v>374.78399999999999</v>
-      </c>
-      <c r="D45">
+        <v>662.52799999999991</v>
+      </c>
+      <c r="F45">
+        <f>[5]Summary!I45*4096/100</f>
+        <v>1249.28</v>
+      </c>
+      <c r="G45">
+        <f>[6]Summary!I45*2048/100</f>
+        <v>681.98399999999992</v>
+      </c>
+      <c r="H45">
         <f>[7]Summary!I45*4096/100</f>
-        <v>1290.24</v>
-      </c>
-      <c r="E45">
-        <f>[3]Summary!I45*2048/100</f>
-        <v>662.52799999999991</v>
-      </c>
-      <c r="F45">
-        <f>[8]Summary!I45*4096/100</f>
-        <v>1249.28</v>
-      </c>
-      <c r="G45">
-        <f>[2]Summary!I45*2048/100</f>
-        <v>681.98399999999992</v>
-      </c>
-      <c r="H45">
-        <f>[5]Summary!I45*4096/100</f>
         <v>1243.136</v>
       </c>
       <c r="I45">
-        <f>[1]Summary!I45*2048/100</f>
+        <f>[8]Summary!I45*2048/100</f>
         <v>671.74399999999991</v>
       </c>
     </row>
@@ -11298,35 +11299,35 @@
         <v>176</v>
       </c>
       <c r="B46">
-        <f>[6]Summary!I46*4096/100</f>
+        <f>[1]Summary!I46*4096/100</f>
         <v>1015.808</v>
       </c>
       <c r="C46">
+        <f>[2]Summary!I46*2048/100</f>
+        <v>376.83199999999999</v>
+      </c>
+      <c r="D46">
+        <f>[3]Summary!I46*4096/100</f>
+        <v>1294.336</v>
+      </c>
+      <c r="E46">
         <f>[4]Summary!I46*2048/100</f>
-        <v>376.83199999999999</v>
-      </c>
-      <c r="D46">
+        <v>664.57600000000002</v>
+      </c>
+      <c r="F46">
+        <f>[5]Summary!I46*4096/100</f>
+        <v>1265.664</v>
+      </c>
+      <c r="G46">
+        <f>[6]Summary!I46*2048/100</f>
+        <v>688.12800000000004</v>
+      </c>
+      <c r="H46">
         <f>[7]Summary!I46*4096/100</f>
-        <v>1294.336</v>
-      </c>
-      <c r="E46">
-        <f>[3]Summary!I46*2048/100</f>
-        <v>664.57600000000002</v>
-      </c>
-      <c r="F46">
-        <f>[8]Summary!I46*4096/100</f>
-        <v>1265.664</v>
-      </c>
-      <c r="G46">
-        <f>[2]Summary!I46*2048/100</f>
-        <v>688.12800000000004</v>
-      </c>
-      <c r="H46">
-        <f>[5]Summary!I46*4096/100</f>
         <v>1259.52</v>
       </c>
       <c r="I46">
-        <f>[1]Summary!I46*2048/100</f>
+        <f>[8]Summary!I46*2048/100</f>
         <v>681.98399999999992</v>
       </c>
     </row>
@@ -11335,35 +11336,35 @@
         <v>180</v>
       </c>
       <c r="B47">
-        <f>[6]Summary!I47*4096/100</f>
+        <f>[1]Summary!I47*4096/100</f>
         <v>1028.096</v>
       </c>
       <c r="C47">
+        <f>[2]Summary!I47*2048/100</f>
+        <v>376.83199999999999</v>
+      </c>
+      <c r="D47">
+        <f>[3]Summary!I47*4096/100</f>
+        <v>1310.72</v>
+      </c>
+      <c r="E47">
         <f>[4]Summary!I47*2048/100</f>
-        <v>376.83199999999999</v>
-      </c>
-      <c r="D47">
+        <v>665.6</v>
+      </c>
+      <c r="F47">
+        <f>[5]Summary!I47*4096/100</f>
+        <v>1286.144</v>
+      </c>
+      <c r="G47">
+        <f>[6]Summary!I47*2048/100</f>
+        <v>692.22399999999993</v>
+      </c>
+      <c r="H47">
         <f>[7]Summary!I47*4096/100</f>
-        <v>1310.72</v>
-      </c>
-      <c r="E47">
-        <f>[3]Summary!I47*2048/100</f>
-        <v>665.6</v>
-      </c>
-      <c r="F47">
-        <f>[8]Summary!I47*4096/100</f>
-        <v>1286.144</v>
-      </c>
-      <c r="G47">
-        <f>[2]Summary!I47*2048/100</f>
-        <v>692.22399999999993</v>
-      </c>
-      <c r="H47">
-        <f>[5]Summary!I47*4096/100</f>
         <v>1280</v>
       </c>
       <c r="I47">
-        <f>[1]Summary!I47*2048/100</f>
+        <f>[8]Summary!I47*2048/100</f>
         <v>688.12800000000004</v>
       </c>
     </row>
@@ -11372,35 +11373,35 @@
         <v>184</v>
       </c>
       <c r="B48">
-        <f>[6]Summary!I48*4096/100</f>
+        <f>[1]Summary!I48*4096/100</f>
         <v>1032.192</v>
       </c>
       <c r="C48">
+        <f>[2]Summary!I48*2048/100</f>
+        <v>378.88</v>
+      </c>
+      <c r="D48">
+        <f>[3]Summary!I48*4096/100</f>
+        <v>1318.912</v>
+      </c>
+      <c r="E48">
         <f>[4]Summary!I48*2048/100</f>
-        <v>378.88</v>
-      </c>
-      <c r="D48">
+        <v>664.57600000000002</v>
+      </c>
+      <c r="F48">
+        <f>[5]Summary!I48*4096/100</f>
+        <v>1298.432</v>
+      </c>
+      <c r="G48">
+        <f>[6]Summary!I48*2048/100</f>
+        <v>694.27199999999993</v>
+      </c>
+      <c r="H48">
         <f>[7]Summary!I48*4096/100</f>
-        <v>1318.912</v>
-      </c>
-      <c r="E48">
-        <f>[3]Summary!I48*2048/100</f>
-        <v>664.57600000000002</v>
-      </c>
-      <c r="F48">
-        <f>[8]Summary!I48*4096/100</f>
-        <v>1298.432</v>
-      </c>
-      <c r="G48">
-        <f>[2]Summary!I48*2048/100</f>
-        <v>694.27199999999993</v>
-      </c>
-      <c r="H48">
-        <f>[5]Summary!I48*4096/100</f>
         <v>1290.24</v>
       </c>
       <c r="I48">
-        <f>[1]Summary!I48*2048/100</f>
+        <f>[8]Summary!I48*2048/100</f>
         <v>689.15200000000016</v>
       </c>
     </row>
@@ -11409,35 +11410,35 @@
         <v>188</v>
       </c>
       <c r="B49">
-        <f>[6]Summary!I49*4096/100</f>
+        <f>[1]Summary!I49*4096/100</f>
         <v>1040.384</v>
       </c>
       <c r="C49">
+        <f>[2]Summary!I49*2048/100</f>
+        <v>380.92800000000005</v>
+      </c>
+      <c r="D49">
+        <f>[3]Summary!I49*4096/100</f>
+        <v>1335.296</v>
+      </c>
+      <c r="E49">
         <f>[4]Summary!I49*2048/100</f>
-        <v>380.92800000000005</v>
-      </c>
-      <c r="D49">
+        <v>665.6</v>
+      </c>
+      <c r="F49">
+        <f>[5]Summary!I49*4096/100</f>
+        <v>1302.528</v>
+      </c>
+      <c r="G49">
+        <f>[6]Summary!I49*2048/100</f>
+        <v>694.27199999999993</v>
+      </c>
+      <c r="H49">
         <f>[7]Summary!I49*4096/100</f>
-        <v>1335.296</v>
-      </c>
-      <c r="E49">
-        <f>[3]Summary!I49*2048/100</f>
-        <v>665.6</v>
-      </c>
-      <c r="F49">
-        <f>[8]Summary!I49*4096/100</f>
-        <v>1302.528</v>
-      </c>
-      <c r="G49">
-        <f>[2]Summary!I49*2048/100</f>
-        <v>694.27199999999993</v>
-      </c>
-      <c r="H49">
-        <f>[5]Summary!I49*4096/100</f>
         <v>1298.432</v>
       </c>
       <c r="I49">
-        <f>[1]Summary!I49*2048/100</f>
+        <f>[8]Summary!I49*2048/100</f>
         <v>692.22399999999993</v>
       </c>
     </row>
@@ -11446,35 +11447,35 @@
         <v>192</v>
       </c>
       <c r="B50">
-        <f>[6]Summary!I50*4096/100</f>
+        <f>[1]Summary!I50*4096/100</f>
         <v>1044.48</v>
       </c>
       <c r="C50">
+        <f>[2]Summary!I50*2048/100</f>
+        <v>382.976</v>
+      </c>
+      <c r="D50">
+        <f>[3]Summary!I50*4096/100</f>
+        <v>1343.4879999999998</v>
+      </c>
+      <c r="E50">
         <f>[4]Summary!I50*2048/100</f>
-        <v>382.976</v>
-      </c>
-      <c r="D50">
+        <v>664.57600000000002</v>
+      </c>
+      <c r="F50">
+        <f>[5]Summary!I50*4096/100</f>
+        <v>1314.816</v>
+      </c>
+      <c r="G50">
+        <f>[6]Summary!I50*2048/100</f>
+        <v>698.36800000000005</v>
+      </c>
+      <c r="H50">
         <f>[7]Summary!I50*4096/100</f>
-        <v>1343.4879999999998</v>
-      </c>
-      <c r="E50">
-        <f>[3]Summary!I50*2048/100</f>
-        <v>664.57600000000002</v>
-      </c>
-      <c r="F50">
-        <f>[8]Summary!I50*4096/100</f>
-        <v>1314.816</v>
-      </c>
-      <c r="G50">
-        <f>[2]Summary!I50*2048/100</f>
-        <v>698.36800000000005</v>
-      </c>
-      <c r="H50">
-        <f>[5]Summary!I50*4096/100</f>
         <v>1310.72</v>
       </c>
       <c r="I50">
-        <f>[1]Summary!I50*2048/100</f>
+        <f>[8]Summary!I50*2048/100</f>
         <v>691.2</v>
       </c>
     </row>
@@ -11483,35 +11484,35 @@
         <v>196</v>
       </c>
       <c r="B51">
-        <f>[6]Summary!I51*4096/100</f>
+        <f>[1]Summary!I51*4096/100</f>
         <v>1048.576</v>
       </c>
       <c r="C51">
+        <f>[2]Summary!I51*2048/100</f>
+        <v>382.976</v>
+      </c>
+      <c r="D51">
+        <f>[3]Summary!I51*4096/100</f>
+        <v>1343.4879999999998</v>
+      </c>
+      <c r="E51">
         <f>[4]Summary!I51*2048/100</f>
-        <v>382.976</v>
-      </c>
-      <c r="D51">
+        <v>665.6</v>
+      </c>
+      <c r="F51">
+        <f>[5]Summary!I51*4096/100</f>
+        <v>1318.912</v>
+      </c>
+      <c r="G51">
+        <f>[6]Summary!I51*2048/100</f>
+        <v>704.51199999999994</v>
+      </c>
+      <c r="H51">
         <f>[7]Summary!I51*4096/100</f>
-        <v>1343.4879999999998</v>
-      </c>
-      <c r="E51">
-        <f>[3]Summary!I51*2048/100</f>
-        <v>665.6</v>
-      </c>
-      <c r="F51">
-        <f>[8]Summary!I51*4096/100</f>
-        <v>1318.912</v>
-      </c>
-      <c r="G51">
-        <f>[2]Summary!I51*2048/100</f>
-        <v>704.51199999999994</v>
-      </c>
-      <c r="H51">
-        <f>[5]Summary!I51*4096/100</f>
         <v>1312.7679999999998</v>
       </c>
       <c r="I51">
-        <f>[1]Summary!I51*2048/100</f>
+        <f>[8]Summary!I51*2048/100</f>
         <v>692.22399999999993</v>
       </c>
     </row>
@@ -11520,35 +11521,35 @@
         <v>200</v>
       </c>
       <c r="B52">
-        <f>[6]Summary!I52*4096/100</f>
+        <f>[1]Summary!I52*4096/100</f>
         <v>1064.96</v>
       </c>
       <c r="C52">
+        <f>[2]Summary!I52*2048/100</f>
+        <v>385.024</v>
+      </c>
+      <c r="D52">
+        <f>[3]Summary!I52*4096/100</f>
+        <v>1359.8720000000001</v>
+      </c>
+      <c r="E52">
         <f>[4]Summary!I52*2048/100</f>
-        <v>385.024</v>
-      </c>
-      <c r="D52">
+        <v>665.6</v>
+      </c>
+      <c r="F52">
+        <f>[5]Summary!I52*4096/100</f>
+        <v>1339.3920000000001</v>
+      </c>
+      <c r="G52">
+        <f>[6]Summary!I52*2048/100</f>
+        <v>706.56</v>
+      </c>
+      <c r="H52">
         <f>[7]Summary!I52*4096/100</f>
-        <v>1359.8720000000001</v>
-      </c>
-      <c r="E52">
-        <f>[3]Summary!I52*2048/100</f>
-        <v>665.6</v>
-      </c>
-      <c r="F52">
-        <f>[8]Summary!I52*4096/100</f>
-        <v>1339.3920000000001</v>
-      </c>
-      <c r="G52">
-        <f>[2]Summary!I52*2048/100</f>
-        <v>706.56</v>
-      </c>
-      <c r="H52">
-        <f>[5]Summary!I52*4096/100</f>
         <v>1331.2</v>
       </c>
       <c r="I52">
-        <f>[1]Summary!I52*2048/100</f>
+        <f>[8]Summary!I52*2048/100</f>
         <v>694.27199999999993</v>
       </c>
     </row>
@@ -11557,35 +11558,35 @@
         <v>204</v>
       </c>
       <c r="B53">
-        <f>[6]Summary!I53*4096/100</f>
+        <f>[1]Summary!I53*4096/100</f>
         <v>1064.96</v>
       </c>
       <c r="C53">
+        <f>[2]Summary!I53*2048/100</f>
+        <v>385.024</v>
+      </c>
+      <c r="D53">
+        <f>[3]Summary!I53*4096/100</f>
+        <v>1359.8720000000001</v>
+      </c>
+      <c r="E53">
         <f>[4]Summary!I53*2048/100</f>
-        <v>385.024</v>
-      </c>
-      <c r="D53">
+        <v>665.6</v>
+      </c>
+      <c r="F53">
+        <f>[5]Summary!I53*4096/100</f>
+        <v>1339.3920000000001</v>
+      </c>
+      <c r="G53">
+        <f>[6]Summary!I53*2048/100</f>
+        <v>714.75199999999995</v>
+      </c>
+      <c r="H53">
         <f>[7]Summary!I53*4096/100</f>
-        <v>1359.8720000000001</v>
-      </c>
-      <c r="E53">
-        <f>[3]Summary!I53*2048/100</f>
-        <v>665.6</v>
-      </c>
-      <c r="F53">
-        <f>[8]Summary!I53*4096/100</f>
-        <v>1339.3920000000001</v>
-      </c>
-      <c r="G53">
-        <f>[2]Summary!I53*2048/100</f>
-        <v>714.75199999999995</v>
-      </c>
-      <c r="H53">
-        <f>[5]Summary!I53*4096/100</f>
         <v>1333.2479999999998</v>
       </c>
       <c r="I53">
-        <f>[1]Summary!I53*2048/100</f>
+        <f>[8]Summary!I53*2048/100</f>
         <v>695.29600000000005</v>
       </c>
     </row>
@@ -11594,35 +11595,35 @@
         <v>208</v>
       </c>
       <c r="B54">
-        <f>[6]Summary!I54*4096/100</f>
+        <f>[1]Summary!I54*4096/100</f>
         <v>1064.96</v>
       </c>
       <c r="C54">
+        <f>[2]Summary!I54*2048/100</f>
+        <v>385.024</v>
+      </c>
+      <c r="D54">
+        <f>[3]Summary!I54*4096/100</f>
+        <v>1370.1120000000001</v>
+      </c>
+      <c r="E54">
         <f>[4]Summary!I54*2048/100</f>
-        <v>385.024</v>
-      </c>
-      <c r="D54">
-        <f>[7]Summary!I54*4096/100</f>
-        <v>1370.1120000000001</v>
-      </c>
-      <c r="E54">
-        <f>[3]Summary!I54*2048/100</f>
         <v>666.62399999999991</v>
       </c>
       <c r="F54">
-        <f>[8]Summary!I54*4096/100</f>
-        <v>1339.3920000000001</v>
-      </c>
-      <c r="G54">
-        <f>[2]Summary!I54*2048/100</f>
-        <v>718.84800000000007</v>
-      </c>
-      <c r="H54">
         <f>[5]Summary!I54*4096/100</f>
         <v>1339.3920000000001</v>
       </c>
+      <c r="G54">
+        <f>[6]Summary!I54*2048/100</f>
+        <v>718.84800000000007</v>
+      </c>
+      <c r="H54">
+        <f>[7]Summary!I54*4096/100</f>
+        <v>1339.3920000000001</v>
+      </c>
       <c r="I54">
-        <f>[1]Summary!I54*2048/100</f>
+        <f>[8]Summary!I54*2048/100</f>
         <v>695.29600000000005</v>
       </c>
     </row>
@@ -11631,35 +11632,35 @@
         <v>212</v>
       </c>
       <c r="B55">
-        <f>[6]Summary!I55*4096/100</f>
+        <f>[1]Summary!I55*4096/100</f>
         <v>1064.96</v>
       </c>
       <c r="C55">
+        <f>[2]Summary!I55*2048/100</f>
+        <v>385.024</v>
+      </c>
+      <c r="D55">
+        <f>[3]Summary!I55*4096/100</f>
+        <v>1378.3040000000003</v>
+      </c>
+      <c r="E55">
         <f>[4]Summary!I55*2048/100</f>
-        <v>385.024</v>
-      </c>
-      <c r="D55">
+        <v>665.6</v>
+      </c>
+      <c r="F55">
+        <f>[5]Summary!I55*4096/100</f>
+        <v>1355.7760000000001</v>
+      </c>
+      <c r="G55">
+        <f>[6]Summary!I55*2048/100</f>
+        <v>722.94399999999996</v>
+      </c>
+      <c r="H55">
         <f>[7]Summary!I55*4096/100</f>
-        <v>1378.3040000000003</v>
-      </c>
-      <c r="E55">
-        <f>[3]Summary!I55*2048/100</f>
-        <v>665.6</v>
-      </c>
-      <c r="F55">
-        <f>[8]Summary!I55*4096/100</f>
-        <v>1355.7760000000001</v>
-      </c>
-      <c r="G55">
-        <f>[2]Summary!I55*2048/100</f>
-        <v>722.94399999999996</v>
-      </c>
-      <c r="H55">
-        <f>[5]Summary!I55*4096/100</f>
         <v>1349.6320000000001</v>
       </c>
       <c r="I55">
-        <f>[1]Summary!I55*2048/100</f>
+        <f>[8]Summary!I55*2048/100</f>
         <v>699.39200000000017</v>
       </c>
     </row>
@@ -11668,35 +11669,35 @@
         <v>216</v>
       </c>
       <c r="B56">
-        <f>[6]Summary!I56*4096/100</f>
+        <f>[1]Summary!I56*4096/100</f>
         <v>1064.96</v>
       </c>
       <c r="C56">
+        <f>[2]Summary!I56*2048/100</f>
+        <v>385.024</v>
+      </c>
+      <c r="D56">
+        <f>[3]Summary!I56*4096/100</f>
+        <v>1378.3040000000003</v>
+      </c>
+      <c r="E56">
         <f>[4]Summary!I56*2048/100</f>
-        <v>385.024</v>
-      </c>
-      <c r="D56">
+        <v>665.6</v>
+      </c>
+      <c r="F56">
+        <f>[5]Summary!I56*4096/100</f>
+        <v>1355.7760000000001</v>
+      </c>
+      <c r="G56">
+        <f>[6]Summary!I56*2048/100</f>
+        <v>722.94399999999996</v>
+      </c>
+      <c r="H56">
         <f>[7]Summary!I56*4096/100</f>
-        <v>1378.3040000000003</v>
-      </c>
-      <c r="E56">
-        <f>[3]Summary!I56*2048/100</f>
-        <v>665.6</v>
-      </c>
-      <c r="F56">
-        <f>[8]Summary!I56*4096/100</f>
-        <v>1355.7760000000001</v>
-      </c>
-      <c r="G56">
-        <f>[2]Summary!I56*2048/100</f>
-        <v>722.94399999999996</v>
-      </c>
-      <c r="H56">
-        <f>[5]Summary!I56*4096/100</f>
         <v>1349.6320000000001</v>
       </c>
       <c r="I56">
-        <f>[1]Summary!I56*2048/100</f>
+        <f>[8]Summary!I56*2048/100</f>
         <v>709.63199999999995</v>
       </c>
     </row>
@@ -11705,35 +11706,35 @@
         <v>220</v>
       </c>
       <c r="B57">
-        <f>[6]Summary!I57*4096/100</f>
+        <f>[1]Summary!I57*4096/100</f>
         <v>1064.96</v>
       </c>
       <c r="C57">
+        <f>[2]Summary!I57*2048/100</f>
+        <v>385.024</v>
+      </c>
+      <c r="D57">
+        <f>[3]Summary!I57*4096/100</f>
+        <v>1394.6879999999999</v>
+      </c>
+      <c r="E57">
         <f>[4]Summary!I57*2048/100</f>
-        <v>385.024</v>
-      </c>
-      <c r="D57">
+        <v>666.62399999999991</v>
+      </c>
+      <c r="F57">
+        <f>[5]Summary!I57*4096/100</f>
+        <v>1368.0639999999999</v>
+      </c>
+      <c r="G57">
+        <f>[6]Summary!I57*2048/100</f>
+        <v>724.99199999999996</v>
+      </c>
+      <c r="H57">
         <f>[7]Summary!I57*4096/100</f>
-        <v>1394.6879999999999</v>
-      </c>
-      <c r="E57">
-        <f>[3]Summary!I57*2048/100</f>
-        <v>666.62399999999991</v>
-      </c>
-      <c r="F57">
-        <f>[8]Summary!I57*4096/100</f>
-        <v>1368.0639999999999</v>
-      </c>
-      <c r="G57">
-        <f>[2]Summary!I57*2048/100</f>
-        <v>724.99199999999996</v>
-      </c>
-      <c r="H57">
-        <f>[5]Summary!I57*4096/100</f>
         <v>1363.9679999999998</v>
       </c>
       <c r="I57">
-        <f>[1]Summary!I57*2048/100</f>
+        <f>[8]Summary!I57*2048/100</f>
         <v>712.70399999999995</v>
       </c>
     </row>
@@ -11742,35 +11743,35 @@
         <v>224</v>
       </c>
       <c r="B58">
-        <f>[6]Summary!I58*4096/100</f>
+        <f>[1]Summary!I58*4096/100</f>
         <v>1064.96</v>
       </c>
       <c r="C58">
+        <f>[2]Summary!I58*2048/100</f>
+        <v>385.024</v>
+      </c>
+      <c r="D58">
+        <f>[3]Summary!I58*4096/100</f>
+        <v>1394.6879999999999</v>
+      </c>
+      <c r="E58">
         <f>[4]Summary!I58*2048/100</f>
-        <v>385.024</v>
-      </c>
-      <c r="D58">
+        <v>666.62399999999991</v>
+      </c>
+      <c r="F58">
+        <f>[5]Summary!I58*4096/100</f>
+        <v>1368.0639999999999</v>
+      </c>
+      <c r="G58">
+        <f>[6]Summary!I58*2048/100</f>
+        <v>724.99199999999996</v>
+      </c>
+      <c r="H58">
         <f>[7]Summary!I58*4096/100</f>
-        <v>1394.6879999999999</v>
-      </c>
-      <c r="E58">
-        <f>[3]Summary!I58*2048/100</f>
-        <v>666.62399999999991</v>
-      </c>
-      <c r="F58">
-        <f>[8]Summary!I58*4096/100</f>
-        <v>1368.0639999999999</v>
-      </c>
-      <c r="G58">
-        <f>[2]Summary!I58*2048/100</f>
-        <v>724.99199999999996</v>
-      </c>
-      <c r="H58">
-        <f>[5]Summary!I58*4096/100</f>
         <v>1363.9679999999998</v>
       </c>
       <c r="I58">
-        <f>[1]Summary!I58*2048/100</f>
+        <f>[8]Summary!I58*2048/100</f>
         <v>713.72799999999984</v>
       </c>
     </row>
@@ -11779,35 +11780,35 @@
         <v>228</v>
       </c>
       <c r="B59">
-        <f>[6]Summary!I59*4096/100</f>
+        <f>[1]Summary!I59*4096/100</f>
         <v>1073.152</v>
       </c>
       <c r="C59">
+        <f>[2]Summary!I59*2048/100</f>
+        <v>387.07199999999995</v>
+      </c>
+      <c r="D59">
+        <f>[3]Summary!I59*4096/100</f>
+        <v>1396.7360000000001</v>
+      </c>
+      <c r="E59">
         <f>[4]Summary!I59*2048/100</f>
-        <v>387.07199999999995</v>
-      </c>
-      <c r="D59">
-        <f>[7]Summary!I59*4096/100</f>
-        <v>1396.7360000000001</v>
-      </c>
-      <c r="E59">
-        <f>[3]Summary!I59*2048/100</f>
         <v>666.62399999999991</v>
       </c>
       <c r="F59">
-        <f>[8]Summary!I59*4096/100</f>
-        <v>1368.0639999999999</v>
-      </c>
-      <c r="G59">
-        <f>[2]Summary!I59*2048/100</f>
-        <v>724.99199999999996</v>
-      </c>
-      <c r="H59">
         <f>[5]Summary!I59*4096/100</f>
         <v>1368.0639999999999</v>
       </c>
+      <c r="G59">
+        <f>[6]Summary!I59*2048/100</f>
+        <v>724.99199999999996</v>
+      </c>
+      <c r="H59">
+        <f>[7]Summary!I59*4096/100</f>
+        <v>1368.0639999999999</v>
+      </c>
       <c r="I59">
-        <f>[1]Summary!I59*2048/100</f>
+        <f>[8]Summary!I59*2048/100</f>
         <v>714.75199999999995</v>
       </c>
     </row>
@@ -11816,35 +11817,35 @@
         <v>232</v>
       </c>
       <c r="B60">
-        <f>[6]Summary!I60*4096/100</f>
+        <f>[1]Summary!I60*4096/100</f>
         <v>1073.152</v>
       </c>
       <c r="C60">
+        <f>[2]Summary!I60*2048/100</f>
+        <v>387.07199999999995</v>
+      </c>
+      <c r="D60">
+        <f>[3]Summary!I60*4096/100</f>
+        <v>1409.0239999999999</v>
+      </c>
+      <c r="E60">
         <f>[4]Summary!I60*2048/100</f>
-        <v>387.07199999999995</v>
-      </c>
-      <c r="D60">
+        <v>665.6</v>
+      </c>
+      <c r="F60">
+        <f>[5]Summary!I60*4096/100</f>
+        <v>1384.4479999999999</v>
+      </c>
+      <c r="G60">
+        <f>[6]Summary!I60*2048/100</f>
+        <v>727.04</v>
+      </c>
+      <c r="H60">
         <f>[7]Summary!I60*4096/100</f>
-        <v>1409.0239999999999</v>
-      </c>
-      <c r="E60">
-        <f>[3]Summary!I60*2048/100</f>
-        <v>665.6</v>
-      </c>
-      <c r="F60">
-        <f>[8]Summary!I60*4096/100</f>
-        <v>1384.4479999999999</v>
-      </c>
-      <c r="G60">
-        <f>[2]Summary!I60*2048/100</f>
-        <v>727.04</v>
-      </c>
-      <c r="H60">
-        <f>[5]Summary!I60*4096/100</f>
         <v>1376.2560000000001</v>
       </c>
       <c r="I60">
-        <f>[1]Summary!I60*2048/100</f>
+        <f>[8]Summary!I60*2048/100</f>
         <v>714.75199999999995</v>
       </c>
     </row>
@@ -11853,35 +11854,35 @@
         <v>236</v>
       </c>
       <c r="B61">
-        <f>[6]Summary!I61*4096/100</f>
+        <f>[1]Summary!I61*4096/100</f>
         <v>1073.152</v>
       </c>
       <c r="C61">
+        <f>[2]Summary!I61*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D61">
+        <f>[3]Summary!I61*4096/100</f>
+        <v>1409.0239999999999</v>
+      </c>
+      <c r="E61">
         <f>[4]Summary!I61*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D61">
+        <v>666.62399999999991</v>
+      </c>
+      <c r="F61">
+        <f>[5]Summary!I61*4096/100</f>
+        <v>1384.4479999999999</v>
+      </c>
+      <c r="G61">
+        <f>[6]Summary!I61*2048/100</f>
+        <v>727.04</v>
+      </c>
+      <c r="H61">
         <f>[7]Summary!I61*4096/100</f>
-        <v>1409.0239999999999</v>
-      </c>
-      <c r="E61">
-        <f>[3]Summary!I61*2048/100</f>
-        <v>666.62399999999991</v>
-      </c>
-      <c r="F61">
-        <f>[8]Summary!I61*4096/100</f>
-        <v>1384.4479999999999</v>
-      </c>
-      <c r="G61">
-        <f>[2]Summary!I61*2048/100</f>
-        <v>727.04</v>
-      </c>
-      <c r="H61">
-        <f>[5]Summary!I61*4096/100</f>
         <v>1376.2560000000001</v>
       </c>
       <c r="I61">
-        <f>[1]Summary!I61*2048/100</f>
+        <f>[8]Summary!I61*2048/100</f>
         <v>716.8</v>
       </c>
     </row>
@@ -11890,35 +11891,35 @@
         <v>240</v>
       </c>
       <c r="B62">
-        <f>[6]Summary!I62*4096/100</f>
+        <f>[1]Summary!I62*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C62">
+        <f>[2]Summary!I62*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D62">
+        <f>[3]Summary!I62*4096/100</f>
+        <v>1425.4079999999999</v>
+      </c>
+      <c r="E62">
         <f>[4]Summary!I62*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D62">
+        <v>666.62399999999991</v>
+      </c>
+      <c r="F62">
+        <f>[5]Summary!I62*4096/100</f>
+        <v>1400.8320000000001</v>
+      </c>
+      <c r="G62">
+        <f>[6]Summary!I62*2048/100</f>
+        <v>729.08800000000008</v>
+      </c>
+      <c r="H62">
         <f>[7]Summary!I62*4096/100</f>
-        <v>1425.4079999999999</v>
-      </c>
-      <c r="E62">
-        <f>[3]Summary!I62*2048/100</f>
-        <v>666.62399999999991</v>
-      </c>
-      <c r="F62">
-        <f>[8]Summary!I62*4096/100</f>
-        <v>1400.8320000000001</v>
-      </c>
-      <c r="G62">
-        <f>[2]Summary!I62*2048/100</f>
-        <v>729.08800000000008</v>
-      </c>
-      <c r="H62">
-        <f>[5]Summary!I62*4096/100</f>
         <v>1388.5439999999999</v>
       </c>
       <c r="I62">
-        <f>[1]Summary!I62*2048/100</f>
+        <f>[8]Summary!I62*2048/100</f>
         <v>716.8</v>
       </c>
     </row>
@@ -11927,35 +11928,35 @@
         <v>244</v>
       </c>
       <c r="B63">
-        <f>[6]Summary!I63*4096/100</f>
+        <f>[1]Summary!I63*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C63">
+        <f>[2]Summary!I63*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D63">
+        <f>[3]Summary!I63*4096/100</f>
+        <v>1425.4079999999999</v>
+      </c>
+      <c r="E63">
         <f>[4]Summary!I63*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D63">
+        <v>664.57600000000002</v>
+      </c>
+      <c r="F63">
+        <f>[5]Summary!I63*4096/100</f>
+        <v>1400.8320000000001</v>
+      </c>
+      <c r="G63">
+        <f>[6]Summary!I63*2048/100</f>
+        <v>729.08800000000008</v>
+      </c>
+      <c r="H63">
         <f>[7]Summary!I63*4096/100</f>
-        <v>1425.4079999999999</v>
-      </c>
-      <c r="E63">
-        <f>[3]Summary!I63*2048/100</f>
-        <v>664.57600000000002</v>
-      </c>
-      <c r="F63">
-        <f>[8]Summary!I63*4096/100</f>
-        <v>1400.8320000000001</v>
-      </c>
-      <c r="G63">
-        <f>[2]Summary!I63*2048/100</f>
-        <v>729.08800000000008</v>
-      </c>
-      <c r="H63">
-        <f>[5]Summary!I63*4096/100</f>
         <v>1388.5439999999999</v>
       </c>
       <c r="I63">
-        <f>[1]Summary!I63*2048/100</f>
+        <f>[8]Summary!I63*2048/100</f>
         <v>716.8</v>
       </c>
     </row>
@@ -11964,35 +11965,35 @@
         <v>248</v>
       </c>
       <c r="B64">
-        <f>[6]Summary!I64*4096/100</f>
+        <f>[1]Summary!I64*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C64">
+        <f>[2]Summary!I64*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D64">
+        <f>[3]Summary!I64*4096/100</f>
+        <v>1425.4079999999999</v>
+      </c>
+      <c r="E64">
         <f>[4]Summary!I64*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D64">
+        <v>664.57600000000002</v>
+      </c>
+      <c r="F64">
+        <f>[5]Summary!I64*4096/100</f>
+        <v>1400.8320000000001</v>
+      </c>
+      <c r="G64">
+        <f>[6]Summary!I64*2048/100</f>
+        <v>729.08800000000008</v>
+      </c>
+      <c r="H64">
         <f>[7]Summary!I64*4096/100</f>
-        <v>1425.4079999999999</v>
-      </c>
-      <c r="E64">
-        <f>[3]Summary!I64*2048/100</f>
-        <v>664.57600000000002</v>
-      </c>
-      <c r="F64">
-        <f>[8]Summary!I64*4096/100</f>
-        <v>1400.8320000000001</v>
-      </c>
-      <c r="G64">
-        <f>[2]Summary!I64*2048/100</f>
-        <v>729.08800000000008</v>
-      </c>
-      <c r="H64">
-        <f>[5]Summary!I64*4096/100</f>
         <v>1392.64</v>
       </c>
       <c r="I64">
-        <f>[1]Summary!I64*2048/100</f>
+        <f>[8]Summary!I64*2048/100</f>
         <v>719.87200000000007</v>
       </c>
     </row>
@@ -12001,35 +12002,35 @@
         <v>252</v>
       </c>
       <c r="B65">
-        <f>[6]Summary!I65*4096/100</f>
+        <f>[1]Summary!I65*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C65">
+        <f>[2]Summary!I65*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D65">
+        <f>[3]Summary!I65*4096/100</f>
+        <v>1441.7920000000001</v>
+      </c>
+      <c r="E65">
         <f>[4]Summary!I65*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D65">
+        <v>663.55200000000002</v>
+      </c>
+      <c r="F65">
+        <f>[5]Summary!I65*4096/100</f>
+        <v>1413.12</v>
+      </c>
+      <c r="G65">
+        <f>[6]Summary!I65*2048/100</f>
+        <v>729.08800000000008</v>
+      </c>
+      <c r="H65">
         <f>[7]Summary!I65*4096/100</f>
-        <v>1441.7920000000001</v>
-      </c>
-      <c r="E65">
-        <f>[3]Summary!I65*2048/100</f>
-        <v>663.55200000000002</v>
-      </c>
-      <c r="F65">
-        <f>[8]Summary!I65*4096/100</f>
-        <v>1413.12</v>
-      </c>
-      <c r="G65">
-        <f>[2]Summary!I65*2048/100</f>
-        <v>729.08800000000008</v>
-      </c>
-      <c r="H65">
-        <f>[5]Summary!I65*4096/100</f>
         <v>1400.8320000000001</v>
       </c>
       <c r="I65">
-        <f>[1]Summary!I65*2048/100</f>
+        <f>[8]Summary!I65*2048/100</f>
         <v>719.87200000000007</v>
       </c>
     </row>
@@ -12038,35 +12039,35 @@
         <v>256</v>
       </c>
       <c r="B66">
-        <f>[6]Summary!I66*4096/100</f>
+        <f>[1]Summary!I66*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C66">
+        <f>[2]Summary!I66*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D66">
+        <f>[3]Summary!I66*4096/100</f>
+        <v>1441.7920000000001</v>
+      </c>
+      <c r="E66">
         <f>[4]Summary!I66*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D66">
+        <v>663.55200000000002</v>
+      </c>
+      <c r="F66">
+        <f>[5]Summary!I66*4096/100</f>
+        <v>1413.12</v>
+      </c>
+      <c r="G66">
+        <f>[6]Summary!I66*2048/100</f>
+        <v>731.13600000000008</v>
+      </c>
+      <c r="H66">
         <f>[7]Summary!I66*4096/100</f>
-        <v>1441.7920000000001</v>
-      </c>
-      <c r="E66">
-        <f>[3]Summary!I66*2048/100</f>
-        <v>663.55200000000002</v>
-      </c>
-      <c r="F66">
-        <f>[8]Summary!I66*4096/100</f>
-        <v>1413.12</v>
-      </c>
-      <c r="G66">
-        <f>[2]Summary!I66*2048/100</f>
-        <v>731.13600000000008</v>
-      </c>
-      <c r="H66">
-        <f>[5]Summary!I66*4096/100</f>
         <v>1400.8320000000001</v>
       </c>
       <c r="I66">
-        <f>[1]Summary!I66*2048/100</f>
+        <f>[8]Summary!I66*2048/100</f>
         <v>719.87200000000007</v>
       </c>
     </row>
@@ -12075,35 +12076,35 @@
         <v>260</v>
       </c>
       <c r="B67">
-        <f>[6]Summary!I67*4096/100</f>
+        <f>[1]Summary!I67*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C67">
+        <f>[2]Summary!I67*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D67">
+        <f>[3]Summary!I67*4096/100</f>
+        <v>1456.1279999999999</v>
+      </c>
+      <c r="E67">
         <f>[4]Summary!I67*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D67">
+        <v>663.55200000000002</v>
+      </c>
+      <c r="F67">
+        <f>[5]Summary!I67*4096/100</f>
+        <v>1425.4079999999999</v>
+      </c>
+      <c r="G67">
+        <f>[6]Summary!I67*2048/100</f>
+        <v>731.13600000000008</v>
+      </c>
+      <c r="H67">
         <f>[7]Summary!I67*4096/100</f>
-        <v>1456.1279999999999</v>
-      </c>
-      <c r="E67">
-        <f>[3]Summary!I67*2048/100</f>
-        <v>663.55200000000002</v>
-      </c>
-      <c r="F67">
-        <f>[8]Summary!I67*4096/100</f>
-        <v>1425.4079999999999</v>
-      </c>
-      <c r="G67">
-        <f>[2]Summary!I67*2048/100</f>
-        <v>731.13600000000008</v>
-      </c>
-      <c r="H67">
-        <f>[5]Summary!I67*4096/100</f>
         <v>1413.12</v>
       </c>
       <c r="I67">
-        <f>[1]Summary!I67*2048/100</f>
+        <f>[8]Summary!I67*2048/100</f>
         <v>720.89600000000007</v>
       </c>
     </row>
@@ -12112,35 +12113,35 @@
         <v>264</v>
       </c>
       <c r="B68">
-        <f>[6]Summary!I68*4096/100</f>
+        <f>[1]Summary!I68*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C68">
+        <f>[2]Summary!I68*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D68">
+        <f>[3]Summary!I68*4096/100</f>
+        <v>1456.1279999999999</v>
+      </c>
+      <c r="E68">
         <f>[4]Summary!I68*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D68">
+        <v>662.52799999999991</v>
+      </c>
+      <c r="F68">
+        <f>[5]Summary!I68*4096/100</f>
+        <v>1425.4079999999999</v>
+      </c>
+      <c r="G68">
+        <f>[6]Summary!I68*2048/100</f>
+        <v>731.13600000000008</v>
+      </c>
+      <c r="H68">
         <f>[7]Summary!I68*4096/100</f>
-        <v>1456.1279999999999</v>
-      </c>
-      <c r="E68">
-        <f>[3]Summary!I68*2048/100</f>
-        <v>662.52799999999991</v>
-      </c>
-      <c r="F68">
-        <f>[8]Summary!I68*4096/100</f>
-        <v>1425.4079999999999</v>
-      </c>
-      <c r="G68">
-        <f>[2]Summary!I68*2048/100</f>
-        <v>731.13600000000008</v>
-      </c>
-      <c r="H68">
-        <f>[5]Summary!I68*4096/100</f>
         <v>1413.12</v>
       </c>
       <c r="I68">
-        <f>[1]Summary!I68*2048/100</f>
+        <f>[8]Summary!I68*2048/100</f>
         <v>721.92</v>
       </c>
     </row>
@@ -12149,35 +12150,35 @@
         <v>268</v>
       </c>
       <c r="B69">
-        <f>[6]Summary!I69*4096/100</f>
+        <f>[1]Summary!I69*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C69">
+        <f>[2]Summary!I69*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D69">
+        <f>[3]Summary!I69*4096/100</f>
+        <v>1456.1279999999999</v>
+      </c>
+      <c r="E69">
         <f>[4]Summary!I69*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D69">
+        <v>663.55200000000002</v>
+      </c>
+      <c r="F69">
+        <f>[5]Summary!I69*4096/100</f>
+        <v>1425.4079999999999</v>
+      </c>
+      <c r="G69">
+        <f>[6]Summary!I69*2048/100</f>
+        <v>731.13600000000008</v>
+      </c>
+      <c r="H69">
         <f>[7]Summary!I69*4096/100</f>
-        <v>1456.1279999999999</v>
-      </c>
-      <c r="E69">
-        <f>[3]Summary!I69*2048/100</f>
-        <v>663.55200000000002</v>
-      </c>
-      <c r="F69">
-        <f>[8]Summary!I69*4096/100</f>
-        <v>1425.4079999999999</v>
-      </c>
-      <c r="G69">
-        <f>[2]Summary!I69*2048/100</f>
-        <v>731.13600000000008</v>
-      </c>
-      <c r="H69">
-        <f>[5]Summary!I69*4096/100</f>
         <v>1413.12</v>
       </c>
       <c r="I69">
-        <f>[1]Summary!I69*2048/100</f>
+        <f>[8]Summary!I69*2048/100</f>
         <v>722.94399999999996</v>
       </c>
     </row>
@@ -12186,35 +12187,35 @@
         <v>272</v>
       </c>
       <c r="B70">
-        <f>[6]Summary!I70*4096/100</f>
+        <f>[1]Summary!I70*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C70">
+        <f>[2]Summary!I70*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D70">
+        <f>[3]Summary!I70*4096/100</f>
+        <v>1470.4639999999999</v>
+      </c>
+      <c r="E70">
         <f>[4]Summary!I70*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D70">
+        <v>662.52799999999991</v>
+      </c>
+      <c r="F70">
+        <f>[5]Summary!I70*4096/100</f>
+        <v>1441.7920000000001</v>
+      </c>
+      <c r="G70">
+        <f>[6]Summary!I70*2048/100</f>
+        <v>733.18399999999997</v>
+      </c>
+      <c r="H70">
         <f>[7]Summary!I70*4096/100</f>
-        <v>1470.4639999999999</v>
-      </c>
-      <c r="E70">
-        <f>[3]Summary!I70*2048/100</f>
-        <v>662.52799999999991</v>
-      </c>
-      <c r="F70">
-        <f>[8]Summary!I70*4096/100</f>
-        <v>1441.7920000000001</v>
-      </c>
-      <c r="G70">
-        <f>[2]Summary!I70*2048/100</f>
-        <v>733.18399999999997</v>
-      </c>
-      <c r="H70">
-        <f>[5]Summary!I70*4096/100</f>
         <v>1425.4079999999999</v>
       </c>
       <c r="I70">
-        <f>[1]Summary!I70*2048/100</f>
+        <f>[8]Summary!I70*2048/100</f>
         <v>724.99199999999996</v>
       </c>
     </row>
@@ -12223,35 +12224,35 @@
         <v>276</v>
       </c>
       <c r="B71">
-        <f>[6]Summary!I71*4096/100</f>
+        <f>[1]Summary!I71*4096/100</f>
         <v>1081.3440000000001</v>
       </c>
       <c r="C71">
+        <f>[2]Summary!I71*2048/100</f>
+        <v>391.16800000000001</v>
+      </c>
+      <c r="D71">
+        <f>[3]Summary!I71*4096/100</f>
+        <v>1470.4639999999999</v>
+      </c>
+      <c r="E71">
         <f>[4]Summary!I71*2048/100</f>
-        <v>391.16800000000001</v>
-      </c>
-      <c r="D71">
+        <v>663.55200000000002</v>
+      </c>
+      <c r="F71">
+        <f>[5]Summary!I71*4096/100</f>
+        <v>1441.7920000000001</v>
+      </c>
+      <c r="G71">
+        <f>[6]Summary!I71*2048/100</f>
+        <v>733.18399999999997</v>
+      </c>
+      <c r="H71">
         <f>[7]Summary!I71*4096/100</f>
-        <v>1470.4639999999999</v>
-      </c>
-      <c r="E71">
-        <f>[3]Summary!I71*2048/100</f>
-        <v>663.55200000000002</v>
-      </c>
-      <c r="F71">
-        <f>[8]Summary!I71*4096/100</f>
-        <v>1441.7920000000001</v>
-      </c>
-      <c r="G71">
-        <f>[2]Summary!I71*2048/100</f>
-        <v>733.18399999999997</v>
-      </c>
-      <c r="H71">
-        <f>[5]Summary!I71*4096/100</f>
         <v>1425.4079999999999</v>
       </c>
       <c r="I71">
-        <f>[1]Summary!I71*2048/100</f>
+        <f>[8]Summary!I71*2048/100</f>
         <v>724.99199999999996</v>
       </c>
     </row>
@@ -12260,35 +12261,35 @@
         <v>280</v>
       </c>
       <c r="B72">
-        <f>[6]Summary!I72*4096/100</f>
+        <f>[1]Summary!I72*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C72">
+        <f>[2]Summary!I72*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D72">
+        <f>[3]Summary!I72*4096/100</f>
+        <v>1478.6559999999999</v>
+      </c>
+      <c r="E72">
         <f>[4]Summary!I72*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D72">
+        <v>664.57600000000002</v>
+      </c>
+      <c r="F72">
+        <f>[5]Summary!I72*4096/100</f>
+        <v>1454.08</v>
+      </c>
+      <c r="G72">
+        <f>[6]Summary!I72*2048/100</f>
+        <v>733.18399999999997</v>
+      </c>
+      <c r="H72">
         <f>[7]Summary!I72*4096/100</f>
-        <v>1478.6559999999999</v>
-      </c>
-      <c r="E72">
-        <f>[3]Summary!I72*2048/100</f>
-        <v>664.57600000000002</v>
-      </c>
-      <c r="F72">
-        <f>[8]Summary!I72*4096/100</f>
-        <v>1454.08</v>
-      </c>
-      <c r="G72">
-        <f>[2]Summary!I72*2048/100</f>
-        <v>733.18399999999997</v>
-      </c>
-      <c r="H72">
-        <f>[5]Summary!I72*4096/100</f>
         <v>1437.6960000000001</v>
       </c>
       <c r="I72">
-        <f>[1]Summary!I72*2048/100</f>
+        <f>[8]Summary!I72*2048/100</f>
         <v>724.99199999999996</v>
       </c>
     </row>
@@ -12297,35 +12298,35 @@
         <v>284</v>
       </c>
       <c r="B73">
-        <f>[6]Summary!I73*4096/100</f>
+        <f>[1]Summary!I73*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C73">
+        <f>[2]Summary!I73*2048/100</f>
+        <v>391.16800000000001</v>
+      </c>
+      <c r="D73">
+        <f>[3]Summary!I73*4096/100</f>
+        <v>1478.6559999999999</v>
+      </c>
+      <c r="E73">
         <f>[4]Summary!I73*2048/100</f>
-        <v>391.16800000000001</v>
-      </c>
-      <c r="D73">
+        <v>664.57600000000002</v>
+      </c>
+      <c r="F73">
+        <f>[5]Summary!I73*4096/100</f>
+        <v>1454.08</v>
+      </c>
+      <c r="G73">
+        <f>[6]Summary!I73*2048/100</f>
+        <v>733.18399999999997</v>
+      </c>
+      <c r="H73">
         <f>[7]Summary!I73*4096/100</f>
-        <v>1478.6559999999999</v>
-      </c>
-      <c r="E73">
-        <f>[3]Summary!I73*2048/100</f>
-        <v>664.57600000000002</v>
-      </c>
-      <c r="F73">
-        <f>[8]Summary!I73*4096/100</f>
-        <v>1454.08</v>
-      </c>
-      <c r="G73">
-        <f>[2]Summary!I73*2048/100</f>
-        <v>733.18399999999997</v>
-      </c>
-      <c r="H73">
-        <f>[5]Summary!I73*4096/100</f>
         <v>1437.6960000000001</v>
       </c>
       <c r="I73">
-        <f>[1]Summary!I73*2048/100</f>
+        <f>[8]Summary!I73*2048/100</f>
         <v>724.99199999999996</v>
       </c>
     </row>
@@ -12334,35 +12335,35 @@
         <v>288</v>
       </c>
       <c r="B74">
-        <f>[6]Summary!I74*4096/100</f>
+        <f>[1]Summary!I74*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C74">
+        <f>[2]Summary!I74*2048/100</f>
+        <v>391.16800000000001</v>
+      </c>
+      <c r="D74">
+        <f>[3]Summary!I74*4096/100</f>
+        <v>1478.6559999999999</v>
+      </c>
+      <c r="E74">
         <f>[4]Summary!I74*2048/100</f>
-        <v>391.16800000000001</v>
-      </c>
-      <c r="D74">
+        <v>673.79199999999992</v>
+      </c>
+      <c r="F74">
+        <f>[5]Summary!I74*4096/100</f>
+        <v>1454.08</v>
+      </c>
+      <c r="G74">
+        <f>[6]Summary!I74*2048/100</f>
+        <v>733.18399999999997</v>
+      </c>
+      <c r="H74">
         <f>[7]Summary!I74*4096/100</f>
-        <v>1478.6559999999999</v>
-      </c>
-      <c r="E74">
-        <f>[3]Summary!I74*2048/100</f>
-        <v>673.79199999999992</v>
-      </c>
-      <c r="F74">
-        <f>[8]Summary!I74*4096/100</f>
-        <v>1454.08</v>
-      </c>
-      <c r="G74">
-        <f>[2]Summary!I74*2048/100</f>
-        <v>733.18399999999997</v>
-      </c>
-      <c r="H74">
-        <f>[5]Summary!I74*4096/100</f>
         <v>1437.6960000000001</v>
       </c>
       <c r="I74">
-        <f>[1]Summary!I74*2048/100</f>
+        <f>[8]Summary!I74*2048/100</f>
         <v>727.04</v>
       </c>
     </row>
@@ -12371,35 +12372,35 @@
         <v>292</v>
       </c>
       <c r="B75">
-        <f>[6]Summary!I75*4096/100</f>
+        <f>[1]Summary!I75*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C75">
+        <f>[2]Summary!I75*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D75">
+        <f>[3]Summary!I75*4096/100</f>
+        <v>1488.8959999999997</v>
+      </c>
+      <c r="E75">
         <f>[4]Summary!I75*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D75">
+        <v>675.84</v>
+      </c>
+      <c r="F75">
+        <f>[5]Summary!I75*4096/100</f>
+        <v>1470.4639999999999</v>
+      </c>
+      <c r="G75">
+        <f>[6]Summary!I75*2048/100</f>
+        <v>735.23199999999997</v>
+      </c>
+      <c r="H75">
         <f>[7]Summary!I75*4096/100</f>
-        <v>1488.8959999999997</v>
-      </c>
-      <c r="E75">
-        <f>[3]Summary!I75*2048/100</f>
-        <v>675.84</v>
-      </c>
-      <c r="F75">
-        <f>[8]Summary!I75*4096/100</f>
-        <v>1470.4639999999999</v>
-      </c>
-      <c r="G75">
-        <f>[2]Summary!I75*2048/100</f>
-        <v>735.23199999999997</v>
-      </c>
-      <c r="H75">
-        <f>[5]Summary!I75*4096/100</f>
         <v>1452.0320000000002</v>
       </c>
       <c r="I75">
-        <f>[1]Summary!I75*2048/100</f>
+        <f>[8]Summary!I75*2048/100</f>
         <v>729.08800000000008</v>
       </c>
     </row>
@@ -12408,35 +12409,35 @@
         <v>296</v>
       </c>
       <c r="B76">
-        <f>[6]Summary!I76*4096/100</f>
+        <f>[1]Summary!I76*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C76">
+        <f>[2]Summary!I76*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D76">
+        <f>[3]Summary!I76*4096/100</f>
+        <v>1488.8959999999997</v>
+      </c>
+      <c r="E76">
         <f>[4]Summary!I76*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D76">
+        <v>675.84</v>
+      </c>
+      <c r="F76">
+        <f>[5]Summary!I76*4096/100</f>
+        <v>1470.4639999999999</v>
+      </c>
+      <c r="G76">
+        <f>[6]Summary!I76*2048/100</f>
+        <v>735.23199999999997</v>
+      </c>
+      <c r="H76">
         <f>[7]Summary!I76*4096/100</f>
-        <v>1488.8959999999997</v>
-      </c>
-      <c r="E76">
-        <f>[3]Summary!I76*2048/100</f>
-        <v>675.84</v>
-      </c>
-      <c r="F76">
-        <f>[8]Summary!I76*4096/100</f>
-        <v>1470.4639999999999</v>
-      </c>
-      <c r="G76">
-        <f>[2]Summary!I76*2048/100</f>
-        <v>735.23199999999997</v>
-      </c>
-      <c r="H76">
-        <f>[5]Summary!I76*4096/100</f>
         <v>1452.0320000000002</v>
       </c>
       <c r="I76">
-        <f>[1]Summary!I76*2048/100</f>
+        <f>[8]Summary!I76*2048/100</f>
         <v>729.08800000000008</v>
       </c>
     </row>
@@ -12445,35 +12446,35 @@
         <v>300</v>
       </c>
       <c r="B77">
-        <f>[6]Summary!I77*4096/100</f>
+        <f>[1]Summary!I77*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C77">
+        <f>[2]Summary!I77*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D77">
+        <f>[3]Summary!I77*4096/100</f>
+        <v>1495.04</v>
+      </c>
+      <c r="E77">
         <f>[4]Summary!I77*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D77">
+        <v>675.84</v>
+      </c>
+      <c r="F77">
+        <f>[5]Summary!I77*4096/100</f>
+        <v>1478.6559999999999</v>
+      </c>
+      <c r="G77">
+        <f>[6]Summary!I77*2048/100</f>
+        <v>735.23199999999997</v>
+      </c>
+      <c r="H77">
         <f>[7]Summary!I77*4096/100</f>
-        <v>1495.04</v>
-      </c>
-      <c r="E77">
-        <f>[3]Summary!I77*2048/100</f>
-        <v>675.84</v>
-      </c>
-      <c r="F77">
-        <f>[8]Summary!I77*4096/100</f>
-        <v>1478.6559999999999</v>
-      </c>
-      <c r="G77">
-        <f>[2]Summary!I77*2048/100</f>
-        <v>735.23199999999997</v>
-      </c>
-      <c r="H77">
-        <f>[5]Summary!I77*4096/100</f>
         <v>1466.3679999999999</v>
       </c>
       <c r="I77">
-        <f>[1]Summary!I77*2048/100</f>
+        <f>[8]Summary!I77*2048/100</f>
         <v>730.11200000000008</v>
       </c>
     </row>
@@ -12482,35 +12483,35 @@
         <v>304</v>
       </c>
       <c r="B78">
-        <f>[6]Summary!I78*4096/100</f>
+        <f>[1]Summary!I78*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C78">
+        <f>[2]Summary!I78*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D78">
+        <f>[3]Summary!I78*4096/100</f>
+        <v>1495.04</v>
+      </c>
+      <c r="E78">
         <f>[4]Summary!I78*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D78">
+        <v>675.84</v>
+      </c>
+      <c r="F78">
+        <f>[5]Summary!I78*4096/100</f>
+        <v>1478.6559999999999</v>
+      </c>
+      <c r="G78">
+        <f>[6]Summary!I78*2048/100</f>
+        <v>735.23199999999997</v>
+      </c>
+      <c r="H78">
         <f>[7]Summary!I78*4096/100</f>
-        <v>1495.04</v>
-      </c>
-      <c r="E78">
-        <f>[3]Summary!I78*2048/100</f>
-        <v>675.84</v>
-      </c>
-      <c r="F78">
-        <f>[8]Summary!I78*4096/100</f>
-        <v>1478.6559999999999</v>
-      </c>
-      <c r="G78">
-        <f>[2]Summary!I78*2048/100</f>
-        <v>735.23199999999997</v>
-      </c>
-      <c r="H78">
-        <f>[5]Summary!I78*4096/100</f>
         <v>1466.3679999999999</v>
       </c>
       <c r="I78">
-        <f>[1]Summary!I78*2048/100</f>
+        <f>[8]Summary!I78*2048/100</f>
         <v>730.11200000000008</v>
       </c>
     </row>
@@ -12519,35 +12520,35 @@
         <v>308</v>
       </c>
       <c r="B79">
-        <f>[6]Summary!I79*4096/100</f>
+        <f>[1]Summary!I79*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C79">
+        <f>[2]Summary!I79*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D79">
+        <f>[3]Summary!I79*4096/100</f>
+        <v>1495.04</v>
+      </c>
+      <c r="E79">
         <f>[4]Summary!I79*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D79">
+        <v>676.86399999999992</v>
+      </c>
+      <c r="F79">
+        <f>[5]Summary!I79*4096/100</f>
+        <v>1478.6559999999999</v>
+      </c>
+      <c r="G79">
+        <f>[6]Summary!I79*2048/100</f>
+        <v>735.23199999999997</v>
+      </c>
+      <c r="H79">
         <f>[7]Summary!I79*4096/100</f>
-        <v>1495.04</v>
-      </c>
-      <c r="E79">
-        <f>[3]Summary!I79*2048/100</f>
-        <v>676.86399999999992</v>
-      </c>
-      <c r="F79">
-        <f>[8]Summary!I79*4096/100</f>
-        <v>1478.6559999999999</v>
-      </c>
-      <c r="G79">
-        <f>[2]Summary!I79*2048/100</f>
-        <v>735.23199999999997</v>
-      </c>
-      <c r="H79">
-        <f>[5]Summary!I79*4096/100</f>
         <v>1466.3679999999999</v>
       </c>
       <c r="I79">
-        <f>[1]Summary!I79*2048/100</f>
+        <f>[8]Summary!I79*2048/100</f>
         <v>730.11200000000008</v>
       </c>
     </row>
@@ -12556,35 +12557,35 @@
         <v>312</v>
       </c>
       <c r="B80">
-        <f>[6]Summary!I80*4096/100</f>
+        <f>[1]Summary!I80*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C80">
+        <f>[2]Summary!I80*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D80">
+        <f>[3]Summary!I80*4096/100</f>
+        <v>1505.28</v>
+      </c>
+      <c r="E80">
         <f>[4]Summary!I80*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D80">
+        <v>676.86399999999992</v>
+      </c>
+      <c r="F80">
+        <f>[5]Summary!I80*4096/100</f>
+        <v>1490.944</v>
+      </c>
+      <c r="G80">
+        <f>[6]Summary!I80*2048/100</f>
+        <v>735.23199999999997</v>
+      </c>
+      <c r="H80">
         <f>[7]Summary!I80*4096/100</f>
-        <v>1505.28</v>
-      </c>
-      <c r="E80">
-        <f>[3]Summary!I80*2048/100</f>
-        <v>676.86399999999992</v>
-      </c>
-      <c r="F80">
-        <f>[8]Summary!I80*4096/100</f>
-        <v>1490.944</v>
-      </c>
-      <c r="G80">
-        <f>[2]Summary!I80*2048/100</f>
-        <v>735.23199999999997</v>
-      </c>
-      <c r="H80">
-        <f>[5]Summary!I80*4096/100</f>
         <v>1474.56</v>
       </c>
       <c r="I80">
-        <f>[1]Summary!I80*2048/100</f>
+        <f>[8]Summary!I80*2048/100</f>
         <v>729.08800000000008</v>
       </c>
     </row>
@@ -12593,35 +12594,35 @@
         <v>316</v>
       </c>
       <c r="B81">
-        <f>[6]Summary!I81*4096/100</f>
+        <f>[1]Summary!I81*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C81">
+        <f>[2]Summary!I81*2048/100</f>
+        <v>389.12</v>
+      </c>
+      <c r="D81">
+        <f>[3]Summary!I81*4096/100</f>
+        <v>1505.28</v>
+      </c>
+      <c r="E81">
         <f>[4]Summary!I81*2048/100</f>
-        <v>389.12</v>
-      </c>
-      <c r="D81">
+        <v>672.76799999999992</v>
+      </c>
+      <c r="F81">
+        <f>[5]Summary!I81*4096/100</f>
+        <v>1490.944</v>
+      </c>
+      <c r="G81">
+        <f>[6]Summary!I81*2048/100</f>
+        <v>733.18399999999997</v>
+      </c>
+      <c r="H81">
         <f>[7]Summary!I81*4096/100</f>
-        <v>1505.28</v>
-      </c>
-      <c r="E81">
-        <f>[3]Summary!I81*2048/100</f>
-        <v>672.76799999999992</v>
-      </c>
-      <c r="F81">
-        <f>[8]Summary!I81*4096/100</f>
-        <v>1490.944</v>
-      </c>
-      <c r="G81">
-        <f>[2]Summary!I81*2048/100</f>
-        <v>733.18399999999997</v>
-      </c>
-      <c r="H81">
-        <f>[5]Summary!I81*4096/100</f>
         <v>1474.56</v>
       </c>
       <c r="I81">
-        <f>[1]Summary!I81*2048/100</f>
+        <f>[8]Summary!I81*2048/100</f>
         <v>727.04</v>
       </c>
     </row>
@@ -12630,35 +12631,35 @@
         <v>320</v>
       </c>
       <c r="B82">
-        <f>[6]Summary!I82*4096/100</f>
+        <f>[1]Summary!I82*4096/100</f>
         <v>1077.248</v>
       </c>
       <c r="C82">
+        <f>[2]Summary!I82*2048/100</f>
+        <v>391.16800000000001</v>
+      </c>
+      <c r="D82">
+        <f>[3]Summary!I82*4096/100</f>
+        <v>1515.52</v>
+      </c>
+      <c r="E82">
         <f>[4]Summary!I82*2048/100</f>
-        <v>391.16800000000001</v>
-      </c>
-      <c r="D82">
+        <v>672.76799999999992</v>
+      </c>
+      <c r="F82">
+        <f>[5]Summary!I82*4096/100</f>
+        <v>1503.2320000000002</v>
+      </c>
+      <c r="G82">
+        <f>[6]Summary!I82*2048/100</f>
+        <v>733.18399999999997</v>
+      </c>
+      <c r="H82">
         <f>[7]Summary!I82*4096/100</f>
-        <v>1515.52</v>
-      </c>
-      <c r="E82">
-        <f>[3]Summary!I82*2048/100</f>
-        <v>672.76799999999992</v>
-      </c>
-      <c r="F82">
-        <f>[8]Summary!I82*4096/100</f>
-        <v>1503.2320000000002</v>
-      </c>
-      <c r="G82">
-        <f>[2]Summary!I82*2048/100</f>
-        <v>733.18399999999997</v>
-      </c>
-      <c r="H82">
-        <f>[5]Summary!I82*4096/100</f>
         <v>1476.6079999999999</v>
       </c>
       <c r="I82">
-        <f>[1]Summary!I82*2048/100</f>
+        <f>[8]Summary!I82*2048/100</f>
         <v>724.99199999999996</v>
       </c>
     </row>
